--- a/deuChatbot/research_result/BAAI_bge-m3_(2500_300)_RecursiveCharacterTextSplitter.xlsx
+++ b/deuChatbot/research_result/BAAI_bge-m3_(2500_300)_RecursiveCharacterTextSplitter.xlsx
@@ -2,27 +2,33 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12180" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="맑은 고딕"/>
+      <charset val="129"/>
+      <family val="3"/>
+      <sz val="8"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -50,7 +56,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,13 +419,16 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F101"/>
+  <dimension ref="A1:F201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="K103" sqref="K103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
+  <cols>
+    <col width="18.125" bestFit="1" customWidth="1" min="1" max="1"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -6889,6 +6898,6702 @@
         </is>
       </c>
     </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경찰행정학과의 경쟁률과 관련된 정보를 제공하고 있으며, 2020년도 경쟁률과 현재 경쟁률을 비교하고 있습니다. 그러나, 평균 성적에 대한 언급이 없고, 지원자의 성적 분포에 대한 정보가 부족하여 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, 경쟁률에 대한 해석이 다소 다릅니다. 원본 텍스트는 성적이 평균보다 높고 경쟁률이 낮아진 점을 긍정적으로 언급했으나, 생성된 응답은 경쟁률만으로는 희망성을 판단하기 어렵다고 강조하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문자의 상황에 대한 적절한 조언을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 그러나, 일부 문장에서 주제가 전환되는 부분이 있어 약간의 일관성 부족이 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 경찰행정학과의 경쟁률과 관련된 정보를 정확하게 전달하고 있으나, 평균 성적에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 요소에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 질문자의 상황에 적절한 조언을 제공합니다. 다만, 일부 표현이 다소 모호할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C102" t="n">
+        <v>0.8645956885957442</v>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>제 동의대 정시 성적이 3.66이 나오는데요 경찰행정학전공 농어촌으로 넣었는데 13일 기준으로 지금 경쟁률이 5:1이거든요? 작년 2020년도 경쟁률이 7:1이던데 이거 희망을 가지고 있어도 되는 부분인가요?</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>2024학년도 정시 모집의 경찰행정학과 경쟁률은 현재 5:1로 나타나고 있습니다. 이는 작년 2020년도에 비해 약간 낮은 수준이라고 볼 수 있습니다(작년 경쟁률이 7:1이었습니다). 
+그러나, 경쟁률만으로는 정확한 희망성을 판단하기 어렵습니다. 여러 요소를 고려해야 합니다:
+1. 지원자들의 성적 분포: 현재 지원자의 평균 성적이 높은지 낮은지에 따라 경쟁률이 반영되는 방식이 달라질 수 있습니다.
+2. 전형방식 및 점수 계산 방법: 각 전형의 특성과 점수 계산 방식을 고려해야 합니다. 예를 들어, 가산점이나 학교별 특성평가 등이 있다면 이에 대한 정보도 필요합니다.
+3. 지원자 수와 모집인원: 지원자가 많고 모집인원이 적다면 경쟁률은 높아질 수 있습니다.
+따라서, 현재의 경쟁률만으로는 확실한 판단을 내리기 어렵습니다. 성적 3.66이라는 점에서 상당히 좋은 위치에 있다고 생각할 수 있지만, 이 결과를 확신하는 것은 지원자의 전반적인 성적과 특성, 전형 방식 등 다양한 요소를 고려해야 합니다.
+또한, 경쟁률이 작년보다 낮아진 것이라면 희망을 가지고 지원하는 것이 좋다고 볼 수 있습니다. 그러나, 이 결과만으로는 확신할 수 없습니다. 여러 요소를 고려하여 판단하고, 필요하다면 추가 정보를 수집해 보는 것도 좋은 방법이라고 볼 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>제공된 정보에 따르면, 경찰행정학과의 2024학년도 수능(일반학생전형) 최종등록자 평균 수능 4개 영역 등급은 4.12입니다. 귀하의 성적이 3.66이라면, 이는 평균보다 높은 성적입니다. 
+경쟁률이 2020년도에 비해 낮아졌다는 점도 긍정적인 요소로 작용할 수 있습니다. 경쟁률이 낮아지면 합격 가능성이 상대적으로 높아질 수 있기 때문입니다.
+따라서, 귀하의 성적이 평균보다 높고 경쟁률이 낮아진 점을 고려할 때, 희망을 가져도 될 것으로 보입니다. 다만, 최종 결과는 여러 변수에 따라 달라질 수 있으므로, 최선을 다해 준비하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 예비 합격자 순위와 충원 합격 가능성에 대한 설명을 제공하고 있으며, 이는 원문에서 언급된 내용과 일치합니다. 그러나 원문에서 특정 학과에 대한 정보가 제공되었음에도 불구하고, 생성된 응답은 그 부분을 생략하고 일반적인 설명을 하고 있어 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 예비 합격자의 상황을 설명하고 있으며, 충원 합격 가능성에 대한 논의도 원문과 일치합니다. 다만, 특정 학과에 대한 언급이 없어서 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 내용을 다루고 있으며, 예비 합격자의 상황과 가능성에 대한 정보를 제공하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 예비 합격자의 상황에 대한 정확한 설명을 제공하고 있지만, 원문에서 제공된 특정 학과 목록을 포함하지 않아 정보의 완전성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 특정 학과에 대한 정보 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과의 의미적 일치가 잘 이루어져 있으며, 질문의 맥락에 적절하게 대응하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현으로 작성되어 있어, 독자가 쉽게 이해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C103" t="n">
+        <v>0.5875808251924646</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>정시 일반학생 전형으로 원서를 넣었는데 예비 25번이 나왔네요 붙을 확률 있을까요? 가능성 없겠죠?</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>25번의 예비 합격자라는 결과는 해당 단과대학 또는 모집단위에서 충원 합격자가 되기 위한 순위를 나타냅니다. 이는 일반적으로 충원 합격에 대한 확실한 보장이 아닙니다. 그러나, 이는 아직 충원 과정이 진행 중이며, 다른 예비 합격자들이 타 대학에서 합격하거나 포기하는 등의 상황이 발생하면, 당신의 순위가 실제 충원 합격자로 올라갈 수 있습니다.
+예를 들어, 만약 25번 이후에 몇 명이 타 대학에서 합격하거나 등록을 포기한다면, 당신은 그 자리에 오르게 될 수 있습니다. 그러나 이것은 확실한 보장이 아닙니다. 다른 예비 합격자들이 모두 타 대학에서 합격하거나 포기를 하지 않는다면, 당신의 순위는 변동되지 않을 것입니다.
+따라서, 이 결과를 기반으로 확실히 "불가능하다"라고 결론 내리는 것은 어렵습니다. 가장 정확한 정보를 얻으려면 직접 대학에 문의하거나, 해당 단과대학 또는 모집단위에서 제공하는 추가 정보를 참조해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>귀하께서 지원하신 학과에 따라서 합격될 확률은 달라질 수 있습니다.
+2024년 동의대학교 일반학생전형에서 예비 25번 이상이 합격한 학과는 다음과 같습니다.
+- **영어영문학과**
+- **경영정보학과**
+- **e비즈니스학과**
+- **간호학과**
+- **신소재공학과**
+- **고분자나노공학과**
+- **의생명공학과**
+- **바이오의약공학과**
+- **식품공학과**
+- **산업경영빅데이터공학과**
+귀하께서 지원하신 학과가 위 학과에 포함된다면, 귀하께서 합격하실 확률은 있다고 볼 수 있습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 경찰행정학과의 평균 성적에 대한 구체적인 정보를 제공하지 않고, 법경찰행정학부의 합격선에 대한 잘못된 정보를 포함하고 있습니다. 이는 원본 텍스트와 일치하지 않으며, 사실과 다릅니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 서로 다른 학과에 대한 정보를 혼동하고 있습니다. 이는 일관성이 부족합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 법경찰행정학부에 대한 정보를 제공하지만, 원본 텍스트의 주제인 경찰행정학과의 평균 성적과 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성에 문제가 있어 점수를 낮추었습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 떨어져서 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 다르며, 잘못된 정보를 포함하고 있습니다. 이는 정확성에 큰 영향을 미칩니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 이로 인해 전체적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트와의 관련성이 떨어져서 의미 전달이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 정확성 문제로 인해 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C104" t="n">
+        <v>0.7669377576529279</v>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>동의대학교 법경찰행정학부에 정시로 들어갈려면 평균 성적이 몇 정도 받으면 안정권이거나 문 닫고 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>2023년 동의대학교 법경찰행정학부의 정시 합격선은 1등급 4점, 2등급 5.6점, 3등급 7.8점, 4등급 9.9점이었습니다. 이는 평균 성적을 고려한 합격 기준으로, 이러한 점수를 받으면 안정적인 입학 가능성이 높습니다. 그러나 각 년도마다 합격선은 변동되므로, 가장 정확한 정보를 얻기 위해서는 해당 해의 공고나 통계를 참조하는 것이 좋습니다.
+또한, 동의대학교 법경찰행정학부에 대한 자세한 입학 기준이나 전형 방식 등에 대해서는 각 년도별로 다르므로, 최신 및 정확한 정보를 얻기 위해서는 공식 사이트나 대학 관계자에게 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>동의대학교 경찰행정학과의 최종등록자와 최초합격자의 평균 성적을 비교하여 안정권과 문 닫고 들어갈 수 있는 성적을 추정할 수 있습니다.
+- **최종등록자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 332.86
+  - 영어 등급: 4.00
+  - 수능 4개 영역 등급: 4.12
+  - 수능 4개 영역 표준 변환 점수 합: 447.86
+- **최초합격자 평균 성적:**
+  - 국어 + 수학 + 탐구(2개) 표준 변환 점수 합: 330.71
+  - 영어 등급: 3.14
+  - 수능 4개 영역 등급: 3.87
+  - 수능 4개 영역 표준 변환 점수 합: 452.57
+### 안정권과 문 닫고 들어갈 수 있는 성적 추정
+- **경찰행정학과:**
+  - 안정권: 최초합격자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 331점 이상, 수능 4개 영역 표준 변환 점수 합 약 453점 이상)
+  - 문 닫고 들어갈 수 있는 성적: 최종등록자 평균 성적에 근접한 성적 (국어 + 수학 + 탐구(2개) 표준 변환 점수 합 약 333점 이상, 수능 4개 영역 표준 변환 점수 합 약 448점 이상)
+이 성적을 기준으로 준비하시면 안정권 또는 문 닫고 들어갈 수 있는 성적을 받을 수 있을 것입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 평균 등급과 관련된 정보를 포함하고 있으며, 합격 가능성에 대한 논의도 적절하게 이루어졌습니다. 그러나, "70퍼 컷이 5.33"이라는 표현이 다소 모호하게 사용되었고, 원문에서 제공된 정보와의 일관성이 부족한 부분이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문에서 언급된 평균 등급과 관련된 정보를 포함하고 있지만, "70퍼 컷"이라는 표현이 원문과의 일관성을 떨어뜨립니다. 원문에서는 합격 가능성에 대한 명확한 기준을 제시하고 있으나, 생성된 응답은 여러 요소를 고려해야 한다고 강조하여 일관성이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 합격 가능성에 대한 논의가 잘 이루어졌습니다. 원문에서 언급된 평균 등급과 관련된 정보도 적절히 반영되었습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나, 일부 문장에서 주제가 전환되는 부분이 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공된 정보와 대체로 일치하지만, "70퍼 컷"이라는 표현이 다소 모호하게 사용되어 정확성이 떨어질 수 있습니다. 원문에서의 평균 등급과 비교하여 합격 가능성을 논의하는 부분은 정확합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으며, 특히 관련성과 유창성에서 높은 점수를 받았습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과의 의미적 일치가 높으며, 주제에 적합한 내용을 담고 있습니다. 다만, "70퍼 컷"이라는 표현이 다소 애매하게 사용되어 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있습니다. 전반적으로 명확한 정보 전달이 이루어졌습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.7744105849488346</v>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>보육가정상담학과 2023 합격 70퍼 컷이 5.33인데 제 동의대식 정시 산출 등급이 5.33이거든요. 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>2023년 보육가정상담학과의 최종등록자 표에서 확인한 결과, 2024학년도 모집단위에 대한 경쟁률은 70퍼 컷이 5.33이라고 말씀하셨습니다. 또한, 동의대식 정시 산출 등급이 5.33이라는 점을 고려하면, 이는 해당 학과의 최종등록자들의 평균 성적에 가깝거나 조금 높은 수준으로 보입니다.
+그러나, 합격 여부를 결정하는 요인은 단지 등급 하나만이 아니라 여러 가지 요소가 포함됩니다. 예를 들어, 지원자의 전반적인 성적 외에도 특기사항, 자기소개서, 면접 결과 등을 고려하여 합격 여부가 결정됩니다.
+따라서, 동의대식 정시 산출 등급이 5.33이라는 점만으로는 합격 가능성을 확신할 수 없습니다. 다른 지원자의 성적과 비교하여 상대적인 위치를 파악하고, 전반적인 지원자들의 평균 성적을 고려해야 합니다.
+또한, 경쟁률이 70퍼 컷이 5.33이라는 것은 해당 학과의 합격선이 5.33이라는 것을 의미하지만, 이는 단순히 등급 하나를 기준으로 한 것이며, 실제로는 여러 요소가 고려되어 합격선이 결정됩니다.
+따라서, 동의대식 정시 산출 등급이 5.33이라면, 해당 학과의 경쟁률과 전반적인 지원자들의 성적을 고려하여 상대적인 위치를 파악하고, 가능한 한 높은 점수로 준비하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 보육가정상담학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 5.33라면 보육가정상담학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교의 충원 합격자 발표와 관련된 정보를 포함하고 있지만, 동점자 처리기준에 대한 설명이 과도하게 반복되고 있으며, 예비 12번의 합격 가능성에 대한 정보가 명확하지 않습니다. 따라서 일부 사실이 왜곡되거나 불명확하게 전달되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분이 있지만, 동점자 처리기준에 대한 반복적인 언급이 있어 일관성이 떨어집니다. 원본 텍스트의 핵심 내용과는 다소 다르게 해석될 수 있는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 동점자 처리기준에 대한 설명이 지나치게 강조되어 있어 일부 내용이 주제와의 관련성이 떨어질 수 있습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로는 큰 문제가 없지만, 반복적인 문장 구조와 표현으로 인해 읽기 흐름이 매끄럽지 않습니다. 따라서 유창성 점수가 낮아졌습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 부족하고, 반복적인 내용으로 인해 일관된 주제를 유지하지 못하고 있습니다. 이로 인해 응답의 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있지만, 동점자 처리기준에 대한 설명이 과도하게 반복되면서 정확한 정보 전달이 이루어지지 않았습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 유창성과 일관성에서 부족함이 드러납니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 맥락을 일부 반영하고 있지만, 반복적인 내용으로 인해 의미 전달이 명확하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 이해하기 어려운 부분이 있으며, 특히 반복적인 문장 구조로 인해 명확한 이해를 방해합니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>0.6689534358217817</v>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>동의대 보육가정상담 충원 3차에서 예비 12 받았는데 합격 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>3차 충원에 예비 12을 받은 경우, 합격 가능성은 여러 요소에 따라 달라집니다. 
+첫째로, 동점자 처리기준을 고려해야 합니다. 동점자가 발생할 경우 서류 성적 상위자, 국어, 수학, 영어 등급 평균 상위자, 영어교과 전 과목 등급 평균 상위자, 그리고 국어교과 전 과목 등급 평균 상위자를 우선적으로 합격시키므로 예비 12을 받은 경우는 합격 가능성에 미치지 않습니다.
+둘째로, 동의대 보육가정상담 충원 3차에서 예비 12 받았는데 합격 가능성 있을까요? 
+첫째로, 동점자 처리기준을 고려해야 합니다. 동점자가 발생할 경우 서류 성적 상위자, 국어, 수학, 영어 등급 평균 상위자, 그리고 영어교과 전 과목 등급 평균 상위자를 우선적으로 합격시키므로 예비 12을 받은 경우는 합격 가능성에 미치지 않습니다.
+둘째로, 동의대 보육가정상담 충원 3차에서 예비 12 받았는데 합격 가능성 있을까요? 
+동점자 처리기준을 고려해야 합니다. 동점자가 발생할 경우 서류 성적 상위자, 국어, 수학, 영어 등급 평균 상위자, 그리고 영어교과 전 과목 등급 평균 상위자를 우선적으로 합격시키므로 예비 12을 받은 경우는 합격 가능성에 미치지 않습니다.
+또다른 요소로는 동의대 보육가정상담 충원 3차에서 예비 12 받았는데 합격 가능성 있을까요? 
+동점자 처리기준을 고려해야 합니다. 동점자가 발생할 경우 서류 성적 상위자, 국어, 수학, 영어 등급 평균 상위자, 그리고 영어교과 전 과목 등급 평균 상위자를 우선적으로 합격시키므로 예비 12을 받은 경우는 합격 가능성에 미치지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>동의대학교의 충원 합격자 발표 및 등록 일정에 따르면, 충원 합격자 발표는 1차, 2차, 그리고 3차 이후로 나뉘어 진행됩니다. 3차 이후의 충원 합격자 발표는 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보로 이루어집니다.
+예비 12번을 받으셨다면, 앞선 예비 번호를 받은 지원자들이 등록을 포기하거나 다른 대학에 등록하는 경우, 합격 가능성이 있습니다. 충원 합격은 지원자들의 등록 포기 여부에 따라 달라지므로, 정확한 예측은 어렵습니다. 하지만 예비 번호가 12번이라면, 충원 합격 가능성이 아예 없는 것은 아닙니다.
+충원 합격자 발표 기간 동안 전화 통보를 기다리시고, 다른 대학의 등록 상황도 주시하시기 바랍니다. 간절한 마음이 잘 전달되어 좋은 결과가 있기를 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 4.75의 성적이 좋은 수준이라고 언급하고 있지만, 유아교육학과에 대한 구체적인 수치(4.18 평균)를 언급하지 않아 정확한 정보 전달이 부족하다. 또한, "많은 대학에서 합격을 받을 수 있는 기회가 많습니다"라는 표현은 다소 모호하다.
+2. Consistency Score (1-5): 3
+   - 응답은 유아교육학과의 경쟁이 치열하다고 언급하지만, 원본 텍스트에서 제공된 구체적인 데이터와 비교했을 때, 성적에 대한 확신이 부족하다는 점에서 일관성이 떨어진다.
+3. Relevance Score (1-5): 4
+   - 응답은 유아교육학과에 대한 정보와 4.75 성적의 의미를 다루고 있어 관련성이 높지만, 원본 텍스트의 구체적인 데이터와 비교할 때 다소 부족하다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉽고 이해하기 쉬운 표현을 사용하고 있다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽다.
+6. Accuracy Score (1-5): 3
+   - 응답은 유아교육학과의 경쟁이 치열하다는 점을 언급하지만, 구체적인 수치나 데이터에 대한 언급이 부족하여 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 유용한 정보를 제공하지만, 구체적인 데이터와의 연결이 부족하여 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 주제에 적합한 의미를 전달하고 있으며, 유아교육학과에 대한 설명이 적절하다.
+9. Understandability Score (1-5): 4
+   - 응답은 명확하고 이해하기 쉬운 표현을 사용하고 있어, 전반적으로 이해하기 쉽다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>0.7694981167625209</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>정시 성적으로 4.75 나오는데 가능할까요? 그리고 유아교육학과는 이 성적으로 어렵겠죠?</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>4.75의 정시 성적은 대체로 좋은 수준으로, 많은 대학에서 합격을 받을 수 있는 기회가 많습니다. 그러나 학과에 따라 다르므로, 특정 학과의 경우를 예측하는 것은 복잡할 수 있습니다.
+유아교육학과는 일반적으로 경쟁이 매우 치열한 학과로 알려져 있습니다. 이 학과는 많은 지원자들이 있지만 졸업 인원이 적기 때문에, 높은 성적을 가진 지원자가 많습니다. 따라서 4.75의 성적만으로는 유아교육학과에 합격할 수 있는지 확신하기는 어렵습니다.
+그러나 대체로 좋은 성적이라면 많은 대학에서 합격을 받을 수 있을 것입니다. 그러나 특정 학과의 경우를 예측하는 것은 복잡할 수 있습니다. 따라서 유아교육학과에 4.75의 성적으로 합당한지 확신하기는 어렵습니다. 이 경우에는 해당 학과의 경쟁률, 졸업 인원 등을 고려하여 판단해야 할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>정시 성적 4.75로 지원 가능한 학과를 알아보겠습니다. 제공된 데이터에서 최종등록자의 수능 4개 영역 등급 평균을 기준으로 분석해보겠습니다.
+### 지원 가능 학과
+- **국어국문학과**: 4.92 (평균)
+- **중어중국학과**: 5.68 (평균)
+- **일본학과**: 4.87 (평균)
+- **영어영문학과**: 5.16 (평균)
+- **문헌정보학과**: 4.82 (평균)
+- **평생교육·청소년상담학과**: 5.22 (평균)
+- **아동학과**: 7.08 (평균)
+- **금융경영학과**: 5.41 (평균)
+- **재무부동산학과**: 5.82 (평균)
+- **무역학과**: 5.18 (평균)
+- **유통물류학과**: 5.45 (평균)
+- **회계학과**: 4.99 (평균)
+- **국제관광경영학과**: 5.41 (평균)
+- **호텔·컨벤션경영학과**: 6.12 (평균)
+- **외식경영학과**: 4.91 (평균)
+- **의료경영학과**: 5.92 (평균)
+- **식품영양학과**: 5.92 (평균)
+- **기계공학과, 로봇자동화공학과, 자동차공학과**: 6.30 (평균)
+- **조선해양공학과**: 6.16 (평균)
+- **신소재공학과, 고분자나노공학과**: 5.78 (평균)
+- **환경공학과, 화학공학과, 응용화학과**: 5.73 (평균)
+- **의생명공학과, 바이오의약공학과, 식품공학과**: 5.41 (평균)
+- **인간공학과, 제품디자인공학과**: 5.72 (평균)
+- **산업경영빅데이터공학과**: 5.27 (평균)
+- **인공지능학과**: 5.25 (평균)
+- **전기공학과, 전자공학과**: 5.37 (평균)
+- **게임공학과**: 4.78 (평균)
+- **영화학과**: 5.04 (평균)
+### 유아교육학과
+유아교육학과의 경우, 최종등록자의 수능 4개 영역 등급 평균이 4.18로 나타나 있습니다. 따라서, 4.75의 성적으로는 유아교육학과에 지원하기 어려울 것으로 보입니다.
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 보육가정상담학과의 합격 가능성에 대한 정보를 제공하고 있으며, 원본 텍스트의 주요 사실을 반영하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 평균 등급 수치(영어 등급 평균 6.33, 수능 4개 영역 등급 평균 7.08)에 대한 언급이 없으므로, 완전한 정확성은 부족합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 대체로 일치하며, 합격 가능성에 대한 논의가 일관되게 이루어지고 있습니다. 다만, 원본 텍스트의 구체적인 수치가 누락되어 있어 약간의 일관성 부족이 느껴집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 보육가정상담학과의 합격 가능성에 대한 정보를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 합격 가능성에 대한 논의를 하고 있지만, 구체적인 수치가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있지만, 일부 세부 사항의 누락으로 인해 완전한 점수를 받지 못했습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>0.7400878825646994</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>제가 동의대 정시 환산등급이 4.16인데 보육가정상담학과 일반학생전형으로 추합까지 생각해서 합격이 될까요?</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>2024학년도 수능(일반학생전형) 최종등록자 표를 참고하면, 동의대 정시 환산등급이 4.16인 경우에 해당하는 보육가정상담학과 일반학생전형의 경쟁률이나 충원 합격 후보순위 등 정보를 확인할 수 있습니다.
+그러나 이 정보만으로는 확실한 결론을 내리기 어렵습니다. 최종등록자 표에는 지원 인원, 경쟁률, 충원 합격 후보 순위 등이 있지만, 해당 학과의 합격 기준은 여러 요소에 따라 달라질 수 있습니다.
+또한, 최초합격자 표를 참고하면, 동일한 환산등급인 4.16의 지원자가 얼마나 많은지, 그리고 그들의 평균 점수와 등급이 어떤지 확인할 수 있습니다. 이 정보는 해당 학과에 대한 합격 가능성에 대해 좀 더 구체적인 판단을 도울 수 있습니다.
+따라서, 정확한 결론을 내리기 위해서는 동의대 보육가정상담학과 일반학생전형의 최종합격 기준 점수를 확인하거나, 해당 대학의 입학처에서 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>보육가정상담학과의 최종등록자 데이터를 기준으로 보면, 아동학과의 영어 등급 평균은 6.33이고, 수능 4개 영역 등급 평균은 7.08입니다. 
+따라서, 현재 정시 등급이 4.16라면 아동학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 소프트웨어융합학과가 정시로 지원할 수 있다고 잘못된 정보를 제공하고 있습니다. 원본 텍스트는 소프트웨어융합학과가 정시로 지원할 수 없다고 명확히 언급하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본 텍스트는 정시 지원이 불가능하다고 명시하고 있지만, 생성된 응답은 정시 모집군에 포함되어 있다고 주장하고 있습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 질문의 주제와 관련된 정보를 제공하려고 하지만, 잘못된 사실에 기반하고 있어 관련성이 낮습니다. 원본 텍스트의 핵심 내용과는 거리가 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 여러 정보를 포함하고 있지만, 원본 텍스트와의 일관성이 부족하여 논리적 흐름이 약해 보입니다. 정보가 서로 연결되지 않고 혼란스러운 느낌을 줍니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 소프트웨어융합학과의 정시 지원 가능성에 대한 정보가 잘못되었습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 낮은 점수를 받습니다. 원본 텍스트와의 불일치로 인해 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3  
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 따라서 이해 가능성은 중간 정도입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>0.7077149880347953</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시로 들어갈 수 있나요? 된다면 평균 몇 등급정도 받아야 하나요?</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 정시모집군 변경사항에 따르면, 소프트웨어융합학과는 정시 모집군에 포함되어 있습니다. 그러나 정확한 평균 등급은 여러 요인에 따라 달라질 수 있으며, 이는 학교에서 제공하는 통계나 전년도의 입학생들의 성적을 참조해야 합니다.
+이를 위해서는 동의대학교의 공식 웹사이트나 관리자에게 직접 문의하거나, 해당 학과의 졸업생들로부터 정보를 얻어보는 것이 가장 정확할 것입니다. 또한, 이와 관련된 자세한 정보는 각 학과별로 다르므로, 소프트웨어융합학과에 대한 구체적인 정보를 찾기 위해 해당 학과의 홈페이지나 관리자에게 직접 문의하는 것을 권장드립니다.
+또한, 동의대학교의 입학전형은 다양한 요소를 고려하여 평가되므로, 단순히 등급만을 기준으로 판단하기 보다는 전반적인 성적 및 학업역량을 고려해야 합니다. 따라서, 소프트웨어융합학과에 지원하려면 해당 학과의 입학전형 방식과 요구사항을 잘 이해하고, 가능한 한 높은 성적을 유지하는 것이 중요합니다.
+이외에도, 동의대학교의 공식 웹사이트에서 제공하는 통계나 전년도의 입학생들의 성적 등을 참조하여 평균 등급을 예상할 수 있습니다. 그러나 이는 정확한 정보를 얻기 위해 직접적으로 문의하거나, 해당 학과의 졸업생들로부터 정보를 얻어보는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>아니요. 소프트웨어융합학과는 정시로 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어융합학과의 평가 방식에 대한 정보가 부족하고, 서류 준비에 대한 구체적인 내용이 원본 텍스트와 일치하지 않음. 서류 평가의 구체적인 항목이 언급되지 않음.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, 서류 평가의 구체적인 항목에 대한 언급이 부족하여 일관성이 떨어짐. 또한, 반복적인 내용이 많아 일관성이 저하됨.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 핵심 내용인 서류 평가와 면접 고사에 대한 정보가 부족하여 약간의 관련성이 떨어짐.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없음. 그러나 반복적인 내용이 있어 읽는 데 다소 지루함을 느낄 수 있음.
+5. Coherence Score (1-5): 3
+   - 응답의 구조가 다소 혼란스러워 보이며, 반복적인 내용이 많아 논리적인 흐름이 약간 깨짐. 각 항목 간의 연결이 부족함.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트의 구체적인 사실을 충분히 반영하지 못하고 있음. 서류 평가의 구체적인 항목이 누락됨.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답이 여러 차원에서 중간 정도의 품질을 보임. 그러나 정보의 정확성과 일관성이 부족하여 전반적인 품질이 저하됨.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으나, 원본 텍스트의 구체적인 내용과는 다소 차이가 있음.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉬우나, 반복적인 내용으로 인해 다소 혼란스러울 수 있음.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>0.7334655681154778</v>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>소프트웨어 융합과 면접 점수보다 세특 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>1. 소프트웨어 융합과 면접 점수보다 세부 내용을 더 중요하게 보는 경우가 있습니다. 이는 학생의 개인적인 경험, 노력, 성장 과정 등을 종합적으로 평가하기 때문입니다. 따라서 이러한 세부 내용에 대한 준비가 필요합니다.
+2. 따로 준비해야 하는 서류는 학교마다 다르지만, 일반적으로 다음과 같은 서류들이 요구될 수 있습니다:
+   - 학생부종합전형 지원서: 이는 학생의 학업 성적, 동아리 활동, 진로 탐색 등에 대한 정보를 담고 있는 문서입니다.
+   - 학교생활기록부: 이는 학급 및 단체 구성원이 작성한 학교생활 기록을 담고 있습니다. 
+   - 면접 질문 공통문항: 이는 지원 동기와 학업 계획, 문제해결 능력 등에 대한 질문입니다.
+3. 소프트웨어 융합과 면접 점수보다 세부 내용을 많이 보시나요? 따로 준비해야하는 서류 존재하나요?
+    - 소프트웨어 융합과 면접 점수보다 세부 내용을 더 중요하게 보는 경우가 있습니다. 이는 학생의 개인적인 경험, 노력, 성장 과정 등을 종합적으로 평가하기 때문입니다.
+    - 따라서 이러한 세부 내용에 대한 준비가 필요합니다.
+    - 따로 준비해야 하는 서류는 학교마다 다르지만, 일반적으로 다음과 같은 서류들이 요구될 수 있습니다:
+        - 학생부종합전형 지원서: 이는 학생의 학업 성적, 동아리 활동, 진로 탐색 등에 대한 정보를 담고 있는 문서입니다.
+        - 학교생활기록부: 이는 학급 및 단체 구성원이 작성한 학교생활 기록을 담고 있습니다. 
+        - 면접 질문 공통문항: 이는 지원 동기와 입학 후 학업 계획, 문제해결 능력 등에 대한 질문입니다.
+    - 따라서 이러한 세부 내용에 대한 준비가 필요합니다.
+    - 따로 준비해야 하는 서류는 학교마다 다르지만, 일반적으로 다음과 같은 서류들이 요구될 수 있습니다:
+        - 학생부종합전형 지원서: 이는 학생의 학업 성적, 동아리 활동, 진로 탐색 등에 대한 정보를 담고 있는 문서입니다.
+        - 학교생활기록부: 이는 학급 및 단체 구성원이 작성한 학교생활 기록을 담고 있습니다. 
+        - 면접 질문 공통문항: 이는 지원 동기와 입학 후 학업 계획, 문제해결 능력 등에 대한 질문입니다.
+    - 따라서 이러한 세부 내용에 대한 준비가 필요합니다.
+    - 따로 준비해야 하는 서류는 학교마다 다르지만, 일반적으로 다음과 같은 서류들이 요구될 수 있습니다:
+        - 학생부종합전형 지원서: 이는 학생의 학업 성적, 동아리 활동, 진로 탐색 등에 대한 정보를 담고 있는 문서입니다.
+        - 학교생활기록부: 이는 학급 및 단체 구성원이 작성한 학교생활 기록을 담고 있습니다. 
+        - 면접 질문 공통문항: 이는 지원 동기와 입학 후 학업 계획, 문제해결 능력 등에 대한 질문입니다.
+    - 따라서 이러한 세부 내용에 대한 준비가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과는 서류 평가(공동체 역량, 학업 역량, 전공 적합성)과 면접 고사(300점 만점), 학생부 교과성적을 합쳐서 평가합니다. 
+준비해야하는 서류와 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교 소프트웨어공학부의 정시 합격 가능성에 대한 여러 요소를 고려하고 있으며, 4.08이라는 점수에 대한 분석이 포함되어 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 4.49와의 비교가 명확히 언급되지 않아 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 내용과 일관되며, 합격 가능성에 대한 다양한 요소를 설명하고 있습니다. 그러나 원본 텍스트의 평균 등급과의 직접적인 비교가 부족하여 약간의 일관성 결여가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 매우 관련이 있으며, 합격 가능성에 대한 다양한 요소를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 흐름을 가지고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 전반적으로 정확하지만, 원본 텍스트의 평균 등급과의 비교가 부족하여 약간의 정확성 결여가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 일부 정보의 누락으로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>0.8300706137933257</v>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>동의대 소프트웨어공학부 정시 성적 산출 했을때 4.08인데 최초합 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>4.08이라는 점수를 가지고 동의대학교 소프트웨어공학부의 정시 합격 가능성에 대해 판단하려면 여러 요소들을 고려해야 합니다.
+1. **전형 방식**: 동의대는 수능(일반학생전형)을 통해 합격자를 선발합니다. 이 전형에서는 성적, 진로선택과목 등이 반영되며, 점수가 4.08이라는 점에서 볼 때, 일반적으로 좋은 성적이 반영될 것으로 예상됩니다.
+2. **경쟁률**: 경쟁률은 합격 가능성에 큰 영향을 미칩니다. 동의대의 경쟁률이 높다면, 4.08이라는 점수로는 최초합을 받기 어려울 수 있습니다. 반대로 경쟁률이 낮다면 가능성이 높아질 수 있습니다.
+3. **전형 과정**: 정시 전형에서는 수능 성적 외에도 진로선택과목 등이 고려되므로, 이 부분에서 좋은 점수를 받았다면 합격 가능성은 더욱 높을 것입니다.
+4. **모집 인원 및 지원 인원**: 모집 인원이 많고 지원 인원이 적다면 경쟁률이 낮아져서 4.08이라는 점수가 최초합을 받을 수 있는 기회가 될 수 있습니다.
+5. **전형 요소별 점수 분포**: 동의대의 정시 전형에서는 수능 성적 외에도 진로선택과목 등이 반영되므로, 이 부분에서 좋은 점수가 나온다면 합격 가능성이 높아질 것입니다.
+따라서 4.08이라는 점수만으로는 최초합을 받을 확률을 판단하기 어렵습니다. 정확한 답변을 얻으려면 동의대의 전형 방식, 경쟁률, 모집 인원 및 지원 인원 등 다양한 정보를 고려해야 합니다. 또한, 이 정보들은 매년 변동될 수 있으므로 최신 정보를 확인하는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>동의대학교 소프트웨어공학부의 2024학년도 수능(일반학생전형) 최초합격자의 수능 4개 영역 등급 평균은 4.49입니다. 따라서, 4.08의 성적은 최초합격자의 평균 등급보다 약간 높은 수준입니다. 
+최초합격자의 평균 등급과 비교적 근접한 성적이므로, 최초합격 가능성은 있지만 확실하지는 않습니다. 추가적인 요소나 경쟁률에 따라 결과가 달라질 수 있습니다. 
+정확한 정보는 동의대학교 입학처에 문의하는 것이 좋습니다. 추가적인 문의는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 2019년의 평균 등급을 언급하고 있지만, 원본 텍스트에서는 구체적인 합격 등급 정보가 제공되지 않는다고 명시하고 있습니다. 따라서, 생성된 응답은 원본 텍스트와 상충하는 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 특히 평균 등급에 대한 정보가 원본에서 제공되지 않기 때문에 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 소프트웨어융합학과의 입시와 관련된 정보를 제공하고 있으나, 원본 텍스트에서 명시된 정보와는 다소 차이가 있습니다. 그럼에도 불구하고 주제와 관련이 있으므로 높은 점수를 부여합니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 생성된 응답은 논리적으로 연결되어 있으나, 원본 텍스트와의 불일치로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 구체적인 수치를 제공하고 있지만, 원본 텍스트에서 그러한 정보가 없기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 원본 텍스트와의 불일치가 존재하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 주제와 관련이 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 적절성 점수가 중간입니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>0.7870499383590074</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과 정시 평균 5등급으로 여기 올 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>2019년에 실시된 정시모집에서 소프트웨어융합학과의 평균 등급은 4.87입니다. 따라서, 이 학과로 들어올 때에는 최소 5등급 이상을 받는 것이 가능합니다. 그러나 실제로는 여러 요인에 따라 등급이 달라질 수 있으므로, 정확한 판단을 하려면 해당 년도의 모집요건을 참조하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>소프트웨어융합학과의 정시 모집에 대한 구체적인 합격 등급 정보는 제공된 Context에 포함되어 있지 않습니다. 소프트웨어융합학과는 나군 학생부종합(조기취업형계약학과전형)으로도 모집하며, 이 경우 서류 60%와 면접 40%의 비율로 전형요소를 반영합니다.
+정확한 합격 가능성을 확인하기 위해서는 해당 학과의 최근 합격자 평균 등급이나 입시 결과를 참고해야 합니다. 이러한 정보는 대학의 입학처 홈페이지나 모집요강에서 확인할 수 있습니다. 추가적인 정보가 필요하다면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부에 입학 가능성을 판단하기 위해 여러 요인을 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 정보에 따르면, 4.28이라는 성적이 최초합격자와 최종등록자의 평균 등급보다 높다고 명시되어 있어, 합격 가능성이 높다고 판단된다는 점이 누락되었습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성에 대한 명확한 판단을 제공하지 않고 여러 요인을 나열함으로써 일관성이 떨어집니다. 원본 텍스트는 성적이 평균보다 높다고 명시하고 있으나, 생성된 응답은 그에 대한 확신을 주지 않습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 동의대학교 신소재공학부에 입학 가능성을 판단하기 위한 여러 요인을 제시하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심 정보인 성적 비교에 대한 직접적인 언급이 부족합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 여러 요인을 나열하며 논리적으로 연결되어 있습니다. 그러나 원본 텍스트의 결론과는 다소 다른 방향으로 흐르고 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 일부 반영하고 있으나, 성적이 평균보다 높다는 점을 명확히 언급하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 적절한 정보를 제공하지만, 원본 텍스트의 핵심적인 사실을 충분히 반영하지 못하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 원본 텍스트의 결론과는 다소 다르게 해석될 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 여러 요인을 나열함으로써 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>0.8051720009774223</v>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>정시 성적이 4.28인데 동의대학교 신소재 공학부 들어갈 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>4.28이라는 정시 성적을 가지고 동의대학교 신소재공학부에 입학할 가능성을 판단하기 위해서는 여러 요인들을 고려해야 합니다.
+1. **전형 방식**: 동의대학교의 신소재 공학부가 어떤 전형 방식을 사용하는지 알아야 합니다. 이는 수능, 실기, 학생부 등 다양한 방법이 있을 수 있습니다.
+2. **모집인원 및 경쟁률**: 모집 인원과 경쟁률에 따라 성적만 높아도 입학할 수 없는 경우가 있습니다. 특히 신소재 공학부는 전국적으로 유명한 학과로, 경쟁률이 매우 높을 수 있습니다.
+3. **전형 점수 및 기준**: 동의대학교의 신소재공학부에 대한 정시 성적 기준을 확인해야 합니다. 이는 각각의 전형 방식에 따라 다르며, 일반적으로 4점대 중반에서 상위로 들어가야 입학 가능성이 높습니다.
+4. **동점자 처리 및 최저합격선**: 동점자가 발생할 경우 어떻게 처리되는지, 그리고 최저 합격선이 얼마나 낮은지 확인해야 합니다.
+5. **전형료 및 등록금**: 이 정보는 입학을 결정하는 데 중요한 요소입니다. 정시 모집에 지원하기 전에는 해당 비용을 고려해야 합니다.
+따라서, 4.28이라는 성적만으로는 동의대학교 신소재공학부에 입학할 수 있는지 판단하기 어렵습니다. 가장 확실한 방법은 동의대학교의 공식 웹사이트나 관리 부서에서 최신 정보를 확인하는 것입니다.</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>정확한 답변을 위해서는 더 많은 정보가 필요하지만, 제공된 데이터를 바탕으로 대략적인 판단을 할 수 있습니다.
+### 신소재공학과, 분자나노공학과 (공과대학) - 2024학년도
+- **최초합격자 평균 수능 4개 영역 등급**: 5.32
+- **최종등록자 평균 수능 4개 영역 등급**: 5.78
+### 귀하의 성적
+- **수능 4개 영역 등급**: 4.28
+귀하의 성적이 신소재공학과의 최초합격자와 최종등록자의 평균 등급보다 높습니다. 따라서, 동의대학교 신소재공학과에 합격할 가능성이 높다고 판단됩니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 수능 일반학생전형에 자기소개서가 필요 없다는 사실을 정확하게 반영하고 있으며, 추가 제출 서류에 대한 정보도 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 자기소개서가 필요 없다는 점을 명확히 하고 있습니다. 추가 서류에 대한 정보도 원본과 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 자기소개서의 필요성에 대한 질문에 대한 명확한 답변을 제공합니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 사실적으로 정확하며, 필요한 모든 정보를 올바르게 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>0.6906401666813995</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>수능 일반학생전형으로 넣으려고 하는데 자기소개서 써야하나요?</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>2024년 다군 수능(일반학생전형)에 지원을 하시는 경우 제출서류 중에는 자기소개서가 필요하지 않습니다. 다만, 최종 등록자 중 외국고교 졸업예정자는 졸업 이후에 발급한 졸업증명서(아포스티유 확인서 또는 영사확인)를 2024년 2월 16일까지 추가 제출해야 합니다. 따라서 자기소개서는 필요하지 않으나, 위의 조건을 충족시키는 서류가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>아니요. 수능 일반학생전형은 자기소개서가 필요없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수능 4.5 점수를 가진 지원자가 추가 모집에 참여할 경우 합격 가능성이 있다고 언급하고 있으며, 이는 원본 텍스트의 내용과 일치합니다. 그러나 동점자 처리기준에 대한 설명이 반복적으로 나와 있어 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 동점자 처리기준에 대한 반복적인 설명이 있어 일관성이 떨어지는 느낌을 줍니다. 원본 텍스트에서 강조된 평균 등급과 비교하는 중요성이 충분히 반영되지 않았습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 추가 모집에 대한 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로 큰 오류는 없지만, 동점자 처리기준에 대한 반복적인 설명으로 인해 읽기 흐름이 매끄럽지 않습니다. 문장이 지나치게 길고 중복된 부분이 많아 가독성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조가 반복적이고 중복된 내용이 많아 논리적인 흐름이 약간 깨집니다. 각 문장이 독립적으로 연결되지 않고, 같은 내용을 여러 번 반복하는 경향이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원본 텍스트의 정보를 잘 반영하고 있으며, 추가 모집에 대한 합격 가능성에 대한 설명도 적절합니다. 그러나 동점자 처리기준에 대한 설명이 과도하게 반복되어 정확한 정보 전달이 방해받고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 원본 텍스트의 내용을 잘 반영하고 있으며, 관련성도 높습니다. 그러나 일관성과 유창성에서 다소 부족함이 있어 완벽한 점수를 주기에는 아쉬움이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 반복적인 내용으로 인해 의미 전달이 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 3
+   - 응답의 내용이 명확하게 전달되기는 하지만, 반복적인 설명으로 인해 이해하기 어려운 부분이 있습니다. 간결하고 명확한 표현이 필요합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 3,
+    "Coherence Score": 3,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>0.6281195528397087</v>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>동의대 수능 정시 산출로 4.5나왔는데 추가모집이든 해서 들어갈수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>4.5라는 점수를 가지고 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수 있으며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다.
+그러나 이는 여러 요소에 따라 달라질 수 있으며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다. 
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수 있으며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수 있으며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다. 
+그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+동점자 처리기준을 보면, 1위로 서류 성적 상위자를 우선적으로 선발하고, 그 다음으로 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 전 과목 등급을 비교하여 합격자를 선발합니다. 
+따라서 추가모집에 참여하는 경우, 합격 가능성이 있습니다.
+그러나 이는 여러 요소에 따라 달라질 수이며, 특히 동점자 처리기준과 최저합격선 등이 적용됩니다.
+```</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>동의대학교의 수능 정시 모집에서 합격 가능성을 평가하기 위해서는 각 학과의 평균 등급과 표준 편차를 참고하는 것이 중요합니다. 제공된 데이터에 따르면, 각 학과의 수능 4개 영역 등급 평균과 표준 편차가 나와 있습니다. 
+예를 들어, 인문사회과학대학의 국어국문학과의 경우, 최초 합격자의 수능 4개 영역 등급 평균은 4.65이고, 최종 등록자의 경우 4.92입니다. 
+따라서, 수능 4개 영역 등급이 4.5라면, 일부 학과에서는 합격 가능성이 있을 수 있습니다. 그러나, 각 학과마다 요구하는 등급이 다르므로, 지원하고자 하는 학과의 평균 등급과 비교해보는 것이 중요합니다.
+추가 모집의 경우, 경쟁률이 낮아질 수 있으므로 합격 가능성이 높아질 수 있습니다. 하지만, 추가 모집에 대한 정보는 학교의 공식 홈페이지나 입학처에 문의하는 것이 가장 정확합니다.
+자세한 사항은 동의대학교 입학처에 문의하시기 바랍니다. 추가 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 평균 등급(영어 5.06, 수능 5.78)에 대한 언급이 없습니다. 따라서 사실성 점수는 3으로 평가합니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 합격 가능성에 대한 다양한 요인을 언급하고 있지만, 원본 텍스트의 구체적인 데이터와는 일치하지 않습니다. 원본 텍스트의 정보와 일관성이 부족하여 점수는 3입니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 신소재공학과의 합격 가능성과 정시등급에 대한 정보를 제공하고 있어 원본 텍스트와 관련이 있습니다. 그러나 원본 텍스트의 구체적인 수치에 대한 언급이 부족하여 점수는 4입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있어 점수는 4입니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 주제에 따라 잘 구성되어 있으며, 각 항목이 논리적으로 연결되어 있습니다. 그러나 원본 텍스트의 구체적인 데이터와의 연결이 부족하여 점수는 4입니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 신소재공학과의 합격 가능성에 대한 일반적인 정보를 제공하지만, 원본 텍스트의 구체적인 수치와 비교했을 때 정확성이 떨어집니다. 따라서 점수는 3입니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본 텍스트의 구체적인 사실과 일치하지 않아 전반적인 품질이 떨어집니다. 점수는 3입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 구체적인 수치에 대한 언급이 부족하여 점수는 4입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 다소 복잡하게 느껴질 수 있습니다. 따라서 점수는 4입니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.7532343122179798</v>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재 공학부 합격 가능할까요? 정시등급은 몇 인가요 신소재 학과는?</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>1. 동의대학교 신소재공학과의 합격 가능성:
+동의대학교 신소재공학과의 합격 가능성은 여러 요인에 따라 달라집니다. 이에는 본인이 지원하는 전형의 경쟁률, 성적 평균, 면접 결과 등이 포함됩니다.
+2. 동의대학교 신소재공학과의 정시등급:
+동의대학교 신소재공학과의 정시등급은 각 학년별로 다르며, 이는 해당 학교에서 공개하는 정보에 따라 달라집니다. 
+이를 확인하려면 동의대학교의 공식 웹사이트나 관련 자료를 참조하거나, 대학 입학처 또는 전문적인 대입정보 사이트 등을 통해 확인해야 합니다.
+또한, 각 학과의 모집인원과 경쟁률도 고려해야 하며, 이는 해당 학교의 공고에 따르거나, 대입정보 사이트에서 확인할 수 있습니다. 
+따라서 정확한 답변을 얻기 위해서는 가장 최신 및 정확한 정보를 찾아보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>신소재학과의 최종등록자 데이터를 기준으로 보면, 신소재공학과의 영어 등급 평균은 5.06이고, 수능 4개 영역 등급 평균은 5.78입니다. 
+따라서, 신소재공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 작년 신소재공학과의 평균 점수에 대한 정보를 제공하지만, 447점이 평균보다 높다는 점을 강조하는 대신, 평균 점수보다 약간 높았다는 표현을 사용하여 다소 모호하게 설명하고 있습니다. 이는 원문에서 명확히 언급된 사실과 일치하지 않으며, 다소 왜곡된 해석으로 보입니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일관된 정보를 제공하려고 하지만, "447점보다 약간 높았음"이라는 표현은 원문에서의 "훨씬 높습니다"라는 명확한 진술과 상충합니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문에서 제기된 질문과 관련된 정보를 제공하고 있으며, 신소재공학과의 합격 가능성에 대한 통계적 접근을 시도하고 있습니다. 그러나 일부 내용은 원문과 직접적으로 관련이 없는 정보로 인해 약간의 비관련성이 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 길어져서 가독성이 떨어질 수 있는 점이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하는 데 시간이 걸릴 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공된 정보와 다소 차이가 있으며, 특히 평균 점수에 대한 해석이 정확하지 않습니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으며, 특히 사실성과 일관성에서 다소 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 의미를 전달하고 있으며, 전반적으로 적절한 맥락을 유지하고 있습니다. 그러나 일부 표현이 원문과 다르게 해석될 수 있는 여지가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보 전달이 이루어지고 있습니다. 다만, 일부 문장이 길어져서 이해하는 데 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.8153157428348259</v>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>제가 동의대학교 정시 표준점수가 447점으로 환산되는데 작년 신소재공학과 표점이 447점보다 1점 정도 위더라구요 (최종 평균)가능성은 있을까요?</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 수능(일반학생전형) 최초합격자와 최종등록자의 표를 참고하면, 각 단과대학 및 모집단위별로 경쟁률, 충원 합격 후보순위, 국어 + 수학 + 탐구 등 수능 점수의 평균 및 표준 편차가 제공됩니다. 
+이 정보를 통해 작년 동의대학교 신소재공학과의 최초합격자들의 평균 점수가 447점보다 약간 높았음을 알 수 있습니다. 그러나, 이는 단일 학생의 성적을 예측하는 것이 아니라 전체적인 경쟁 상황을 보여주는 통계치입니다.
+따라서, 작년 동의대학교 신소재공학과의 최종 등록자들의 평균 점수가 447점보다 약간 높았다는 것은 해당 학생이 그 합격 기준을 충족하였음을 의미합니다. 그러나 이는 개인적인 성적을 예측하는 데에는 한계가 있습니다.
+개인의 성적이 작년 동의대학교 신소재공학과 최종 등록자들의 평균 점수보다 약간 높았다는 것은 그 학생이 해당 학과에 합격할 가능성이 있는 것으로 보일 수는 있지만, 실제로 합격 여부는 여러 요인에 따라 달라질 수 있습니다. 
+따라서, 최종 합격 여부를 확신하는 데는 추가적인 정보나 통계가 필요합니다. 예를 들어, 작년 동의대학교 신소재공학과의 모집 인원, 지원 인원, 경쟁률 등이 얼마나 되었는지, 그리고 해당 학과에 대한 개인의 지원 요소들이 어떻게 평가되었는지를 고려해야 합니다.
+또한, 2024학년도 동의대학교 수능(일반학생전형) 최종등록자의 표를 통해 작년의 경쟁 상황을 비교할 수 있습니다. 이 표에서 제공하는 정보를 바탕으로 작년 동의대학교 신소재공학과의 합격 기준이 현재와 얼마나 달라졌는지 파악할 수 있을 것입니다.
+결국, 개인의 성적이 작년 동의대학교 신소재공학과 최종 등록자들의 평균 점수보다 약간 높았다는 것은 그 학생이 해당 학과에 합격할 가능성이 있는 것으로 보일 수 있지만, 확실한 결과를 얻기 위해서는 추가적인 정보와 통계가 필요합니다.</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>작년 동의대학교 신소재공학과의 최종 등록자 평균 표준 변환 점수는 378.15점이었습니다. 따라서, 귀하의 표준점수 447점은 작년 신소재공학과의 평균 점수보다 훨씬 높습니다. 이 점수라면 신소재공학과에 합격할 가능성이 매우 높다고 할 수 있습니다. 
+추가적인 정보나 문의사항이 있으시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 동의대학교 신소재공학부의 합격 기준에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 성적과 표준 편차에 대한 구체적인 수치를 명시하지 않고 있습니다. 또한, "최초합격자와 최종등록자의 평균 점수보다 높을 경우"라는 표현은 다소 모호하여 정확한 사실을 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일부 일치하지만, "최초합격자와 최종등록자"라는 표현은 원본 텍스트에서 언급된 "최종등록자"와는 다소 다른 맥락을 제공합니다. 이로 인해 일관성이 떨어지는 부분이 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 개인적인 성적에 대한 예시를 추가하여 다소 주제를 벗어난 느낌을 줍니다. 그러나 여전히 신소재공학부의 합격 가능성에 대한 정보를 제공하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 주제가 전환되는 부분이 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하고 있지만, 구체적인 수치나 기준을 명확히 제시하지 않아 정확성이 떨어집니다. 또한, 개인적인 성적에 대한 예시가 포함되어 있어 정확한 판단을 내리기 어렵습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 원본 텍스트의 내용을 반영하고 있으나, 사실성, 일관성, 정확성에서 다소 부족한 점이 있어 종합적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 개인적인 성적에 대한 언급이 추가되어 다소 맥락에서 벗어난 느낌을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어 가독성이 떨어질 수 있는 점이 있습니다. 그러나 전체적으로는 명확하게 전달되고 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>0.7842253268987724</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>제 정시 성적이 현재로선 4.3등급대고 동의대식 성적산출하면 4.1~4.2정도 나올거같은데 신소재공학부 일반학생전형 붙을수있을까요?</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>2024학년도 수능(일반학생전형) 최초합격자와 최종등록자의 표를 참고하면, 합격 기준이 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합과 영어 등급, 수능 4개 영역 등급 및 (가산점 포함) 표준 변환 점수 합에 따라 결정됩니다. 
+그러나 이 정보만으로는 정확한 결론을 내리기 어렵습니다. 각 단과대학의 모집단위별 경쟁률, 충원 합격자들의 평균 점수와 표준 편차를 확인하여, 제 개인적인 성적에 대한 예상합격 가능성에 대해 판단할 수 있습니다.
+예를 들어, 제 정시 성적이 4.3등급이고 동의대식 성적산출이 4.1~4.2정도라면, 이 점수들이 최초합격자와 최종등록자의 평균 점수보다 높을 경우 합격 가능성이 높아질 수 있습니다. 그러나 경쟁률과 충원 합격자들의 점수가 매우 높은 경우에도, 이러한 점수만으로는 확실한 결론을 내리기 어렵습니다.
+따라서, 제 개인적인 성적에 대한 합격 가능성에 대해 정확하게 판단하려면, 동의대학교의 공식 웹사이트나 입학관리팀에서 제공하는 정보를 참고하거나 직접 문의해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>동의대학교 신소재공학부(일반학생전형)의 최종등록자 데이터를 바탕으로 판단해보겠습니다.
+신소재공학부의 최종등록자 평균 성적은 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 19.52
+- 영어 등급: 평균 5.06, 표준 편차 1.22
+- 수능 4개 영역 등급: 평균 5.78, 표준 편차 0.49
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 평균 378.15, 표준 편차 21.81
+귀하의 성적이 4.1~4.2등급대라면, 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 높은 편입니다. 특히, 영어 등급과 수능 4개 영역 등급에서 차이가 있을 수 있습니다.
+따라서, 귀하의 성적이 신소재공학부의 최종등록자 평균 성적과 비교했을 때 다소 낮을 수 있으므로, 합격 가능성은 낮을 수 있습니다. 그러나, 최종 합격 여부는 지원자 전체의 성적 분포와 경쟁률에 따라 달라질 수 있으므로, 지원해보는 것도 고려해볼 수 있습니다.
+더 자세한 정보나 상담이 필요하다면, 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 동의대학교 인공지능학과의 수능 전형 성적 정보를 제공하지 않고, 예상 성적을 계산하는 방법에 대한 설명을 포함하고 있습니다. 그러나 원본 텍스트에서 제공된 구체적인 성적 데이터와는 다르게, 실제 성적 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 성적 산출 방식에 대한 설명이 포함되어 있지만, 원본에서 제공된 구체적인 성적 데이터와는 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 원본에서 제공된 구체적인 성적 정보를 다루지 않고 있어 다소 관련성이 떨어집니다. 예상 성적 계산 방법에 대한 설명은 유용하지만, 원본의 핵심 정보를 놓치고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 성적 산출 방식에 대한 설명이 일관되게 이어집니다. 그러나 원본 텍스트와의 연결이 약해져 coherence가 다소 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 제공하지 않으며, 예상 성적 계산 방법에 대한 설명이 포함되어 있지만, 원본의 사실과는 다르게 해석되고 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 생성된 응답은 원본 텍스트의 정보와 일치하지 않으며, 관련성, 정확성, 사실성에서 낮은 점수를 받았습니다. 따라서 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 생성된 응답은 원본 텍스트의 맥락과 관련이 있지만, 원본에서 제공된 구체적인 성적 정보를 다루지 않기 때문에 의미적으로 완전히 적절하지는 않습니다.
+9. Understandability Score (1-5): 4  
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 성적 산출 방식에 대한 설명이 명확합니다. 그러나 원본 텍스트와의 연결이 약해져 이해하는 데 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>0.8231915106001065</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>동의대 인공지능학과 수능 일반학생전형으로 가고싶어요 성적좀 알려주세요</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>2024년도 동의대학교 인공지능학과에 대한 수능 전형성적 정보는 제공된 데이터에서 확인할 수 없습니다. 그러나, 성적 산출 방식을 참고하여 예상 성적을 계산하는 방법은 다음과 같습니다.
+1. 국어 표준점수: 104
+2. 수학 표준점수: 108
+3. 영어 등급 점수: 4등급 (이를 해당 등급에 따른 점수로 변환해야 합니다)
+4. 탐구 표준점수: 이 부분은 두 과목의 표준점수를 합산한 점수를 반영하므로, 추가 정보가 필요합니다.
+예시로, 수능 영어영역 등급에 따른 점수를 참고하면 다음과 같습니다:
+- 1등급: 139
+- 2등급: 131
+- 3등급: 123
+- 4등급: 115
+따라서, 영어 등급이 4등급이라면 점수는 115입니다.
+다음으로, 수능 전형성적 산출 방식을 참고하여 계산하면 됩니다. 
+가군(일반학생전형)의 경우 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수를 합산한 점수로 계산됩니다.
+나군(일반학생전형)의 경우, 수능 4개 영역 중 상위 3개 영역의 표준점수 및 등급점수를 합산한 점수 ÷ 2 로 계산됩니다. 
+다군(일반학생전형)의 경우 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점을 합산한 점수로 계산됩니다.
+따라서, 동의대학교 인공지능학과에 대한 최초합격자와 최종등록자의 성적 정보를 확인하려면 해당 대학의 공식 웹사이트나 관련 자료를 참조해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>동의대학교 인공지능학과의 수능 일반학생전형 최초합격자 성적은 다음과 같습니다:
+- **모집 인원**: 15명
+- **지원 인원**: 24명
+- **경쟁률**: 1.60
+- **충원 합격 (후보순위)**: 5명
+- **국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합**: 평균 301.87, 표준 편차 12.38
+- **영어 등급**: 평균 4.13, 표준 편차 0.71
+- **수능 4개 영역 등급**: 평균 4.98, 표준 편차 0.25
+- **수능 4개 영역 (가산점 포함) 표준 변환 점수 합**: 평균 415.80, 표준 편차 10.49
+이 성적을 참고하여 준비하시기 바랍니다. 추가적인 정보가 필요하면 "https://ipsi.deu.ac.kr/main.do"를 방문해 주세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 5.27의 성적이 충원 합격 가능성을 언급하고 있지만, 구체적인 학과의 성적 기준에 대한 정보는 포함되어 있지 않습니다. 따라서 일부 정보가 누락되어 있어 4점을 부여합니다.
+2. Consistency Score (1-5): 3
+   - 응답은 5.27의 성적이 합격선 이상이라고 언급하지만, 실제 충원 합격 가능성에 대한 구체적인 학과 정보를 제공하지 않아 일관성이 떨어집니다. 따라서 3점을 부여합니다.
+3. Relevance Score (1-5): 5
+   - 응답은 질문에 대한 직접적인 답변을 제공하고 있으며, 동의대학교의 정시 모집과 관련된 정보를 다루고 있어 매우 관련성이 높습니다. 따라서 5점을 부여합니다.
+4. Fluency Score (1-5): 4
+   - 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있지만, 약간의 어색함이 느껴질 수 있어 4점을 부여합니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 정보가 누락되어 있어 완전한 일관성을 위해 4점을 부여합니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 5.27의 성적이 충원 합격 가능성을 언급하고 있지만, 구체적인 학과의 성적 기준에 대한 정보가 부족하여 정확성에서 약간의 부족함이 있습니다. 따라서 4점을 부여합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 응답은 여러 차원에서 잘 작성되었지만, 일부 정보의 누락으로 인해 완전한 품질을 보장하지 못하므로 4점을 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 질문의 맥락에 적절하게 의미를 전달하고 있지만, 구체적인 학과 정보가 부족하여 약간의 부적절함이 느껴질 수 있습니다. 따라서 4점을 부여합니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 정보의 부족으로 인해 완전한 이해를 위해 추가적인 설명이 필요할 수 있습니다. 따라서 4점을 부여합니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>0.7291784384035765</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>동의대 정시 성적으로 5.27인데 이 성적으로 추합 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>5.27이라는 점수를 가지고 동의대학교의 정시 모집에 추합 가능하다는 것은 점수가 합격선 이상이므로 가능합니다. 그러나 실제로는 합격 여부는 해당 년도의 정시 모집 공고에서 제시된 최종 합격 기준점수와 비교하여 판단해야 합니다. 동의대학교의 정시 모집 공고에서 제시한 최종 합격 기준점수가 5.27보다 높다면, 이 점수로는 추합이 불가능할 수 있습니다.
+따라서 가장 정확한 답변을 얻으려면 해당 년도의 동의대학교 정시 모집 공고를 확인하거나, 대학에 직접 문의하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>동의대학교의 정시 성적을 기준으로 5.27의 성적으로 충원 합격(추합)이 가능한지 확인하기 위해서는 각 학과의 최종 등록자 성적을 비교해보아야 합니다. 아래는 각 학과의 수능 4개 영역 등급 평균과 표준 편차를 기준으로 5.27 성적이 충원 합격 가능한지 확인한 결과입니다:
+1. **인문사회과학대학**
+   - 국어국문학과: 평균 4.92, 표준 편차 0.35
+   - 중어중국학과: 평균 5.68, 표준 편차 0.74
+   - 일본학과: 평균 4.87, 표준 편차 0.13
+   - 영어영문학과: 평균 5.16, 표준 편차 0.66
+   - 문헌정보학과: 평균 4.82, 표준 편차 0.33
+   - 평생교육·청소년상담학과: 평균 5.22, 표준 편차 0.29
+   - 아동학과: 평균 7.08, 표준 편차 0.56
+   - 유아교육과: 평균 4.18, 표준 편차 0.25
+   - 광고홍보학과: 평균 4.47, 표준 편차 0.18
+   - 미디어커뮤니케이션학과: 평균 4.29, 표준 편차 0.23
+   - 법학과: 평균 4.27, 표준 편차 0.27
+   - 경찰행정학과: 평균 4.12, 표준 편차 0.18
+   - 소방방재행정학과: 평균 4.43, 표준 편차 0.40
+   - 행정학과: 평균 4.36, 표준 편차 0.33
+   - 사회복지학과: 평균 4.69, 표준 편차 0.23
+2. **상경대학**
+   - 금융경영학과: 평균 5.41, 표준 편차 0.52
+   - 재무부동산학과: 평균 5.82, 표준 편차 1.25
+   - 무역학과: 평균 5.18, 표준 편차 0.50
+   - 유통물류학과: 평균 5.45, 표준 편차 0.52
+   - 경영학과: 평균 4.69, 표준 편차 0.22
+   - 회계학과: 평균 4.99, 표준 편차 0.41
+   - 경영정보학과: 평균 4.31, 표준 편차 0.23
+   - e비즈니스학과: 평균 4.53, 표준 편차 0.36
+   - 국제관광경영학과: 평균 5.41, 표준 편차 0.56
+   - 호텔·컨벤션경영학과: 평균 6.12, 표준 편차 0.77
+   - 외식경영학과: 평균 4.91, 표준 편차 0.28
+3. **의료보건생활대학**
+   - 간호학과: 평균 3.37, 표준 편차 0.29
+   - 임상병리학과: 평균 4.15, 표준 편차 0.12
+   - 치위생학과: 평균 4.18, 표준 편차 0.20
+   - 방사선학과: 평균 3.82, 표준 편차 0.20
+   - 의료경영학과: 평균 5.92, 표준 편차 1.08
+   - 물리치료학과: 평균 3.62, 표준 편차 0.15
+   - 식품영양학과: 평균 5.92, 표준 편차 1.06
+4. **한의과대학**
+   - 한의예과(수학&lt;미적분/기하&gt;): 평균 1.21, 표준 편차 0.09
+   - 한의예과(수학&lt;확률과통계&gt;): 평균 1.20, 표준 편차 0.05
+5. **공과대학**
+   - 기계공학과, 로봇자동화공학과, 자동차공학과: 평균 6.30, 표준 편차 1.1
+   - 조선해양공학과: 평균 6.16, 표준 편차 1.00
+   - 신소재공학과, 분자나노공학과: 평균 5.78, 표준 편차 0.49
+   - 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과: 평균 4.69, 표준 편차 0.25
+   - 환경공학과, 화학공학과, 응용화학과: 평균 5.73, 표준 편차 0.57
+   - 의생명공학과, 바이오의약공학과, 식품공학과: 평균 5.41, 표준 편차 0.65
+   - 인간공학과, 제품디자인공학과: 평균 5.72, 표준 편차 0.73
+   - 산업경영빅데이터공학과: 평균 5.27, 표준 편차 0.43
+6. **ICT융합공과대학**
+   - 컴퓨터공학과: 평균 4.29, 표준 편차 0.16
+   - 소프트웨어공학부: 평균 4.49, 표준 편차 0.30
+   - 인공지능학과: 평균 5.25, 표준 편차 0.35
+   - 전기공학과, 전자공학과: 평균 5.37, 표준 편차 0.60
+   - 디지털콘텐츠학과: 평균 4.47, 표준 편차 0.24
+   - 게임공학과: 평균 4.78, 표준 편차 0.20
+   - 영화학과: 평균 5.04, 표준 편차 0.76
+7. **예술디자인체육대학**
+   - 패션디자인학과: 평균 4.46, 표준 편차 0.31
+위의 정보를 바탕으로, 5.27의 성적으로 충원 합격이 가능한 학과는 다음과 같습니다:
+- 인문사회과학대학: 중어중국학과, 영어영문학과, 평생교육·청소년상담학과, 아동학과
+- 상경대학: 금융경영학과, 재무부동산학과, 무역학과, 유통물류학과, 호텔·컨벤션경영학과, 외식경영학과
+- 의료보건생활대학: 의료경영학과, 식품영양학과
+- 공과대학: 기계공학과, 로봇자동화공학과, 자동차공학과, 조선해양공학과, 신소재공학과, 분자나노공학과, 환경공학과, 화학공학과, 응용화학과, 의생명공학과, 바이오의약공학과, 식품공학과, 인간공학과, 제품디자인공학과, 산업경영빅데이터공학과
+- ICT융합공과대학: 인공지능학과, 전기공학과, 전자공학과, 영화학과
+위 학과들은 5.27의 성적으로 충원 합격이 가능할 것으로 보입니다. 더 자세한 정보는 동의대학교 입학처에 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 소프트웨어공학부에 지원할 가능성에 대한 정보를 제공하지만, 원본 텍스트에서 제시된 평균 등급(영어 3.30, 수능 4개 영역 4.12)에 대한 언급이 없고, 학생부 종합 평가와 전형 요소 반영 비율에 대한 정보가 추가되어 있습니다. 이는 원본 텍스트의 핵심 정보를 일부 생략하고 다른 정보를 추가하여 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 학생부 종합 평가와 전형 요소 반영 비율에 대한 추가 정보가 포함되어 있어 원본 텍스트의 단순한 합격 가능성에 대한 설명과는 다소 상충하는 느낌을 줍니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 소프트웨어공학부에 지원할 가능성에 대한 질문에 대해 관련된 정보를 제공하고 있으나, 원본 텍스트의 핵심 내용인 평균 등급에 대한 정보가 부족하여 약간의 관련성 저하가 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결성이 약간 떨어져 있어 완전한 일관성을 유지하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 핵심 사실을 일부 반영하고 있지만, 평균 등급에 대한 구체적인 수치가 누락되어 있어 정확성 점수가 낮아졌습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 중간 정도로 평가됩니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원본 텍스트의 특정 세부 사항이 누락되어 있어 완전한 의미 전달에는 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명을 제공하고 있습니다. 그러나 일부 문장이 길어질 경우 이해하기 어려울 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>0.7837956252984926</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 4.2인데 교과로 소프트웨어공학부 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>2024학년도 주요 변경사항 표에서 제공된 정보를 바탕으로, 동의대식 정시 성적이 4.2이라면 소프트웨어공학부에 지원할 가능성이 있습니다. 그러나, 성적 외에도 학생부종합 평가영역과 전형요소 반영비율 등이 고려됩니다. 
+학생부 종합 평가는 인성, 학업역량, 전공적합성 등의 요소를 평가하며, 이는 성적만으로 판단하는 것이 아니라 다양한 면에서 학생의 능력을 평가하므로 중요합니다.
+전형요소 반영비율에 따르면, 소프트웨어공학부의 경우 서류(학생부) 부분이 60%나 차지하고 있습니다. 따라서 성적 외에도 학교생활기록부에서 보여지는 성격이나 활동, 전공과 관련된 경험 등이 중요합니다.
+또한, 반영과목 수와 성적 반영 방식도 고려해야 합니다. 이는 학생의 교과성적 중 어떤 과목을 어떻게 평가하는지에 대한 정보를 제공하므로, 소프트웨어공학부에 지원할 때는 이러한 점들을 잘 이해하고 자신의 장점을 잘 보여주어야 합니다.
+따라서 성적이 4.2이라면 소프트웨어공학부에 지원할 가능성이 있지만, 학교생활기록부의 내용과 전형에서 요구하는 능력 등을 잘 갖추고 있어야 하며, 지원 과정에서 이러한 점들을 잘 보여주어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>소프트웨어공학부의 최종등록자 데이터를 기준으로 보면, 소프트웨어공학부의 영어 등급 평균은 3.30이고, 수능 4개 영역 등급 평균은 4.12입니다. 
+따라서, 현재 정시 등급이 4.2라면 소프트웨어공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 3.92라는 점수를 가지고 화학환경공학부에 지원할 수 있는 가능성을 여러 요소를 고려하여 설명하고 있습니다. 그러나 원문에서 제공된 평균 등급 정보(영어 4.82, 수능 5.73)를 명시하지 않아 다소 정보가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문에서 언급된 합격 가능성에 대한 내용을 일관되게 다루고 있으며, 추가적인 요소들을 고려하여 설명하고 있습니다. 그러나 원문에서의 평균 등급과의 비교가 부족하여 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문의 핵심인 3.92 점수와 화학환경공학부의 지원 가능성에 대해 직접적으로 관련된 내용을 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 잘 구성되어 있습니다. 따라서 유창성이 매우 높습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 따라서 일관성이 매우 높습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 3.92 점수에 대한 여러 요소를 고려하여 설명하고 있지만, 원문에서 제공된 평균 등급 정보와의 비교가 부족하여 정확성에서 약간의 부족함이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 잘 수행되고 있으나, 원문과의 비교에서 약간의 정보 부족이 있어 4점으로 평가합니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과의 의미적 일치가 높으며, 질문의 맥락에 적절하게 대응하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>0.7513818699711264</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 산출로 3.92 나오는데 화학환경공학부 일반학생전형 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>3.92라는 점수를 가지고 동의대학교 화학환경공학부의 정시 전형에 지원하는 것이 가능한지 판단하기 위해서는 여러 요소들을 고려해야 합니다.
+1. **학교의 모집인원**: 각 학과의 모집 인원 수가 중요합니다. 모집인원이 적을수록 경쟁률이 높아져서 더 높은 점수가 필요할 수 있습니다.
+2. **전형방식 및 성적 산출 방식**: 동의대의 정시 전형 방식과 성적 산출 방법에 따라 3.92점이 충분한 점수인지 판단됩니다. 이는 수능, 실기, 제출서류 등에 대한 가중치와 점수 범위를 고려해야 합니다.
+3. **동점자 처리 기준**: 동점자가 발생할 경우 어떻게 처리되는지에 따라 3.92점이 최저합격선을 넘는지 확인해야 합니다.
+따라서, 정확한 답변을 얻기 위해서는 동의대학교 화학환경공학부의 정시 전형 방식과 점수 산출 방법, 그리고 해당 년도의 최소 합격 점수가 무엇인지에 대한 정보가 필요합니다. 이 정보를 바탕으로 3.92점이 충분한 점수인지 판단할 수 있습니다.
+또한, 경쟁률이 높은 학과라면 더 높은 점수를 가진 지원자가 많을 것이므로, 최소 합격선을 넘는지 여부만으로는 지원 가능성을 확신하기 어렵습니다. 따라서, 해당 학과의 전형 방식과 점수 산출 방법에 대한 자세한 정보를 확인하고, 가능한 한 높은 점수를 받는 것이 중요합니다.
+이런 이유로, 3.92점이 화학환경공학부 일반학생전형에 충분한 점수인지 판단하기 위해서는 동의대학교의 공식 사이트나 입학처에서 제공하는 정보를 참조하거나 전문가에게 상담을 받는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>화학환경공학부의 최종등록자 데이터를 기준으로 보면, 화학환경공학부의 영어 등급 평균은 4.82이고, 수능 4개 영역 등급 평균은 5.73입니다. 
+따라서, 현재 정시 등급이 3.92라면 화학환경공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 추가합격까지 생각해서 합격할 가능성이 높습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교 화학환경공학부의 수능 일반학생전형에 대한 정보를 제공하고 있지만, 원본 텍스트에서 제시된 평균 점수와 비교하여 정확한 정보를 제공하지 않고 있습니다. 특히, 총점 계산이 잘못되어 있으며, 원본 텍스트의 핵심 정보를 왜곡하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일관성이 부족합니다. 원본 텍스트는 특정 평균 점수와 합격 가능성을 언급하고 있지만, 생성된 응답은 다른 점수와 기준을 제시하여 혼란을 초래하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 동의대학교 화학환경공학부에 대한 정보를 제공하지만, 원본 텍스트의 질문에 대한 직접적인 답변이 부족합니다. 원본 텍스트의 핵심 주제와는 다소 벗어난 내용이 포함되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 구성되어 있어 이해하기 어려울 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 정보를 나열하고 있지만, 논리적인 흐름이 부족하여 일관된 주제를 유지하지 못하고 있습니다. 각 점수와 관련된 설명이 명확하게 연결되지 않아 혼란을 초래합니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않는 정보가 포함되어 있습니다. 특히, 수능 성적의 총점 계산이 잘못되어 있으며, 이는 정확성을 크게 저하시킵니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 여러 차원에서 낮은 점수를 받았습니다. 사실성, 일관성, 정확성 모두 부족하여 전반적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 맥락과 관련된 정보를 제공하지만, 일부 내용은 부적절하거나 혼란스러운 방식으로 제시되어 있습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 전반적으로 이해할 수 있지만, 정보의 배열과 논리적 흐름이 부족하여 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>0.8648952803527923</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>동의대 화학환경공학부 원서접수 했습니다. 동의대식 정시 성적 4.25인데 수능 일반학생전형으로 가능하나요?</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>1. 동의대학교 화학환경공학부는 '가군(일반학생전형)'에 속하는 모집단위로, 국어 표준점수 + 수학 표준점수 + 영어 등급점수 + 탐구 표준점수를 기준으로 성적을 산출합니다. 
+2. 수능 영역별 표준점수는 다음과 같습니다: {국어 104 / 수학(미적분) 108 / 영어 4등급 / 과탐(물리Ⅰ) 47 / 과탐(화학Ⅰ) 59} 
+3. 수능 영어 등급에 따른 점수는 다음과 같습니다: 
+   - 1등급: 139점
+   - 2등급: 131점
+   - 3등급: 123점
+   - 4등급: 115점
+   - 5등급: 107점
+   - 6등급: 99점
+   - 7등급: 91점
+   - 8등급: 83점
+   - 9등급: 75점
+4. 따라서, 수능 영어 등급이 4등급이라면 점수는 115점입니다.
+5. 수능의 국어, 수학(미적분), 영어, 과탐(물리Ⅰ)과 과탐(화학Ⅰ)을 기준으로 성적을 산출하므로, 이들 점수를 더하면 다음과 같습니다: 
+   - 국어 104점
+   - 수학 108점
+   - 영어 115점
+   - 과탐(물리Ⅰ) 47점
+   - 과탐(화학Ⅰ) 59점
+6. 이 점수들을 더하면 총점은 333점입니다.
+따라서, 동의대학교 화학환경공학부에 지원하려면 수능 성적이 최소한 333점 이상이 필요합니다. 현재 제공된 정보로는 지원 가능성이 높지만, 정확한 경쟁률과 합격 기준은 '수능(일반학생전형) 최종등록자' 또는 '수능(일반학생전형) 최초합격자' 표를 통해 확인해야 합니다. 이 표는 동의대학교 화학환경공학부에 지원한 후보들의 성적을 보여주므로, 이를 참조하여 현재의 성적과 비교하면 지원 가능성을 판단할 수 있습니다.
+참고로, 원서접수와 관련된 유의사항은 '지원자 유의사항 (인터넷 원서접수 유의사항)' 표를 통해 확인하실 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>동의대학교 화학환경공학부의 수능 일반학생전형 최초합격자 데이터를 바탕으로 판단해보겠습니다.
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 평균: 276.61
+- 영어 등급 평균: 4.70
+- 수능 4개 영역 등급 평균: 5.59
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 평균: 385.99
+귀하의 성적 4.25는 최초합격자의 평균값보다 높으므로 합격 가능성이 높은 것으로 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 영화학과의 입학 기준에 대한 일반적인 정보를 제공하지만, 원본 텍스트에서 제시된 구체적인 성적 데이터와 비교할 때, 해당 성적이 합격 가능성을 판단하는 데 필요한 구체적인 수치를 반영하지 않고 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 성적 정보를 기반으로 하지 않고, 일반적인 입학 기준에 대한 설명을 하고 있습니다. 이는 원본 텍스트와 일관성이 부족하므로 점수가 낮습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 영화학과의 입학 가능성에 대한 질문에 대한 답변을 제공하고 있지만, 원본 텍스트의 구체적인 성적 정보와 관련이 적습니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 자연스럽게 연결되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 구체적인 성적 정보를 반영하지 않으며, 일반적인 정보만을 제공하고 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전반적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다. 따라서 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>0.7670500856432396</v>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>이번에 정시전형으로 영화학과 지원했습니다. 정시 성적이 4.2정도 나왔는데 가능성 있을까요?</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>电影学系的录取标准通常会根据申请者的成绩、专业背景和学校的整体招生计划等因素进行综合评估。您提到的成绩为4.2，这是一个相对不错的分数。
+然而，具体是否能被录取还需要考虑以下几个因素：
+1. **学校整体录取分数线**：不同大学或学院在不同年份的录取分数线可能会有所不同。有些年份可能因为申请人数多、竞争激烈而提高分数线；反之亦然。
+2. **专业招生计划**：电影学系每年的招生名额也是有限的，如果报名人数较多，即使您的成绩不错，也可能面临激烈的竞争。
+3. **其他申请材料**：除了学术成绩外，一些大学还会考虑学生的个人陈述、作品集（如果有）、面试表现等。这些因素同样会影响录取决策。
+4. **地区和学校偏好**：某些地区的考生可能会有额外的加分政策或名额倾斜，这取决于具体的招生政策。
+因此，虽然您的成绩在一定范围内是积极的信号，但最终是否能被录取还需要结合上述所有因素进行综合考虑。建议您关注目标学校的官方信息、参加可能的面试准备，并保持与学校招生办公室的沟通，以获取最准确的信息和指导。祝您好运！</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>영화학과의 2024학년도 수능(일반학생전형) 최종등록자의 평균 성적을 보면 다음과 같습니다:
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 286.77 (표준 편차: 17.29)
+- 영어 등급: 3.66 (표준 편차: 1.24)
+- 수능 4개 영역 등급: 5.04 (표준 편차: 0.76)
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 404.43 (표준 편차: 27.09)
+이를 통해, 귀하의 정시 성적이 4.2정도라면 영화학과에 합격할 가능성이 존재한다고 판단됩니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접 절차에 대한 정보가 아닌 서류 평가와 동점자 처리, 정원외 모집단위에 대한 내용을 포함하고 있어 원본 텍스트와 전혀 관련이 없습니다. 따라서 사실성 점수는 1입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 내용과 상충하며, 면접 절차에 대한 설명이 아닌 다른 절차에 대한 설명을 포함하고 있습니다. 일관성 점수는 1입니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 면접 절차에 대한 정보가 아닌 다른 평가 절차에 대한 설명을 포함하고 있습니다. 관련성 점수는 1입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 유창성 점수는 4입니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다. 일관성 점수는 3입니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 정확성 점수는 1입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 모든 면에서 매우 낮은 점수를 받았으므로, 다차원 품질 점수는 1입니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다. 의미 적합성 점수는 1입니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용이 원본과 관련이 없기 때문에 이해 가능성 점수는 4입니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>0.7248931179021401</v>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>면접 절차를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>1단계: 서류 평가
+- 학교생활기록부, 성적표, 동아리 활동 기록 등이 포함된 서류를 평가합니다.
+- 이 단계에서 학업역량과 전공적합성에 대한 평가가 이루어집니다.
+2단계: 면접
+- 면접은 학교생활을 열심히 하고, 선행학습과 사교육의 의존없이 준비할 수 있는 학생 개인의 입장과 경험을 평가하는 것이 목표입니다.
+- 면접 질문에는 지원동기 및 학업계획, 학업역량, 전공적합성 등이 포함됩니다.
+3단계: 동점자 처리
+- 서류평가와 면접평가를 종합하여 동점자가 발생할 경우, 면접고사 성적 상위자, 서류평가 공동체역량 영역 성적 상위자, 서류평가 전공적합성 영역 성적 상위자를 우선적으로 합격 처리합니다.
+4단계: 정원외 모집단위 및 모집인원
+- 조기취업형계약학과전형은 2단계 참여기업 면접결과에 따라 최종 합격인원이 모집인원보다 적거나 없을 수도 있습니다.</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>면접 절차는 다음과 같습니다:
+1. 대기실 입실
+2. 신분 확인
+3. 고사장 앞 이동
+4. 고사장 입실
+5. 지원동기 및 학업계획 발표
+6. 학업역량, 전공적합성 관련 공통문항 발표 및 질의응답
+7. 기타 질의응답(제출서류 진위 여부 등)
+8. 퇴실</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 디자인조형학과의 실기시험에 대한 정보와 전혀 관련이 없는 내용을 담고 있습니다. 제자리 멀리뛰기와 메디신볼 던지기와 같은 체육 관련 정보는 원본 텍스트와 일치하지 않으며, 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 상반되는 정보를 제공합니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 디자인조형학과의 실기시험에 대한 정보와는 전혀 상관없는 내용을 포함하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용이 원본과 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 내용이 원본과 관련이 없기 때문에 전체적으로 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.7486879359509002</v>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대해서 설명해줘.</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 실기시험은 두 가지로 나分裂:
+1. 제자리 멀리뛰기(cm) { 남 / 여 / 배점 }:
+   - 285이상: 240.0/ 
+   - 281~284: 234.0/ 
+   - 277~280: 228.0/ 
+2. 메디신볼 던지기(m) { 남 / 여 / 배점 }:
+   - 11.5이상: 230.0/ 
+   - 11.0~11.4: 214.7/ 
+   - 10.5~10.9: 199.4/ 
+각 실기시험에 운동복 및 운동화를 착용해야하며, 신발바닥에 이물질 가칠 금지입니다. 메디신볼 규격은 남자 3kg, 여자 2kg입니다.</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기시험에 대한 정보는 다음과 같습니다:
+ 모집단위 및 실기종목
+- 모집단위: 시각디자인, 산업디자인, 공예디자인
+- 실기종목: 기초디자인, 사고의 전환
+종목별 배점(비율)
+- 배점 : 700점 (70%)
+실기종목별 준비물, 실기주제, 화지크기 및 시험시간
+1. 기초디자인
+- 준비물 : 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기 : 켄트지 3절
+- 시험시간 : 5시간
+2.사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제 : 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시험시간: 5시간
+이와 같은 정보는 디자인조형학과 실기시험을 준비하는 데 중요한 요소들입니다. 추가적인 정보나 문의사항이 있다면 "https://ipsi.deu.ac.kr/main.do"를 방문하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 디자인조형학과의 실기종목에 대한 정보를 제공하지만, '시각디자인', '산업디자인', '공예디자인'이라는 항목은 원본 텍스트에 포함되어 있지 않으며, 이는 잘못된 정보입니다. 따라서 일부 사실이 정확하지 않다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 새로운 실기종목을 추가하여 일관성이 떨어집니다. 원본 텍스트와의 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있지만, 추가된 정보로 인해 약간의 관련성이 떨어집니다. 그러나 여전히 주요 내용은 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 그러나 새로운 정보가 추가되어 약간의 혼란을 초래할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 잘못된 실기종목을 추가하여 정확성이 떨어집니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 여러 차원에서 평가했을 때, 생성된 응답은 일부 강점을 가지고 있지만, 잘못된 정보와 일관성 부족으로 인해 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 대체로 적합하지만, 추가된 정보로 인해 약간의 부적합성이 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 일부 추가 정보로 인해 약간의 혼란이 있을 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.9087946446172828</v>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목과 준비물, 실기주제, 화지크기, 시간에 대해서 알려줘.</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>1. 디자인조형학과의 실기종목은 다음과 같습니다:
+   - 시각디자인
+   - 산업디자인 
+   - 공예디자인
+   - 기초디자인, 사고의 전환
+2. 각 실기종목에 대한 준비물은 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구입니다.
+3. 시각디자인과 사고의 전환이라는 두 종목의 실기주제는 주제A와 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨합니다. 예시로 제시된 주제는 잠자리와 저울, 콜라병과 계절입니다.
+4. 화지크기는 시각디자인의 경우 켄트지3절이며, 사고의 전환의 경우 켄트지2절입니다.
+5. 시간은 모두 5시간입니다.</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 실기종목, 준비물, 실기주제, 화지크기, 시간에 대한 정보는 다음과 같습니다:
+1.실기종목: 기초디자인
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 잠자리와 저울)
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+- 조건: 제공된 사물과 이미지 이외의 형상은 표현하지 마시오. 제공된 사물은 모두 1회 이상 표현하시오. 제공된 사물의 색상은 변경하지 마시오.
+- 화지크기: 켄트지 3절
+- 시간: 5시간
+2.실기종목: 사고의 전환
+- 준비물: 볼펜, 연필, 색연필, 수채물감 등 표현에 필요한 도구
+- 실기주제: 주제A, 주제B에서 각 1개씩 선정하여 연결된 주제를 당일 추첨 (예시: 콜라병과 계절)
+- 주제A: 콜라병, 포카리스웨트(캔), 마스크, 시계, 맥가이버 칼
+- 주제B: 바이러스, 자유, 여행, 계절, 꿈
+- 화지크기: 켄트지 2절
+- 시간: 5시간</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 대부분의 대회 목록이 정확하게 나열되어 있습니다. 그러나 "백일기전국고등학교축구대회"와 같은 대회는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 정보를 제공하고 있습니다. 그러나 일부 대회가 중복으로 나열되어 있어 일관성에 약간의 문제가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장이 다소 반복적이어서 유창성에 약간의 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 대회에 대한 설명이 명확하게 연결되어 있습니다. 그러나 중복된 표현이 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대부분 정확하게 반영하고 있지만, 일부 대회가 추가되어 있어 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받았습니다. 그러나 일부 중복과 부정확성이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하고 있습니다. 그러나 일부 표현이 다소 중복되어 있어 의미 전달에 약간의 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나 중복된 표현이 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>0.9716929499697403</v>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회에는 어떤 대회들이 있는지 알려줘.</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과의 모집종목별로 인정하는 대회들은 다음과 같습니다:
+배드민턴(남)에 대한 인정대회는 다음과 같습니다:
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)에 대한 인정대회는 다음과 같습니다:
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 백일기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전
+이 대회들이 경기지도학과의 모집종목에 인정되는 대회들입니다.</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>경기지도학과 모집종목별 인정대회는 다음과 같습니다:
+배드민턴(남)
+- 한국중·고연맹회장기전국학생선수권대회
+- 대한배드민턴협회장기전국종별배드민턴선수권대회
+- 전국학교대항배드민턴선수권대회
+- 전국종별배드민턴선수권대회
+- 전국연맹종별배드민턴선수권대회
+- 전국체육대회
+- 각종국제대회
+- 주니어국제대회(국가대표팀, 주니어팀 소속으로 출전한 대회만 인정)
+- 광역시·도 협회장기 종별대회
+축구(남)
+- 춘계한국고등학교축구연맹전
+- 추계한국고등학교축구연맹전
+- 대한축구협회장배전국고등학교축구대회
+- 문화체육관광부장관기전국고등학교축구대회
+- 문화체육관광부장관배전국고등학교축구대회
+- 백운기전국고등학교축구대회
+- 전국고등축구리그(권역별고교축구리그)
+- 전국고등축구리그왕중왕전
+- 무학기전국고등학교축구대회
+- 청룡기전국고등학교축구대회
+- 백록기전국고등학교축구대회
+- 금강대기전국고등학교축구대회
+- 대통령금배전국고등학교축구대회
+- 금석배전국고등학생축구대회
+- 부산MBC전국고등학생축구대회
+- K리그 U18 챔피언십
+- K리그 U18 챔피언십왕중왕전</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 주제와 추첨 방식에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 문장 구조도 매끄럽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.9659973689116403</v>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험에 있는 주제들을 모두 알려줘.</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 디자인조형학과의 기초디자인 실기시험에서 제공되는 주제는 다음과 같습니다:
+주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음 
+이 주제들은 당일 추첨을 통해 각각의 참가자가 주어진 주제들 중 1개씩 선택하여 연결된 주제를 만들어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>디자인조형학과의 기초디자인 실기시험 주제는 다음과 같습니다:
+- 주제A: 잠자리, 무궁화, 피망, 고양이, 양파, 달팽이, 오렌지
+- 주제B: 악보, 줄자, 스카치테이프, 자물쇠, 반코팅장갑, 저울, 얼음
+시험 당일에는 주제A와 주제B에서 각각 1개씩 선정하여 연결된 주제를 추첨하게 됩니다. 예시로는 "잠자리와 저울"이 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 출결 점수가 학생부 교과 전형에 반영되지 않는다는 사실을 정확하게 반영하고 있습니다. 추가적인 정보도 제공되어 있으며, 이는 원문과 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 출결 점수가 반영되지 않는다는 주장을 일관되게 유지하고 있습니다. 모든 정보가 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제기된 질문에 직접적으로 관련된 정보를 제공합니다. 출결 점수와 학생부 교과 전형의 관계에 대한 명확한 설명이 포함되어 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 잘 연결되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 추가적인 세부사항도 정확하게 설명하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문의 의미와 맥락에 완벽하게 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>0.8371142486938495</v>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>학생부교과 전형에서 출결 점수가 반영되나요?</t>
+        </is>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>출결상황은 나군 학생부교과 전형의 반영비율에 포함되어 있지 않습니다. 반영되는 요소는 '학생부 교과성적'이며, 이는 '40페이지 Ⅵ. 학생부 교과성적 반영방법'을 참조하면 알 수 있습니다. 따라서 출결 점수는 나군의 학생부교과 전형에서 반영되지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>아니요. 학생부 교과 전형에서는 출결 점수가 반영되지 않습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원 수를 32명으로 잘못 기재하고 있으며, 이는 원본 텍스트의 17명과 상충합니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 모순되는 정보를 제공하고 있습니다. 모집 인원 수가 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 국어국문학과의 모집 전형에 대한 정보를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 약간의 어색함이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 연결되어 있으며, 전체적으로 일관된 흐름을 가지고 있습니다. 그러나 원본과의 불일치로 인해 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 1
+   - 모집 인원 수에 대한 정보가 잘못되어 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 사실성과 정확성이 매우 낮고, 일관성도 부족하지만, 관련성과 유창성은 어느 정도 유지되고 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절하지만, 잘못된 정보로 인해 원본 텍스트의 맥락과는 맞지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.847592515375163</v>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>2021년 대학교 입시 공고에 따르면, 인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로는 32명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 국어국문학과에서 가군 일반학생 전형으로 17명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 모집 인원에 대한 정보가 잘못되어 있습니다. 원문에서는 28명을 모집한다고 명시되어 있으나, 생성된 응답에서는 2명이라고 잘못 언급하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 정보를 제공합니다. 원문과의 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하고 있으므로 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 올바르고 자연스럽게 표현되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 일관되며, 명확한 의미를 전달하고 있습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공하는 사실과 완전히 다릅니다. 모집 인원에 대한 정보가 잘못되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성과 일관성에서 큰 문제를 가지고 있지만, 관련성과 유창성에서는 긍정적인 점이 있습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로 적절하지 않습니다. 원문에서 제공하는 정보와 상충하는 내용을 담고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 표현으로 되어 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>0.4735476257750388</v>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>인문사회과학대학의 영어영문학과에서 다군 일반학생 전형으로 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>2명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 인문사회과학대학 영어영문학과의 경우, 다군 일반학생 전형을 통해 총 28명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 핵심 사실인 "22명의 신입생"을 정확하게 반영하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일치하며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 질문에 대한 적절한 답변입니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 간결하고 명확하며, 문법적으로도 문제가 없습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미를 잘 전달하고 있으며, 논리적인 흐름이 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 생성된 응답은 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉽습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>0.3767707436637822</v>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>의료보건생활대학 간호학과 나군 일반학생 전형 모집 인원을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>22</t>
+        </is>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 의료보건생활대학 간호학과의 경우, 나군 일반학생 전형을 통해 총 22명의 신입생을 선발합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 점수를 정확하게 반영하고 있으며, 사실적으로 정확합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 모든 정보가 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있어 정확합니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>0.7923170099145209</v>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>수능 영어 등급에 따른 점수를 알려줘.</t>
+        </is>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>1등급은 139점을, 2등급은 131점, 3등급은 123점, 4등급은 115점, 5등급은 107점, 6등급은 99점, 7등급은 91점, 그리고 8등급은 83점입니다.</t>
+        </is>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>수능 영어영역 등급에 따른 점수는 다음과 같습니다:
+- 1등급: 139점
+- 2등급: 131점
+- 3등급: 123점
+- 4등급: 115점
+- 5등급: 107점
+- 6등급: 99점
+- 7등급: 91점
+- 8등급: 83점
+- 9등급: 75점</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원문과 일치하며, 예술고 학생이 나군 학생부교과 농어촌학생전형에 지원할 수 없다는 사실을 정확하게 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원문과 일관되며, 예술고 출신자가 지원할 수 없다는 내용을 일관되게 설명하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 예술고 학생의 지원 자격에 대한 질문에 적절히 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 명확한 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원문에서 제공된 정보와 정확히 일치하며, 사실에 대한 왜곡이나 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원문과 의미적으로 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>0.910477062622571</v>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>예술고 학생이 나군 학생부교과 농어촌학생전형으로 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 예술고 출신자는 나군의 농어촌학생전형에 지원할 수 없습니다. 이는 교육진흥법 시행규칙 제2조에 따른 도서·벽지로 지정된 지역은 농어촌지역으로 인정되지만, 특수목적고 중 예술고 출신자는 지원을 받지 못합니다. 따라서 예술고 학생이 이 전형을 통해 지원할 수는 없습니다.</t>
+        </is>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>아니요, 예술고 학생은 나군 학생부교과 농어촌학생전형으로 지원할 수 없습니다. 지원자격에 따르면 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 4등급 기록과 배점에 대한 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 제공된 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있으며, 4등급 기록과 배점에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 읽기 쉬우며, 자연스러운 표현을 사용하고 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 매끄럽습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 전달됩니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>0.9339456644146692</v>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>1등급 기준이 아닌 4등급 기록에 대한 정보를 제공하겠습니다.
+레저스포츠학과의 제자리 멀리뛰기 기록별 배점표에서 여자 4등급 기록은 다음과 같습니다:
+제자리 멀리뛰기(cm) : 218~221
+배점 : 275</t>
+        </is>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>레저스포츠학과 여자 제자리 멀리뛰기 4등급 기록과 배점은 다음과 같습니다:
+- 기록: 218~221 cm
+- 배점: 275점</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+2. Consistency Score (1-5): 5
+3. Relevance Score (1-5): 5
+4. Fluency Score (1-5): 5
+5. Coherence Score (1-5): 5
+6. Accuracy Score (1-5): 5
+7. Multidimensional Quality Score (1-5): 5
+8. Semantic Appropriateness Score (1-5): 5
+9. Understandability Score (1-5): 5
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>1</v>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>경기지도학과 출결 반영 비율을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>경기지도학과의 출결 반영 비율은 12%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 모집 인원과 학과 정보가 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.9888181629591932</v>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 물리치료학과에 몇 명을 모집하나요?</t>
+        </is>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군에서 물리치료학과는 4명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 실기고사 일정에 대한 정확한 정보를 제공하지 않고 있으며, 원본 텍스트의 내용을 완전히 무시하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있습니다. 원본 텍스트는 특정 날짜를 명시하고 있지만, 생성된 응답은 그 정보를 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 질문에 대한 직접적인 답변을 제공하지 않으며, 관련성이 전혀 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 설명: 문장은 이해할 수 있지만, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 이해도가 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>0.4609568232249958</v>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>2024학년도 나군 실기/실적 전형에서 디자인조형학과의 실기고사 일정에 대한 정보는 제공된 데이터 내에서 찾을 수 없습니다. 디자인조형학과의 실기고사 일정은 각 학교 또는 대학의 공식 웹사이트나 관련 자료를 통해 확인이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>2024. 01. 17.(수) 입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 수능 최저 학력 기준이 없다는 원문과 상반된 정보를 제공하고 있습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 완전히 모순되는 내용을 담고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 동의대학교 응용화학과의 수능 최저기준에 대한 질문에 직접적으로 답변하고 있어 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 다만, 원문과의 불일치로 인해 내용의 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 일관된 구조를 가지고 있지만, 원문과의 모순으로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문과의 사실적 불일치로 인해 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 응답은 관련성은 높지만, 사실성, 일관성, 정확성이 매우 낮아 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원문의 의미와 완전히 상반된 내용을 담고 있어 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 문장은 명확하게 작성되어 있어 이해하기 쉽지만, 내용의 신뢰성 문제로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.5859331463290457</v>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 응용화학과의 수능 최저기준은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 응용화학과의 수능 최저기준은 국어 3등급, 수학 5등급, 영어 6등급입니다. 이 기준을 충족해야 합격이 가능합니다.</t>
+        </is>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>수능 최저 학력 기준은 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대학교 2024학년도에 신설된 학과에 대한 정보를 명확히 제공하지 않고 있으며, 사실과 반대되는 내용을 포함하고 있습니다. 원본 텍스트에 명시된 학과 목록이 전혀 언급되지 않았습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 완전히 일치하지 않으며, 원본에서 제공된 정보와 상충하는 내용을 포함하고 있습니다. 원본 텍스트의 내용을 부정하고 있습니다.
+3. Relevance Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 직접적인 답변을 제공하지 않습니다. 원본 텍스트의 핵심 내용을 무시하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르며, 읽기에도 무리가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 일관된 문장 구조를 가지고 있지만, 원본 텍스트와의 관련성이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 완전히 일치하지 않으며, 신설된 학과에 대한 정보를 잘못 전달하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 부적절한 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 이해하기 쉬운 구조를 가지고 있지만, 내용의 부적절함으로 인해 전체적인 이해에 방해가 됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.749639559266174</v>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에 신설된 학과에 대한 정보가 제공된 문서 내에서 확인할 수 없습니다. 해당 정보를 얻기 위해서는 동의대학교 공식 웹사이트나 관련 자료를 참조해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도에 신설된 학과는 다음과 같습니다:
+1. 심리학과
+2. 스마트항만물류학과
+3. 창업투자경영학과
+4. 라이프융합학부 (스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학)
+5. 경기지도학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트에서는 서류와 면접의 비율이 각각 70%와 30%라고 명시되어 있지만, 생성된 응답에서는 60%와 40%로 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 포함하고 있습니다. 원본의 비율과 생성된 비율이 다르기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보를 제공하고 있어 관련성은 있지만 신뢰할 수 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 구조적으로 나름의 일관성을 가지고 있지만, 잘못된 정보로 인해 전체적인 논리적 흐름이 약해집니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하지 않으며, 잘못된 비율을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 잘못된 정보를 제공하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>0.9010234780156637</v>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 어떻게 되나요?</t>
+        </is>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 다음과 같습니다:
+```모집단위 / 전형요소 반영비율 { 서류 / 면접 }```
+스마트호스피탈리티학과: { 60% / 40% }
+미래형자동차학과: { 60% / 40% }
+소프트웨어융합학과: { 60% / 40% }
+이 표에서 볼 수 있듯이, 서류와 면접의 비율은 각각 60%와 40%로 설정되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군의 학생부종합(성인학습자전형)의 전형요소 반영비율은 서류 70%, 면접 30%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교에서 수능 가산점이 적용되는 모집단위를 언급하고 있으며, 수학(미적분 또는 기하)을 응시한 경우 가산점이 부여된다는 사실을 정확하게 반영하고 있습니다. 그러나, 특정 학과 목록이 원문에 명시되어 있지 않으므로, 이 부분에서 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일치하는 부분이 많지만, 추가된 학과 목록이 원문에 포함되어 있지 않기 때문에 일관성에서 다소 부족합니다. 원문에서 언급된 모집단위 외에 추가적인 세부사항이 포함되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련이 깊습니다. 수능 가산점과 관련된 정보가 잘 전달되고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, "or" 대신 "또는"을 사용하는 것이 더 자연스러울 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달됩니다. 그러나, 추가된 학과 목록이 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 대부분 정확하지만, 원문에 없는 학과 목록이 포함되어 있어 정확성에서 약간의 문제가 있습니다. 원문에 명시된 정보는 잘 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 관련성, 유창성, 일관성 등에서 좋은 점수를 받고 있습니다. 그러나, 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 맞아떨어지지만, 추가된 학과 목록이 원문과의 맥락에서 다소 어색할 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽고 명확하게 작성되었습니다. 그러나, 추가된 정보가 혼란을 줄 수 있는 요소가 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>0.8996398931155585</v>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 어떤 학과에서 수능 가산점을 적용하나요?</t>
+        </is>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 동의대학교에서는 수학(미적분 or 기하)을 응시한 학과에 대해 수학 취득 표준점수의 10%를 가산점으로 부여합니다. 이 가산점이 적용되는 학과는 다음과 같습니다.
+- 공과대학
+    - 기계공학과 - 교직
+    - 조선해양공학과
+    - 신소재공학과
+    - 고분자나노공학과
+    - 토목공학과
+    - 바이오의약공학과
+    - 인간공학과
+    - 자동차공학과
+- ICT융합공과대학
+    - 컴퓨터공학과 - 교직
+    - 인공지능학과
+    - 디지털콘텐츠학과
+    - 게임공학과
+따라서, 수능에서 수학(미적분 or 기하)을 응시한 학생들이 이 가산점을 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>동의대학교에서는 다음 모집단위에서 수능 가산점을 적용합니다:
+- 의료·보건·생활대학
+- 공과대학
+- ICT융합공과대학
+이들 모집단위에서 수학(미적분 또는 기하)을 응시한 경우, 수학 취득 표준점수의 10%를 가산점으로 부여합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 수능 성적이 100% 반영된다는 사실을 명확히 전달하고 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 수능 성적 반영 비율에 대한 정보가 충돌 없이 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 매우 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창하게 작성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 잘못된 정보가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 기록하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있도록 잘 구성되어 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>0.9355338338591308</v>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적을 어떻게 반영하나요?</t>
+        </is>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 가군에서 수능 성적은 100%로 반영됩니다. 이는 '가군 수능(일반학생전형)' 전형 요소 반영비율 표에 따르면 알 수 있습니다. 따라서, 수능 성적이 가군 수능(일반학생전형)의 전체 점수에서 100%를 차지하게 됩니다.</t>
+        </is>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 가군 수능(일반학생전형)에서는 수능 성적을 100% 반영합니다. 자세한 수능 성적 반영 방법은 '38페이지 Ⅴ. 수능성적 반영방법'을 참조하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 실기고사 날짜에 대한 정보를 완전히 잘못 전달하고 있으며, 원본 텍스트의 사실을 반영하지 않고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 내용을 포함하고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 응답은 동의대학교 실기고사에 대한 질문에 대한 답변을 제공하지 않고, 관련 정보를 찾기 위한 방법을 제안하고 있지만, 원본 텍스트의 핵심 정보와는 관련이 적습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 문법적으로 올바르고 읽기 쉬운 편이지만, 내용이 부적절하여 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 원본 텍스트와의 관련성이 낮아 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 응답은 원본 텍스트의 사실을 완전히 왜곡하고 있으며, 정확성이 전혀 없습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 기록하고 있어 전반적인 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 질문에 대한 적절한 답변이 아니기 때문에 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>0.8676431544003606</v>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기고사 날짜는 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군 실기고사 날짜에 대한 정보는 제공된 데이터 내에서 확인할 수 없습니다. 이와 관련된 자세한 정보를 얻으려면 동의대학교 공식 웹사이트나 관리사무소로 직접 문의하시는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기고사는 2024년 1월 16일(화)에 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 한의예과와 경기지도학과가 제외된 모집단위에서 누락되었으며, 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않으며, 제외된 모집단위에 대한 정보가 불일치합니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 주제와 관련이 있지만, 정확한 정보가 부족하여 일부 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기 쉬운 편입니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답의 구조는 어느 정도 일관성이 있지만, 정보의 정확성이 떨어져 전체적인 일관성이 부족합니다.
+6. Accuracy Score (1-5): 2
+   - 응답에 포함된 정보는 사실과 다르며, 중요한 세부사항이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 여러 차원에서 낮은 점수를 기록하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 의미적으로는 적절하지만, 정보의 정확성이 부족하여 전체적인 적합성이 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 전반적으로 이해하기 쉬운 문장이지만, 정보의 정확성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>0.909522020550554</v>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 나군 수능(일반학생전형) 전형에서는 어떤 모집단위가 제외되나요?</t>
+        </is>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 나군 수능(일반학생전형) 전형에서 제외된 모집단위는 디자인조형학과와 체육학과입니다. 이 외에는 나군 수능(일반학생전형), 실기/실적(일반학생전형) 전형요소 반영비율에 해당하는 모든 모집단위가 포함되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 나군 수능(일반학생전형) 전형에서는 한의예과, 디자인조형학과와 체육학과, 경기지도학과가 제외됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 정반대의 내용을 담고 있습니다. 원본에서는 다군 전형에 수능 최저기준이 적용되지 않는다고 명시하고 있지만, 생성된 응답에서는 적용된다고 주장하고 있습니다. 이는 명백한 사실 오류입니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 완전히 모순되는 내용을 포함하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 다군 전형과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 논리적으로 연결된 문장으로 구성되어 있지만, 잘못된 정보로 인해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 반대되는 내용을 담고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성 모두 매우 낮아 전반적인 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 다군 전형에 대한 내용을 다루고 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 명확하게 작성되어 있어 이해하기는 쉽지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>0.8174161455050751</v>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서 수능 최저기준이 적용되나요?</t>
+        </is>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용됩니다. 이는 '가군 수능(일반학생전형)'에 대한 내용에서 확인할 수 있습니다. 가군 수능(일반학생전형)은 전 모집단위에 대해 수능 성적만을 100% 반영하고 있기 때문입니다. 따라서, 다군 전형에서도 수능 최저기준이 적용되는 것으로 보입니다.</t>
+        </is>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">2024학년도 동의대의 다군 전형에서는 수능 최저기준이 적용되지 않습니다. </t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답에는 원본 텍스트에 포함되지 않은 학과들이 추가되어 있으며, 일부 학과의 이름이 잘못 기재되어 있습니다. 예를 들어, "보육·가정상담학과"와 "경제금융보험학과"는 원본 텍스트에 나타나지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있어 일관성이 부족합니다. 원본 텍스트에 명시된 학과와 다른 학과들이 언급되고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 있지만, 잘못된 정보가 포함되어 있어 전체적으로 관련성이 떨어집니다. 원본 텍스트의 주요 내용은 다루고 있으나, 추가된 정보가 혼란을 초래합니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 문장 구조가 복잡하여 약간의 가독성 저하가 있을 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 전반적으로 일관된 흐름을 가지고 있으나, 원본 텍스트와의 불일치로 인해 논리적 일관성이 떨어집니다. 추가된 학과들로 인해 혼란스러운 부분이 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답에는 원본 텍스트에 없는 정보가 포함되어 있어 정확성이 낮습니다. 원본 텍스트의 사실을 왜곡하거나 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 여러 차원에서 낮은 점수를 받고 있으며, 사실성, 일관성, 정확성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 의미와 관련이 있지만, 잘못된 정보가 포함되어 있어 의미적으로 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 문장 구조는 명확하지만, 내용의 정확성이 떨어져 이해에 어려움을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>0.9312450456257424</v>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 어떤 학과가 학부에서 학과로 분리되었나요?</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 다음과 같은 학과들이 학부에서 학과로 분리되었습니다.
+- 보육·가정상담학과 → 아동학과
+- 경제금융보험학과 → 금융경영학과
+- 정보경영학부(경영정보학, e비즈니스학) → 경영정보학과, e비즈니스학과
+- 부동산금융·자산경영학과 → 부동산자산경영학부(부동산투자학, 부동산개발경영학)
+- 기계자동차로봇부품공학부(기계공학, 로봇·자동화공학, 자동차공학) → 기계공학과, 로봇자동화공학과, 자동차공학과
+- 신소재공학부(금속소재공학, 전기전자소재공학, 고분자소재공학) → 신소재공학과, 고분자나노공학과
+- 건설공학부(건축학(5년제), 건축공학, 토목공학, 도시공학) → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+- 화학환경공학부(화학공학, 환경공학, 응용화학) → 화학공학과, 환경공학과, 응용화학과
+- 바이오응용공학부(의생명공학, 바이오의약공학, 식품공학) → 의생명공학과, 바이오의약공학과, 식품공학과
+- 디자인공학부(인간·시스템디자인공학, 제품디자인공학) → 인간공학과, 제품디자인공학과
+- 산업융합시스템공학부(산업ICT기술공학, 산업경영빅데이터공학) → 산업경영빅데이터공학과
+- 창의소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학) → 소프트웨어공학부(컴퓨터소프트웨어공학, 응용소프트웨어공학)
+- 전기전자통신공학부(전기공학, 전자공학, 정보통신공학) → 전기공학과, 전자공학과</t>
+        </is>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 학부에서 학과로 분리된 학과는 다음과 같습니다:
+1. 정보경영학부 → 경영정보학과, e비즈니스학과
+2. 기계자동차로봇부품공학부 → 기계공학과, 로봇자동화공학과, 자동차공학과
+3. 신소재공학부 → 신소재공학과, 고분자나노공학과
+4. 건설공학부 → 건축학과(5년제), 건축공학과, 토목공학과, 도시공학과
+5. 화학환경공학부 → 화학공학과, 환경공학과, 응용화학과
+6. 바이오응용공학부 → 의생명공학과, 바이오의약공학과, 식품공학과
+7. 디자인공학부 → 인간공학과, 제품디자인공학과
+8. 산업융합시스템공학부 → 산업경영빅데이터공학과
+9. 전기전자통신공학부 → 전기공학과, 전자공학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원서접수 마감일에 대한 정확한 정보를 제공하고 있으며, 날짜와 요일이 모두 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보가 서로 충돌하지 않습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 모든 품질 차원에서 우수한 성능을 보이며, 사실성, 일관성, 관련성, 정확성 모두에서 높은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>0.9724733908104706</v>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 전형일정에서 원서접수 마감일은 언제인가요?</t>
+        </is>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교의 전형일정에 따르면, 원서접수가 마감되는 날짜는 2024. 01. 06.(토)입니다.</t>
+        </is>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 전형일정에서 원서접수 마감일은 2024년 1월 6일(토) 18시입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 '학생부종합(성인학습자전형)'과 '학생부종합(성인학습자(정원내)전형)'의 지원자격에 대한 변화를 언급하고 있지만, '학생부종합(조기취업형계약학과전형)'과 '실기/실적(경기실적우수자전형)' 등 다른 전형의 변화는 누락되어 있습니다. 또한, '학생부종합(성인학습자(정원내)전형)'의 지원자격이 잘못 기재되어 있습니다. 
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 일부 전형의 변화를 언급하지만, 전체 전형 요소 변화에 대한 일관성이 부족합니다. 특히, 다른 전형의 변화가 누락되어 있어 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 동의대 2024학년도 전형 요소 변화에 대한 질문에 관련된 내용을 다루고 있으나, 모든 전형의 변화를 포함하지 않아 다소 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 일부 표현이 중복되어 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답은 전형의 변화에 대한 설명이 있지만, 전체적인 흐름이 매끄럽지 않고, 누락된 정보로 인해 일관된 논리적 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 전형의 지원자격에 대한 정보가 정확하지 않으며, 다른 전형의 변화가 누락되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 전반적으로 여러 차원에서 부족한 점이 많아, 다차원적인 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 적절한 부분이 있지만, 정보의 누락으로 인해 전체적인 맥락에서 적절하지 않은 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 정보의 누락으로 인해 전체적인 이해가 방해받을 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>0.8503116705091136</v>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 전형 요소 변화가 있는 전형은 무엇이 있나요?</t>
+        </is>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 전형 요소 변화가 있는 전형은 '학생부종합(성인학습자전형)'과 '학생부종합(성인학습자(정원내)전형)'입니다. 
+'학생부종합(성인학습자전형)'의 지원자격이 특성화고 등을 졸업한 재직자에서 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 변경되었습니다.
+'학생부종합(성인학습자(정원내)전형)'의 지원자격이 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자에서 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로 변경되었습니다. 
+따라서 이 두 전형이 전형 요소에 대한 변화를 겪었습니다.</t>
+        </is>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도에 전형 요소 변화가 있는 전형은 다음과 같습니다:
+1.  학생부종합(성인학습자전형):
+ - 2023학년도: 특성화고 등을 졸업한 재직자
+ - 2024학년도: 고교 졸업(예정)자 또는 법령에 의한 동등 학력 소지자로서 만 30세 이상인 자
+2.  학생부종합(조기취업형계약학과전형):
+  - 2023학년도: 서류(학생부) 70% + 면접 30%
+  - 2024학년도: 서류(학생부) 60% + 면접 40%
+3. 실기/실적(경기실적우수자전형):
+  - 2023학년도: 학생부교과(출결 포함) 30% + 서류(실적) 70%
+  - 2024학년도: 학생부교과 18% + 출결 12% + 서류(실적) 70%
+4. 반영학기(학생부교과, 실기/실적 위주전형):
+ - 2023학년도: 
+  - 고교 졸업예정자 : 1학년 1학기~3학년 1학기
+  - 고교 졸업자 : 1학년 1학기~3학년 2학기
+ - 2024학년도: 
+  -고교 졸업(예정)자 : 1학년 1학기~3학년 1학기
+5. 반영과목(학생부교과, 실기/실적 위주전형):
+ - 2023학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어교과 중 석차등급 상위 8과목
+   -8과목을 제외한 국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 4과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 2등급, B: 4등급, C: 6등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 미반영
+- 2024학년도:
+  -전 모집단위(한의예과 제외):
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학교과 중 석차등급 상위 12과목
+   -반영교과 중 진로선택과목 최대 2개 이내 반영 가능
+   -진로선택과목 성적반영: A: 1등급, B: 3등급, C: 5등급
+  -한의예과:
+   -국어, 수학, 영어, 한국사, 사회(역사/도덕 포함), 과학, 한문교과 전과목
+   -진로선택과목: 반영교과 전과목 반영
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있습니다. 실기 비중이 70%라는 사실이 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관성이 있으며, 서로 모순되는 정보가 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있어 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성능을 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬운 내용입니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>0.9878710978410622</v>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군 실기/실적 전형에서 실기 비중은 얼마인가요?</t>
+        </is>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>동의대학교 2024학년도 가군 실기/실적 전형에서 실기 비중은 70%입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 세부 전공의 목록이 정확하게 나열되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 수와 이름이 모두 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제를 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 일관된 흐름을 가지고 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>0.9299116100554231</v>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 학과 중 라이프융합학부의 세부 전공은 어떻게 구성되어 있나요?</t>
+        </is>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 세 개의 전공으로 구성되어 있습니다. 이 세 개의 전공은 스타트업창업투자학, 뷰티비즈니스학, 그리고 라이프생활문화학입니다.</t>
+        </is>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 신설된 라이프융합학부의 세부 전공은 다음과 같이 구성되어 있습니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 레저스포츠학과는 맞지만, 태권도학과는 원본 텍스트에 언급되지 않았습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 원본 텍스트와 생성된 응답 간에 일관성이 부족합니다. 원본 텍스트는 체육학과와 레저스포츠학과만 언급하고 있으며, 태권도학과는 포함되어 있지 않습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련이 있지만, 태권도학과의 언급이 원본 텍스트와 일치하지 않기 때문에 완전한 관련성은 없습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 응답은 전반적으로 일관된 구조를 가지고 있지만, 태권도학과의 언급으로 인해 논리적 흐름이 약간 깨집니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 태권도학과의 언급이 사실과 다르므로 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 응답의 질이 낮습니다. 사실성과 일관성에서 큰 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 응답의 의미는 대체로 적절하지만, 태권도학과의 언급이 원본 텍스트와 일치하지 않아 의미가 왜곡됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 태권도학과의 언급으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.9082190333813492</v>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 어떤 것들이 있나요?</t>
+        </is>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교 가군에서 실기고사에 참여해야 하는 학과는 레저스포츠학과와 태권도학과입니다. 이들은 '실기/실적(일반학생전형)' 전형요소를 반영하기 위해 실기고사를 진행합니다.</t>
+        </is>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도 가군에서 실기고사에 참여해야 하는 학과는 다음과 같습니다:
+1. 체육학과
+2. 레저스포츠학과</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 설명: 생성된 응답은 동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과 목록에서 디자인조형학과만 언급하고 있으며, 나머지 학과들(레저스포츠학과, 태권도학과, 체육학과, 경기지도학과)을 누락하고 있습니다. 따라서 사실성이 낮습니다.
+2. Consistency Score (1-5): 2  
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 원본 텍스트에 포함된 여러 학과를 무시하고 디자인조형학과만 언급하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3  
+   - 설명: 생성된 응답은 동의대의 실기/실적 위주 전형에 대한 질문에 답하고 있지만, 제공된 정보가 불완전하여 관련성이 다소 떨어집니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 문장으로 구성되어 있습니다. 그러나 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 응답은 디자인조형학과에 대한 정보로 시작하지만, 원본 텍스트의 전체적인 맥락을 고려할 때 일관된 흐름이 부족합니다.
+6. Accuracy Score (1-5): 2  
+   - 설명: 생성된 응답은 정확한 정보를 제공하지 않으며, 원본 텍스트에 명시된 다른 학과들을 누락하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 설명: 여러 차원에서 응답의 질이 낮으며, 사실성, 일관성, 정확성 모두 부족합니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 설명: 응답은 주제와 관련이 있지만, 제공된 정보가 불완전하여 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4  
+   - 설명: 응답은 전반적으로 이해하기 쉽지만, 정보의 부족으로 인해 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>0.8740277116891289</v>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>동의대 2024학년도에 실기/실적 위주 전형을 지원하려고 하는데, 어떤 학과가 해당되나요?</t>
+        </is>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대에서 실기/실적 위주 전형을 지원할 수 있는 학과는 디자인조형학과(서양화·한국화·환경조형)입니다. 이 정보는 "전형요소 반영비율" 섹션에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t xml:space="preserve">동의대 2024학년도 실기/실적 위주 전형 지원 가능한 학과는 다음과 같습니다:
+1. 레저스포츠학과
+2. 태권도학과
+3. 디자인조형학과
+4. 체육학과
+5. 경기지도학과 </t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 내용을 정확하게 반영하고 있으며, 제공되는 전공 목록도 일치합니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 전공의 수와 이름이 모두 일치합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용을 직접적으로 다루고 있으며, 관련성이 높습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 원본 텍스트의 흐름을 잘 따릅니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 사실을 정확하게 반영하고 있으며, 오류가 없습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>0.9254087317047106</v>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>동의대의 라이프융합학부 신설 정보가 궁금합니다. 이 학부에서는 어떤 전공을 제공하나요?</t>
+        </is>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대학교에서 신설된 라이프융합학부는 스타트업창업투자학, 뷰티비즈니스학, 라이프생활문화학 등 세 가지 전공을 제공하고 있습니다.</t>
+        </is>
+      </c>
+      <c r="F155" t="inlineStr">
+        <is>
+          <t>동의대학교의 라이프융합학부는 신설된 학부로, 다음과 같은 전공을 제공합니다:
+ - 스타트업창업투자학
+ - 뷰티비즈니스학
+ - 라이프생활문화학</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 특수목적고등학교 출신 학생이 일반학생전형으로 지원할 수 있다는 사실을 정확하게 반영하고 있습니다. 그러나 농어촌학생전형에 대한 언급이 없어서 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되며, 일반학생전형에 대한 지원 가능성을 잘 설명하고 있습니다. 다만, 농어촌학생전형에 대한 언급이 없어서 완전한 일관성은 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 다루고 있는 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 추가적인 정보가 포함되어 있어 약간의 복잡함이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제공하는 정보와 일치하며, 정확한 내용을 전달하고 있습니다. 그러나 농어촌학생전형에 대한 정보가 누락되어 있어 완전한 정확성은 부족합니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 사실성에서 높은 점수를 받고 있습니다. 그러나 일부 정보 누락이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 일치하며, 적절한 맥락에서 정보를 전달하고 있습니다. 다만, 농어촌학생전형에 대한 언급이 없어서 약간의 의미적 불일치가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용입니다. 그러나 약간의 복잡한 표현이 있어 일부 독자에게는 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>0.797552445308704</v>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 일반학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>네군 실기/실적 (일반학생전형)에 대해서만 말씀하신 것이라면, 특수목적고등학교 학생이 일반학생전형에 지원할 수 있습니다. 따라서, 동의대학교의 특수목적고등학교 학생이 일반학생전형으로 지원 가능합니다. 하지만, 다른 전형에 대한 지원 가능한 여부는 고려해야 할 요소가 다를 수 있으니, 해당 대학의 입학공지사항이나 공식 웹사이트를 참조하시거나, 직접 관리팀에 문의하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F156" t="inlineStr">
+        <is>
+          <t>특수목적고등학교 출신 학생은 일반학생전형으로 지원할 수 있습니다. 다만, 농어촌학생전형의 경우 특수목적고등학교 출신자는 지원할 수 없습니다. 일반학생전형에 대한 자세한 정보는 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 원본에서는 중어중국학과와 신소재공학과가 가장 많이 모집하는 학과로 언급되었으나, 생성된 응답에서는 '한의예과 수학(미적분/기하) 응시자'라고 잘못된 정보를 제공합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 포함하고 있습니다. 원본의 내용과 생성된 응답의 내용이 서로 모순되므로 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없습니다. 원본에서 언급된 학과와 모집 인원에 대한 정보와는 전혀 다른 내용을 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로는 비교적 잘 작성되어 있으나, 내용의 부정확성으로 인해 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있으나, 원본 텍스트와의 관계에서 비논리적입니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 완전히 다릅니다. 잘못된 정보가 포함되어 있어 정확성 점수는 최하점입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 전혀 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 생성된 응답은 문법적으로는 이해할 수 있지만, 내용의 부정확성으로 인해 혼란을 줄 수 있습니다. 따라서 이해 가능성 점수는 중간 정도로 평가됩니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>0.8608706095499035</v>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 어떤 학과인가요?</t>
+        </is>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 '한의예과 수학(미적분/기하) 응시자'입니다. 이 학과는 모집 인원이 12명으로 표시되어 있습니다.</t>
+        </is>
+      </c>
+      <c r="F157" t="inlineStr">
+        <is>
+          <t>2024학년도 동의대 나군 전형에서 가장 많이 모집하는 학과는 인문사회과학대학의 중어중국학과와 공과대학 신소재공학과로, 나군 일반학생 전형에서 32명을 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 특수목적고등학교 출신자가 동의대 학생부교과 농어촌학생전형으로 지원할 수 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "6년 과정 또는 12년 과정의 지원자격 중 하나를 만족하는 경우에 지원이 가능합니다"라는 부분은 원문에서 언급되지 않은 내용으로, 다소 혼란을 줄 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부분 일치하지만, "6년 과정 또는 12년 과정의 지원자격 중 하나를 만족하는 경우에 지원이 가능합니다"라는 문장은 원문과 모순되는 정보로, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 질문에 대한 직접적인 답변을 제공하며, 원문에서 다루고 있는 주제와 관련이 깊습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 일부 문장이 원문과의 연결이 약해 보일 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 대부분의 사실을 정확하게 반영하고 있지만, 추가된 정보가 원문과 일치하지 않아 정확성에 약간의 문제가 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 높은 품질을 유지하고 있으나, 일관성과 정확성에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문의 의미와 맥락에 대체로 적합하지만, 추가된 정보가 원문과의 일관성을 해치는 경향이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>0.7223983970103894</v>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>나는 특수목적고등학교 학생인데, 동의대 학생부교과 농어촌학생전형으로 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>6년 과정 또는 12년 과정의 지원자격 중 하나를 만족하는 경우에 지원이 가능합니다. 그러나 특수목적고등학교 출신은 지원할 수 없습니다. 따라서, 당신이 초등학교부터 고등학교까지 농어촌지역의 학교에서 교육을 받았으며, 부모님도 동일한 지역에 거주하셨다면 지원이 가능합니다. 그러나 특수목적고등학교 출신이라면 해당 전형으로는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+      <c r="F158" t="inlineStr">
+        <is>
+          <t>아니요, 특수목적고등학교 출신자는 동의대 학생부교과 농어촌학생전형으로 지원할 수 없습니다.  지원 자격에 따르면, 농어촌지역 또는 도서·벽지에 소재한 특수목적고 중 과학고, 국제고, 외국어고, 체육고, 예술고 출신자는 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않다는 원문 내용을 무시하고, 다른 정보를 제공하고 있습니다. 이는 원문과 상충되는 내용으로, 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원문과 일치하지 않으며, 원문에서 제공된 정보와 상반되는 내용을 포함하고 있습니다. 따라서 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 원문에서 요청한 정보와 관련이 있지만, 원문에서 명시적으로 언급된 정보가 아닌 다른 정보를 제공하고 있습니다. 따라서 관련성은 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 원문과의 불일치로 인해 내용의 흐름이 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 전체적인 일관성이 떨어집니다. 따라서 중간 정도의 일관성을 보입니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 상충되는 내용을 포함하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받고 있습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 원문에서 요청한 정보와는 다르기 때문에 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉽습니다. 그러나 원문과의 불일치로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>0.8283862266802424</v>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 합격자의 평균 성적에 대한 정보를 찾기 위해서는 "수능(일반학생전형) 최종등록자" 또는 "수능(일반학생전형) 최초합격자" 표에서 확인해야 합니다. 
+이 두 표 모두 다음과 같은 속성을 가지고 있습니다: 단과대학, 2024학년도 모집단위, 모집 인원, 지원 인원, 경쟁률, 충원 합격 (후보순위), 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }, 영어 등급 { 평균 / 표준 편차 }, 수능 4개 영역 등급 { 평균 / 표준 편차 }, 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }.
+따라서, "소프트웨어공학부"에 해당하는 행을 찾아서 '국어 + 수학 + 탐구(2개) (가산점 포함)' 또는 '수능 4개 영역 (가산점 포함) 표준 변환 점수 합'의 평균 값을 확인하면 됩니다. 이 정보는 Context에 제공되어 있지 않으므로, 직접 해당 웹사이트를 방문하여 확인해야 합니다.
+웹사이트: https://ipsi.deu.ac.kr/main.do</t>
+        </is>
+      </c>
+      <c r="F159" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 제공되지 않는다는 원문 내용을 왜곡하고 있습니다. 원문에서는 해당 정보가 포함되어 있지 않다고 명확히 언급하고 있지만, 생성된 응답은 정보가 제공된다고 주장하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 내용을 포함하고 있습니다. 원문은 정보가 없다고 명시하고 있는데, 생성된 응답은 정보가 있다고 잘못된 주장을 하고 있습니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보에 기반하고 있어 관련성은 있지만 신뢰할 수 없는 정보입니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 신뢰성이 떨어집니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 정보가 체계적으로 제시되고 있습니다. 그러나 잘못된 정보에 기반하고 있어 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원문에서 제공된 사실과 완전히 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 모두 낮은 점수를 받았으며, 전반적으로 품질이 매우 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 관련된 내용을 다루고 있지만, 잘못된 정보에 기반하고 있어 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 이해하기 쉬운 구조로 되어 있지만, 잘못된 정보로 인해 신뢰성이 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>0.8304511531533443</v>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자 평균 성적을 알려줘.</t>
+        </is>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>2024학년도 소프트웨어공학부 최초 합격자의 평균 성적에 대한 정보는 제공된 데이터에서 확인할 수 있습니다. 그러나, 해당 정보가 포함되어 있지 않아 직접적으로 답변을 드릴 수 없습니다. 
+데이터에는 다음과 같은 속성이 포함되어 있습니다:
+- 단과대학
+- 2024학년도 모집단위
+- 모집 인원
+- 지원 인원
+- 경쟁률
+- 충원 합격 (후보순위)
+- 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }
+- 영어 등급 { 평균 / 표준 편차 }
+- 수능 4개 영역 등급 { 평균 / 표준 편차 }
+- 수능 4개 영역 (가산점 포함) 표준 변환 점수 합 { 평균 / 표준 편차 }
+따라서, 소프트웨어공학부 최초 합격자의 평균 성적을 찾으려면, 해당 단과대학의 2024학년도 모집단위에 대한 정보를 찾아야 합니다. 그리고 그 정보에서 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합 또는 수능 4개 영역 등급 { 평균 / 표준 편차 } 등의 부분을 확인하면 됩니다.
+이를 위해, "https://ipsi.deu.ac.kr/main.do" 사이트에서 해당 정보를 직접 찾아보시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F160" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2024학년도 소프트웨어공학부 합격자 평균 성적에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 합격자 발표 일정에 대한 일부 정보를 정확하게 반영하고 있지만, 최초 합격자 등록 날짜와 시간에 대한 정보가 원본 텍스트에 포함되어 있지 않으며, 충원 합격자 발표 및 등록 시간도 다르게 제시되어 있습니다. 따라서 일부 사실이 왜곡되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 포함하고 있지만, 충원 합격자 발표 및 등록 시간에 대한 정보가 다르게 제시되어 있어 일관성이 부족합니다. 또한 최초 합격자 등록에 대한 정보는 원본에 없으므로 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 합격자 발표 일정과 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 주제를 잘 반영하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보의 흐름이 자연스럽습니다. 그러나 일부 정보가 추가되어 있어 전체적인 일관성에 약간의 영향을 미칠 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 일부 정확한 정보를 포함하고 있지만, 원본 텍스트와의 차이로 인해 정확성이 떨어집니다. 특히 등록 날짜와 시간이 원본과 다릅니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 가지고 있으며, 관련성, 유창성, 일관성 측면에서 좋은 점수를 받았습니다. 그러나 사실성과 정확성에서 약간의 문제가 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 그러나 일부 추가 정보가 원본과의 일관성을 떨어뜨릴 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 정보가 추가되어 있어 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>0.9542288210225606</v>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>합격자발표 언제</t>
+        </is>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 합격자 발표는 다음과 같이 진행됩니다:
+- 최초 합격자 발표: 2024. 02. 02.(금) 14:00
+- 최초 합격자 등록: 2024. 02. 07.(수)～02. 13.(화)
+- 충원 합격자 1차 발표 및 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 발표 및 등록: 2024. 02. 15.(목) 09:00~16:00
+- 충원 합격자 3차 이후 발표 및 등록: 2024. 02. 15.(목) 19:00~ 2024. 02. 20.(화) 18시까지
+이 외에도 합격자 발표는 홈페이지를 통해 실시되며, 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F161" t="inlineStr">
+        <is>
+          <t>합격자 발표 일정은 다음과 같습니다:
+ - 최초 합격자 발표: 2024년 2월 2일(금) 14:00
+ - 충원 합격자 1차 발표: 2024년 2월 14일(수) 09:00
+ - 충원 합격자 2차 발표: 2024년 2월 15일(목) 09:00
+ - 충원 합격자 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지
+ 모든 발표는 홈페이지를 통해 개별 조회해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 면접고사 일정에 대한 구체적인 정보를 제공하지 않고, 일반적인 면접 절차에 대한 설명으로 대체하고 있습니다. 이는 원본 텍스트의 사실과 일치하지 않으며, 중요한 정보를 누락하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일치하지 않는 정보를 포함하고 있으며, 면접 일정에 대한 구체적인 내용이 없기 때문에 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 면접 일정에 대한 질문에 대한 직접적인 답변이 아니며, 일반적인 면접 절차에 대한 설명으로 주제를 벗어나 있습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 오류가 없습니다. 그러나 주제와 관련이 없기 때문에 읽는 이에게 혼란을 줄 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 흐름을 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실을 왜곡하고 있으며, 면접 일정에 대한 정확한 정보를 제공하지 않습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 낮은 점수를 받았으며, 원본 텍스트와의 관계가 거의 없습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 면접에 대한 설명이 포함되어 있지만, 원본 텍스트의 맥락과는 맞지 않아서 적절하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 쉬운 편이지만, 주제와의 관련성이 떨어져서 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.5838950894747753</v>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>면접고사는 언제 보러 가나요</t>
+        </is>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>2단계 참여기업 면접결과에 따라 최종 합격인원이 모집인원보다 적거나 없을 수도 있으므로, 정확한 면접 날짜와 시간은 해당 기업의 공지 또는 동의대학교에서 제공하는 정보를 참고해야 합니다. 일반적으로 면접은 수능 후부터 입학 전까지 진행되며, 각 기업별로 일정이 다를 수 있습니다. 지원자 본인에게는 최종 면접일정을 확인하기 위해 동의대학교의 공지사항이나 이메일 등에 주의 깊게 관심을 가지고 있어야 합니다.</t>
+        </is>
+      </c>
+      <c r="F162" t="inlineStr">
+        <is>
+          <t>나군 평생학습자전형, 성인학습자(정원내)전형, 성인학습자(정원외)전형, 재직자전형, 조기취업형계약학과전형의 면접고사 일정은 2024. 01. 20.(토)입니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 설명: 생성된 응답은 동의대 한의예과의 최저학력 기준이 없다는 사실과 상충하는 내용을 포함하고 있습니다. 고등학교 졸업증명서와 수학 과목 이수 경험이 필요하다는 주장은 사실이 아닙니다.
+2. Consistency Score (1-5): 1
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않으며, 서로 모순되는 정보를 제공합니다. 최저학력 기준이 없다는 점과 고등학교 졸업증명서가 필요하다는 점은 서로 상충합니다.
+3. Relevance Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과에 대한 일반적인 정보는 포함하고 있지만, 원본 텍스트의 핵심 내용인 최저학력 기준에 대한 정보와는 관련이 적습니다. 따라서 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 가지 정보를 포함하고 있지만, 원본 텍스트와의 일관성이 부족하여 논리적인 흐름이 다소 떨어집니다. 그러나 각 문장 간의 연결은 비교적 잘 이루어져 있습니다.
+6. Accuracy Score (1-5): 1
+   - 설명: 생성된 응답은 사실과 크게 다르며, 잘못된 정보를 포함하고 있습니다. 동의대 한의예과의 최저학력 기준이 없다는 점을 무시하고 잘못된 요구 사항을 제시하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 설명: 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 전반적으로 원본 텍스트와의 일치성이 부족합니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 설명: 생성된 응답은 한의예과에 대한 일반적인 정보는 제공하지만, 원본 텍스트의 의미와는 맞지 않는 내용을 포함하고 있어 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 문장이 명확하고 이해하기 쉬운 편입니다. 그러나 내용의 정확성 문제로 인해 전체적인 이해에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.6302542274039321</v>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>한의예과 최저학력기준</t>
+        </is>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>1. 한의과대학에서 한의예과에 지원하려면 일반적으로 고등학교 졸업증명서를 소지하고 있어야 합니다.
+2. 또한, 수학과 관련된 과목들(미적분, 기하, 확률과 통계 등)을 배운 경험이 필요합니다. 이는 각 대학의 요구 사항에 따라 다르므로, 특정 대학의 경우 해당 대학의 공식 웹사이트를 참조하는 것이 좋습니다.
+3. 한의예과는 일반적으로 의과대학 전공 과목들을 학습하며, 이러한 과목들에 대한 기본적인 이해와 지식이 필요합니다. 따라서 수학 외에도 의학과 관련된 기초 과목들을 배운 경험이 있으면 더 유리할 수 있습니다.
+4. 한의예과는 일반적으로 4년제 학부 과정이며, 이 과정을 통해 한의사가 되기 위한 전공 지식을 습득하게 됩니다. 따라서 이러한 과정에 성공적으로 진학하기 위해서는 꾸준한 학습과 노력이 필요합니다.
+위의 정보는 일반적인 가이드라인으로, 각 대학마다 조금씩 다르므로 자세한 내용은 해당 대학의 공식 웹사이트나 관리사무소를 통해 확인하는 것이 가장 정확할 것입니다.</t>
+        </is>
+      </c>
+      <c r="F163" t="inlineStr">
+        <is>
+          <t>동의대 한의예과의 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 동의대학교의 수능 최저학력 기준이 없다는 사실을 정확하게 반영하고 있습니다. 그러나 "해당 대학교의 정책에 따라 다를 수 있습니다"라는 부분은 다소 모호하게 들릴 수 있으며, 실제로는 기준이 없다는 점을 명확히 하고 있습니다.
+2. Consistency Score (1-5): 4
+   - 응답은 원문과 일관되며, 수능 최저학력 기준이 없다는 점을 유지하고 있습니다. 다만, 정책에 따라 다를 수 있다는 언급은 원문과의 일관성을 약간 떨어뜨릴 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 제시된 주제와 관련이 깊으며, 수능 최저학력 기준에 대한 정보를 잘 전달하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 "수능 최저학력기준은 명시되지 않았습니다" 부분에서 약간의 어색함이 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 응답은 논리적으로 잘 연결되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 다만, "정시모집에서 수능 최저학력기준이 존재하는지 여부는 해당 대학교의 정책에 따라 다를 수 있습니다" 부분이 다소 복잡하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 사실적으로 정확하지만, "정책에 따라 다를 수 있다"는 표현이 원문과의 정확성을 약간 떨어뜨립니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받을 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 응답은 원문과의 의미적 일치가 높지만, 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하게 느껴질 수 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.7926549794240049</v>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>정시에서 수능최저학력기준이 있나요?</t>
+        </is>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집 공고에 따르면, 수능 최저 학력 기준은 없습니다. 단과대학별로 모집인원, 지원인원, 경쟁률 등이 제시되어 있지만, 수능 최저학력기준은 명시되지 않았습니다. 따라서 동의대학교 정시모집에서 수능 최저학력기준이 존재하는지 여부는 해당 대학교의 정책에 따라 다를 수 있습니다. 자세한 사항은 공고나 관련 사이트를 통해 확인하시는 것이 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F164" t="inlineStr">
+        <is>
+          <t>동의대학교는 수능 최저학력 기준이 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 1차와 2차 충원합격자 발표 일정은 정확하게 반영하고 있지만, 3차 이후 발표 일정에 대한 정보가 원본 텍스트와 다르게 설명되고 있습니다. 원본 텍스트에서는 3차 이후 발표가 2024년 2월 15일 19:00부터 2024년 2월 20일 18시까지라고 명시되어 있으나, 생성된 응답에서는 개별 전화 통보로 진행된다고만 언급하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 일부 정보를 일관되게 반영하고 있지만, 3차 이후 발표 일정에 대한 설명이 원본과 일치하지 않아 일관성이 떨어집니다. 특히, 3차 이후 발표 일정에 대한 구체적인 내용이 누락되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주요 내용을 잘 반영하고 있으며, 충원합격자 발표 일정에 대한 질문에 직접적으로 관련된 정보를 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 일정에 대한 정보를 체계적으로 전달하고 있습니다. 그러나 3차 이후 발표에 대한 설명이 부족하여 완전한 일관성을 제공하지는 못합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 1차와 2차 발표 일정에 대한 정확한 정보를 제공하지만, 3차 이후 발표 일정에 대한 정보가 원본과 다르게 설명되어 있어 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으나, 3차 이후 발표 일정에 대한 정보의 부정확성으로 인해 점수가 다소 낮아졌습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 발표 일정에 대한 정보를 적절하게 전달하고 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 내용으로 구성되어 있습니다. 다만, 3차 이후 발표에 대한 설명이 부족하여 일부 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.9280656729718956</v>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>충원합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 충원 합격자 발표는 다음과 같이 진행됩니다:
+- 충원 합격자 1차 (인터넷) 발표: 2024. 02. 14.(수) 09:00
+- 충원 합격자 1차 (인터넷) 등록: 2024. 02. 14.(수) 09:00~16:00
+- 충원 합격자 2차 (인터넷) 발표: 2024. 02. 15.(목) 09:00
+- 충원 합격자 2차 (인터넷) 등록: 2024. 02. 15.(목) 09:00~16:00
+이 외에도 충원 합격자 3차 이후 (개별 전화 통보) 발표와 등록일정이 있습니다. 그러나 이는 개별적으로 전화로 통보되므로, 홈페이지를 통해 확인해야 합니다.
+따라서, 가장 직접적인 충원합격자의 발표 일정은 위의 1차와 2차 발표일인 02월 14일과 02월 15일입니다.</t>
+        </is>
+      </c>
+      <c r="F165" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 3차 이후 발표 일정에 대한 정보를 정확하게 반영하고 있으며, 날짜와 시간도 일치합니다. 그러나 "(개별 전화 통보)"라는 추가 정보는 원본 텍스트에 포함되어 있지 않으므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있습니다. 다만, "(개별 전화 통보)"라는 문구가 추가되어 있어 약간의 일관성 저하가 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 내용과 직접적으로 관련이 있으며, 충원합격자 발표 일정에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 내용이 명확하게 전달됩니다.
+6. Accuracy Score (1-5): 4
+   - 날짜와 시간은 정확하지만, "(개별 전화 통보)"라는 추가 정보는 원본 텍스트에 없으므로 약간의 부정확성이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 유지하고 있으나, 일부 부정확성과 일관성 저하로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 의미적으로 적절하지만, 원본 텍스트에 없는 정보를 포함하고 있어 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 독자가 쉽게 내용을 파악할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>0.7278304008782427</v>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>추가합격자 발표는 언제?</t>
+        </is>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>3차 이후 (개별 전화 통보) 발표는 2024년 2월 15일(목) 19:00부터 2월 20일(화)까지 이뤄집니다.</t>
+        </is>
+      </c>
+      <c r="F166" t="inlineStr">
+        <is>
+          <t>충원합격자 발표 일정은 다음과 같습니다:
+ 1. 1차 충원합격자 발표: 2024년 2월 14일(수) 09:00
+ 2. 2차 충원합격자 발표: 2024년 2월 15일(목) 09:00
+ 3. 3차 이후 충원합격자 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18시까지</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수시모집 등록자의 등록 포기로 인한 결원과 정시모집의 추가모집에 대한 내용을 잘 반영하고 있습니다. 그러나 "등록금 환불 규정"에 대한 언급은 원문에 명시되어 있지 않아 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 대체로 일관성을 유지하고 있으며, 추가모집이 이루어질 수 있다는 점을 잘 설명하고 있습니다. 다만, "등록금 환불 규정"이라는 추가 정보가 원문에 없기 때문에 완전한 일관성은 아닙니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 매우 관련성이 높습니다. 추가모집에 대한 설명이 원문과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 "등록금 환불 규정" 부분이 원문과의 연결성을 약간 떨어뜨릴 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원문에서 제시된 사실을 잘 반영하고 있으나, 추가된 정보가 원문에 없기 때문에 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행하고 있으며, 특히 관련성과 유창성에서 높은 점수를 받습니다. 그러나 약간의 부정확성과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 연결되어 있으나, 추가된 정보가 원문과의 맥락에서 다소 어색하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽고 명확하게 작성되어 있습니다. 그러나 일부 표현이 다소 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>0.854172715512112</v>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>추가모집을 하나요?</t>
+        </is>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>2024년 정시 모집요강에 따르면, 등록(입학) 포기 및 등록금 환불 규정에 따라 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다. 따라서 추가모집이 이루어질 수 있습니다. 그러나, 각 모집단위의 상세한 추가모집 여부는 해당 대학의 입학관리위원회가 결정하며, 공식 발표를 기다려야 합니다.</t>
+        </is>
+      </c>
+      <c r="F167" t="inlineStr">
+        <is>
+          <t>2024년 1월 2일(화) 이후 수시모집 등록자의 등록(입학) 포기로 인한 결원은 정시 일반학생전형 모집인원으로 이월하여 추가로 합격자를 선발합니다. 정시모집 모집단위별 등록인원이 모집인원에 미달된 경우에는 그 인원을 추가모집으로 이월하여 모집합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5  
+   - 생성된 응답은 원본 텍스트의 모든 주요 사실을 정확하게 반영하고 있습니다. 지원자격, 제출서류, 전형요소 반영 비율, 지원기간, 제출장소 등 모든 정보가 일치합니다.
+2. Consistency Score (1-5): 5  
+   - 생성된 응답은 원본 텍스트와 일관되며, 정보의 충돌이나 모순이 없습니다. 모든 내용이 원본과 일치합니다.
+3. Relevance Score (1-5): 5  
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 깊으며, 필요한 모든 정보를 포함하고 있습니다. 주제에 대한 적절한 응답입니다.
+4. Fluency Score (1-5): 5  
+   - 생성된 응답은 문법적으로 정확하고, 문장 구조가 매끄럽습니다. 읽기 쉽고 이해하기 쉬운 표현으로 작성되었습니다.
+5. Coherence Score (1-5): 5  
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 전체적으로 일관된 흐름을 유지하고 있습니다.
+6. Accuracy Score (1-5): 5  
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 잘못된 정보나 누락된 내용이 없습니다.
+7. Multidimensional Quality Score (1-5): 5  
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 품질 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5  
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5  
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>0.7150030761827011</v>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대해 알려줘.</t>
+        </is>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>1. 지원자격:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+2. 제출서류:
+   - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+3. 전형요소 반영비율:
+   - 서류: 70%
+   - 면접: 30%
+4. 지원기간:
+   - 2024년 1월 3일(수) ~ 1월 12일(금)까지 도착분에 한함
+5. 제출장소:
+   - (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀</t>
+        </is>
+      </c>
+      <c r="F168" t="inlineStr">
+        <is>
+          <t>평생학습자전형에 대한 정보는 다음과 같습니다.  
+모집단위 및 모집인원
+  - 미래융합대학 라이프융합학부
+  - 전형명: 학생부종합(평생학습자전형)
+  - 모집인원: 11명
+ 지원자격
+ - 평생학습자전형: 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자
+전형요소 반영 비율
+ - 서류: 70%
+ - 면접: 30%
+ 제출서류
+ - 고교 졸업(예정)자:
+  - 고교 학교생활기록부 1부 (학생부 온라인 제공 동의자는 제출할 필요 없음)
+- 검정고시출신자:
+  - 검정고시 합격증서 사본 또는 합격증명서 1부
+  - 검정고시 성적증명서 1부 (온라인 제공 동의자는 제출할 필요 없음)
+  - 학교생활기록부 대체 서류 (제출여부 선택 가능)
+ - 외국고교 졸업(예정)자:
+  - 공증받은 외국고교 졸업(예정)증명서 1부
+  - 공증받은 외국고교 성적증명서 1부
+  - 학교생활기록부 대체 서류(제출여부 선택 가능)
+  - 외국어로 작성된 경우, 원본과 공증받은 한국어 번역본을 함께 제출
+  - 고교 졸업(예정)증명서, 성적증명서는 해당국가의 정부기관으로부터 아포스티유 확인서 또는 해당국가 주재 한국영사관에서 영사 확인을 발급받아 제출(단, 교육부에서 인정한 재외한국학교는 영사확인 없이 증명서 원본 제출 가능)
+  - 만점이 명시된 고교성적 체계자료를 성적증명서 뒤에 첨부
+  - 최종 등록자 중 외국고교 졸업예정자는 졸업 이후 졸업증명서(아포스티유 확인서 또는 영사확인 
+발급)를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.
+제출기간 및 장소
+ - 제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+ - 제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+ 추가사항
+ - 검정고시출신자 및 외국고교 졸업(예정)자의 제출서류 중 학교생활기록부 대체 서류는 선택 제출서류로 ‘학교생활기록부 대체 서류’ 양식을 참조.
+ 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 평생학습자전형의 지원자격에 대한 정보가 아닌, 산업체 적용범위, 재직기간 산정, 학력 및 연령에 대한 내용을 포함하고 있습니다. 이는 원본 텍스트와 관련이 없으며, 사실적으로 부정확합니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 주제를 다루고 있습니다. 따라서 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 평생학습자전형의 지원자격에 대한 정보가 아닌 다른 내용을 포함하고 있습니다. 매우 낮은 관련성을 보입니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용이 원본과 관련이 없기 때문에 전체적인 평가에는 영향을 미치지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있어 이해하기는 쉽지만, 내용이 원본과 관련이 없기 때문에 전체적인 이해도에는 영향을 미칩니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>0.5507548357233303</v>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>평생학습자전형 지원자격은?</t>
+        </is>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>1. **산업체 적용범위**:
+   - 국가·지방자치단체 및 공공단체(소속 직원의 경우)
+   - 근로기준법 제11조에 의거 상시근로자 5인(사업주 포함) 이상 사업체
+   - 4대 보험 중 1개 이상 가입 사업체(창업·자영업자 포함)
+   - 단, 4대 보험 가입대상 사업체가 아닌 1차 산업 종사자는 국가·지방자치단체가 발급하는 공적증명서 확인을 통해 인정할 수 있음
+2. **재직기간 산정**:
+   - 2024년 3월 1일 기준으로 총 재직기간이 3년 이상(예정)이어야 함
+   - 재직기간은 제출한 지원자격 증빙서류 상으로 증명되는 기간만 산정
+   - 2개 이상의 산업체에 재직한 경우 총 재직기간은 합산하여 산정하되, 중복되는 기간은 이중으로 합산하지 않음
+   - 군 의무복무 경력도 재직기간으로 인정함
+3. **학력 및 연령**:
+   - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+      <c r="F169" t="inlineStr">
+        <is>
+          <t>평생학습자전형의 지원자격은 다음과 같습니다
+ - 고교 졸업(예정)자 또는 법령에 의한 동등학력 소지자</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 구체적인 정보를 제공하지 않고, 각 학과의 공지사항이나 안내서를 확인하라는 일반적인 조언을 포함하고 있습니다. 원본 텍스트의 핵심 정보인 입실시간과 대기실에 대한 내용이 누락되어 있어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있습니다. 원본 텍스트는 특정 날짜와 시간에 대한 정보를 제공하지만, 생성된 응답은 그에 대한 언급이 없고, 일반적인 조언으로 대체하고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 핵심 내용인 대기실 및 입실시간에 대한 정보와는 관련성이 낮습니다. 따라서 관련성 점수는 중간 정도로 평가됩니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 원본 텍스트와의 연결이 약해 전체적인 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 구체적인 사실을 반영하지 않으며, 중요한 정보가 누락되어 있습니다. 따라서 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 생성된 응답은 여러 차원에서 낮은 점수를 받았으며, 특히 사실성과 일관성에서 큰 문제가 있습니다. 전반적으로 품질이 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 실기고사와 관련된 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있습니다. 따라서 의미적 적절성 점수는 중간 정도로 평가됩니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되었습니다. 그러나 일부 내용이 원본 텍스트와의 연결이 약해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>0.6471322642815813</v>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 실기고사의 장소는 각 학과에 따라 다르므로, 구체적인 위치를 알 수 있도록 해당 대학 또는 학과의 공지사항이나 안내서를 확인해 보시는 것이 좋습니다. 일반적으로 실기고사는 대학 본관이나 체육관 등에서 진행되며, 세부 장소는 시험일 전날 혹은 당일에 공지됩니다. 
+또한, 각 학과의 특성에 따라 준비물이나 주제, 화지크기, 기록별 배점표 등의 정보도 확인해 보시는 것이 좋습니다. 이러한 정보를 통해 실기고사에서 요구하는 사항을 알 수 있습니다.
+마지막으로, 시험 당일에는 부상 또는 기타 사유로 기권한 자에게는 해당 종목에 최저점을 부여합니다. 각 실기종목별 2회 반칙자에게는 최저점수를 부여합니다. 이러한 점을 잘 알고, 필요한 준비물을 구체적으로 확인하여 시험일에 대비하는 것이 중요합니다.
+이렇게 세부적인 정보를 통해 실기고사에서 요구하는 사항을 알 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F170" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 실기고사 대기실 및 입실시간에 대한 정보가 포함되어 있지 않으며, 실기종목과 관련된 정보가 추가로 제공되지만, 원본 텍스트의 핵심 정보인 입실시간에 대한 내용이 누락되어 있습니다. 따라서 사실성 점수는 낮습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트와 일치하지 않는 정보가 포함되어 있으며, 실기고사에 대한 구체적인 내용이 추가되었지만, 원본 텍스트의 핵심 정보와는 일관성이 없습니다. 따라서 일관성 점수는 낮습니다.
+3. Relevance Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 주제인 대기실 및 입실시간에 대한 정보는 포함되어 있지 않아 관련성이 떨어집니다. 따라서 관련성 점수는 중간 정도입니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 따라서 일관성 점수는 높습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 원본 텍스트의 핵심 정보인 입실시간에 대한 내용을 포함하지 않으며, 추가된 정보가 사실인지 확인할 수 없기 때문에 정확성 점수는 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 평가했을 때, 사실성, 일관성, 정확성에서 낮은 점수를 받았기 때문에 전체적인 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 체육학과의 실기고사에 대한 정보를 제공하지만, 원본 텍스트의 맥락과는 다소 어긋나기 때문에 의미 적합성 점수는 중간 정도입니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 명확하게 작성되어 있어 이해하기 쉽습니다. 따라서 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>0.5138814046121958</v>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>체육학과의 실기고사는 어디로 가면 되나요?</t>
+        </is>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 체육학과의 실기고사를 위해 필요한 정보는 다음과 같습니다:
+체육학과의 실기고사에는 제자리 멀리뛰기, 메디신볼 던지기, Z-런 등이 포함되어 있습니다. 각각의 실기종목에 대한 배점은 240점(제자리 멀리뛰기), 243점(메디신볼 던지기), 230점(Z-런)입니다.
+실기시험일에는 운동복과 운동화를 착용해야 하며, 스파이크나 축구화와 같이 특수한 신발은 사용할 수 없습니다. 또한 신발 바닥에 이물질이 달려있지 않아야 합니다.
+메디신볼의 규격은 남자 3kg, 여자 2kg입니다.
+실기시험 당일에 부상이나 기타 사유로 기권한 경우 해당 종목에는 최저점수를 부여합니다. 각 실기종목별 2회 반칙자는 최저점수를 받게 됩니다.
+따라서 체육학과의 실기고사를 위해선 위의 정보를 참고하여 준비해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F171" t="inlineStr">
+        <is>
+          <t>실기고사 대기실 및 입실시간은 2024. 01. 12.(금) 14:00 이후 입학안내 홈페이지에서 조회 가능합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 전화 연락이 이루어지지 않는다는 점을 언급하고 있지만, 2차 충원합격자 발표 과정에서 전화 연락 두절로 인해 충원합격 통보가 어려운 경우에 대한 설명이 추가되어 있어, 원문과의 일관성이 떨어진다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원문과 일부 일치하지만, 전화 연락 두절에 대한 언급이 원문에서 명시된 내용과 상충하는 부분이 있어 일관성이 부족하다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 전화 연락 두절에 대한 추가적인 정보가 원문에서 다루지 않은 부분이므로 약간의 관련성 저하가 있다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 편이다. 그러나 약간의 어색한 표현이 있을 수 있다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 논리적인 흐름이 있지만, 전화 연락 두절에 대한 언급이 원문과의 연결이 명확하지 않아 일관성이 떨어진다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원문에서 제공하는 정보와 일부 일치하지만, 전화 연락 두절에 대한 내용이 원문과 상충하여 정확성이 떨어진다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 응답은 원문과 관련이 있지만, 일관성과 정확성에서 부족함이 있어 다차원적인 품질이 떨어진다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 전화 연락 두절에 대한 언급이 원문과의 의미적 일치가 부족하다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 편이지만, 일부 내용이 원문과의 연결이 명확하지 않아 혼란을 줄 수 있다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>0.7945970241460738</v>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>수시 충원합격자 발표하면 전화 주시는건가요?</t>
+        </is>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>2차 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 2024년 2월 15일(목)~2024년 2월 20일(화)에 전화 연락을 받지 못하는 일이 없도록 유의하시기 바랍니다. 이는 충원합격자 발표 기간 동안 전화를 통해 통보하는 것이 아니라, 홈페이지를 통해 실시한다는 것을 의미합니다.</t>
+        </is>
+      </c>
+      <c r="F172" t="inlineStr">
+        <is>
+          <t>아니요, 수시 충원합격자 발표는 전화로 개별 연락을 하지 않습니다. 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 홈페이지를 통해 확인해야 합니다. 3차 이후 충원합격자 발표 과정에서만 개별 전화 통보가 이루어집니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 수시모집 결과에 대한 정보가 제공되지 않는다는 사실을 정확하게 반영하고 있습니다. 그러나 "각 대학의 공식 웹사이트나 공고를 통해 확인이 가능합니다"라는 부분은 원문에 명시된 정보가 아니므로 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원문과 일관되게 수시모집 결과에 대한 정보가 없음을 언급하고 있습니다. 다만, 추가적인 정보 제공 방식에 대한 언급이 원문에 포함되어 있지 않아 약간의 일관성 부족이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원문에서 다루고 있는 주제와 직접적으로 관련이 있으며, 수시모집 결과에 대한 정보의 부재를 잘 설명하고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 읽히며, 전반적으로 유창합니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 정보가 명확하게 전달되고 있습니다.
+6. Accuracy Score (1-5): 4
+   - 응답은 원문에서 제공된 정보와 대체로 일치하지만, 추가적인 정보 제공 방식에 대한 언급이 원문에 없으므로 약간의 정확성 부족이 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 응답은 높은 품질을 보이지만, 일부 세부 사항에서 정확성과 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원문과 의미적으로 잘 맞지만, 추가적인 정보 제공 방식에 대한 언급이 원문에 없으므로 약간의 부적절성이 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬우며, 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>0.8721637308159264</v>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과 수시모집 결과는?</t>
+        </is>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>2023학년도 경찰행정학과의 수시모집 결과에 대한 정보를 제공하는 부분은 없습니다. 해당 정보는 각 대학의 공식 웹사이트나 공고를 통해 확인이 가능합니다. 또한, 모집 결과가 발표된 경우 일반적으로 대학의 입학처 또는 관련 부서에서 공지하거나 공개하므로 이를 참고하시면 좋을 것 같습니다.</t>
+        </is>
+      </c>
+      <c r="F173" t="inlineStr">
+        <is>
+          <t>제공된 정시 모집요강에는 2023학년도 경찰행정학과 수시모집 결과에 대한 정보가 포함되어 있지 않습니다. 해당 정보를 확인하려면 "https://ipsi.deu.ac.kr/main.do"를 방문하여 문의하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 정시모집 지원자가 수능에 응시하지 않으면 지원할 수 없다는 사실을 완전히 무시하고 있으며, 잘못된 정보를 제공하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상충되는 내용을 담고 있어 일관성이 전혀 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 정시모집 지원자와 관련된 내용이지만, 주제와 관련이 없는 추가 정보가 포함되어 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 잘 구성되어 있으며, 문법적으로도 큰 문제가 없습니다. 그러나 내용의 부적절함으로 인해 전체적인 흐름이 방해받습니다.
+5. Coherence Score (1-5): 3
+   - 응답은 일관된 구조를 가지고 있지만, 원문과의 불일치로 인해 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 완전히 다르며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원문과의 일치성이 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원문과의 의미적 일치가 전혀 없으며, 맥락에 맞지 않는 내용을 포함하고 있습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해하기 어렵지 않지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.6528827839885172</v>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>정시에 수능 응시하지 않아도 지원할 수 있나요?</t>
+        </is>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정의 농어촌학생전형은 국내 고교 졸업(예정)자로서 해당 유형 중 하나에 해당하는 자가 지원할 수 있습니다. 따라서, 정시에 수능 응시하지 않아도 지원이 가능합니다. 그러나 제출서류 및 동점자 처리기준 등에 따라 지원을 할 때 주의사항이 있으므로, 상세한 조건과 절차는 공고나 관련 사이트를 통해 확인하는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F174" t="inlineStr">
+        <is>
+          <t>아니요, 정시모집 지원자는 수능에 응시하지 않으면 지원할 수 없습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 고등학교 졸업 후 10년이 지나도 정시 지원이 가능하다는 원문과 상반된 내용을 포함하고 있습니다. "정시 지원은 가능하지 않을 수 있습니다"라는 문장은 원문과 모순됩니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원문과 일관성이 부족합니다. 원문은 정시 지원이 가능하다고 명확히 언급하고 있지만, 생성된 응답은 정시 지원이 불가능할 수 있다고 주장하고 있어 서로 상충하는 정보를 제공합니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 주제에서 벗어난 정보(예: 대학 재입학, 대학원 프로그램 등)를 포함하고 있어 원문에 대한 직접적인 답변으로는 적절하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 문장은 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 주제를 다루고 있지만, 논리적인 흐름이 다소 부족합니다. 원문과의 연결이 약해 보이며, 주제가 분산되어 있습니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원문에서 제공하는 사실과 상반되는 정보를 포함하고 있어 정확성이 낮습니다. 원문은 정시 지원이 가능하다고 명시하고 있지만, 생성된 응답은 이를 부정하는 내용을 담고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원문과의 관계가 약해 다차원적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 원문과 관련된 주제를 다루고 있지만, 의미적으로 원문과 일치하지 않는 부분이 있어 적절성에서 다소 부족합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장 구조를 가지고 있지만, 내용의 일관성이 부족하여 일부 독자에게 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>0.8419704627701153</v>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>고등학교 졸업한지 10년이 지났는데 정시 지원 가능한가요?</t>
+        </is>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>29페이지의 '인터넷 발급서류 안내'를 참조하시면, 해당 서류는 2024년 1월 1일 이후에 발급된 서류에 한하며, 따라서 고등학교 졸업한지 10년이 지났을 때 정시 지원은 가능하지 않을 수 있습니다. 그러나 이와 달리 특정 전형의 경우, 예를 들어 '농어촌학생전형' 등에는 특별한 지원자격이 설정되어 있을 수 있으므로, 해당 전형에 대한 자세한 내용을 확인하시는 것이 중요합니다.
+또한, 고등학교 졸업 후 10년이 지난 후에도 정시 지원이 불가능하다면, 대학 재입학 등의 방법을 통해 학업을 이어갈 수 있습니다. 이러한 경우는 각 대학의 정책에 따라 다르므로, 해당 대학의 입학공고나 공식 웹사이트를 참조하시는 것이 좋습니다.
+마지막으로, 고등학교 졸업 후 10년이 지난 후에도 학문을 계속 이어가려면, 대학원 등에서 제공하는 다양한 프로그램이나 연수 등을 통해 학습할 수 있습니다. 이러한 방법들도 고려해 보시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F175" t="inlineStr">
+        <is>
+          <t>네, 고등학교 졸업한지 10년이 지났더라도 정시 지원이 가능합니다. "고교유형별 지원자격" 표에 따르면, 일반고, 자율고, 특수목적고, 특성화고, 영재학교, 기타 학교, 검정고시, 외국고 출신자 모두 정시 지원이 가능합니다. 따라서 고등학교 졸업 시기와 상관없이 지원할 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 동의대학교의 2024학년도 정시 일정에 대한 구체적인 정보를 제공하지 않고, 수험생 유의사항 및 등록 포기와 같은 다른 주제를 다루고 있습니다. 원본 텍스트의 주요 내용과는 관련이 적어 사실성이 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 서로 다른 주제를 다루고 있어 일관성이 부족합니다. 원본 텍스트의 일정이나 절차와는 관련이 없는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주요 주제인 정시 일정과 관련이 적고, 수험생 유의사항 및 등록 포기와 같은 다른 주제를 다루고 있어 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 일관성이나 관련성이 떨어지기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 각 항목이 나열되어 있지만, 원본 텍스트와의 연결이 부족하여 전체적으로 일관된 흐름이 부족합니다. 주제가 다르기 때문에 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보나 관련 없는 내용을 포함하고 있습니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 여러 차원에서 낮은 점수를 받았으며, 전반적으로 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 맞지 않으며, 주제가 다르기 때문에 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기는 쉽지만, 내용의 관련성이 떨어져서 전체적인 이해가 어렵습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>0.8398078370293534</v>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>1. **수험생 유의사항 발표 및 수능 성적 확인**: 이 단계에서는 지원자들이 정시 모집요강과 본교 홈페이지에서 게시되는 수험생 유의사항을 반드시 숙지해야 합니다. 또한, 수능 성적은 온라인으로 제공되며, 지원자는 이를 확인해야 합니다.
+2. **등록(입학) 포기 및 등록금 환불**: 이 단계에서는 등록 포기 신청기간이 설정되어 있습니다. 2024년 2월 14일부터 2월 20일까지의 기간 동안 온라인을 통해 등록 포기를 신청할 수 있습니다.
+3. **합격자 발표 및 등록금 납부**: 최초 합격자부터 2차 충원 합격자 발표는 홈페이지를 통해 실시됩니다. 합격 여부를 확인해야 하며, 합격자가 되었다면 지정된 기간 내에 등록금을 납부해야 합니다.
+4. **기타 유의사항**: 이 단계에서는 지원자의 학력이 대학 수학능력에 현저히 미달되는 경우 입학을 허가하지 않을 수 있으며, 위조 또는 변조 등의 부정행위를 한 경우에는 입학허가를 취소할 수 있습니다. 또한, 2024년 2월 고교 졸업예정자가 당해 연도에 졸업하지 못하는 경우 합격이 취소됩니다.
+5. **등록(입학) 포기 및 등록금 환불**: 이 단계에서는 등록 포기 신청기간이 설정되어 있습니다. 2024년 2월 14일부터 2월 20일까지의 기간 동안 온라인을 통해 등록 포기를 신청할 수 있습니다.
+6. **전형료**: 정시 모집에 참여하는 경우, &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 등에 따라 전형료가 달라집니다. 디자인조형학과, 체육학과, 레저스포츠학과, 태권도학과는 실기/실적(일반학생전형)에 참여하는 경우 68,000원을 내야 합니다.
+이렇게 동의대학교 정시 모집은 수험생 유의사항 발표부터 합격자 발표까지 다양한 단계를 거쳐 진행됩니다.</t>
+        </is>
+      </c>
+      <c r="F176" t="inlineStr">
+        <is>
+          <t>동의대학교의 2024학년도 정시 일정은 다음과 같습니다
+1. 모집인원 확정 공고
+   - 일정: 2024년 1월 2일(화)
+   - 비고: 입학안내 홈페이지 공고
+2. 원서접수(인터넷)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 6일(토) 마감일 18시까지
+   - 비고: http://ipsi.deu.ac.kr 또는 http://www.uwayapply.com
+3. 서류 제출 (제출서류가 있는 경우)
+   - 일정: 2024년 1월 3일(수) ~ 2024년 1월 12일(금) 마감일 17시까지 도착
+   - 비고: 서류 제출대상 (Ⅳ. 전형별 세부 안내 참조)
+   - 제출방법: 접수사이트에서 우편발송용 표지를 출력하여 부착 후 제출 또는 우편발송
+4. 실기고사
+   - &lt;가&gt;군 실기고사 레저스포츠학과 태권도학과
+     - 일정: 2024년 1월 16일(화)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+   - &lt;나&gt;군 실기고사 디자인조형학과 (시각디자인, 산업디자인, 공예디자인) 체육학과
+     - 일정: 2024년 1월 17일(수)
+     - 비고: 대기실 및 입실시간 안내 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회
+5. 합격자 발표 및 등록금 납부
+   - 최초 합격자 발표
+     - 일정: 2024년 2월 2일(금) 14:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 최초 합격자 등록
+     - 일정: 2024년 2월 7일(수) ~ 2월 13일(화) (은행마감시간 내)
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 발표
+     - 일정: 2024년 2월 14일(수) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 1차 (인터넷) 등록
+     - 일정: 2024년 2월 14일(수) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 발표
+     - 일정: 2024년 2월 15일(목) 09:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 2차 (인터넷) 등록
+     - 일정: 2024년 2월 15일(목) 09:00 ~ 16:00
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 발표
+     - 일정: 2024년 2월 15일(목) 19:00 ~ 2024년 2월 20일(화) 18시까지
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+   - 충원 합격자 3차 이후 (개별 전화 통보) 등록
+     - 일정: 개별 전화 통보 시 안내
+     - 비고: 홈페이지에서 개별 조회, 고지서 교부: 홈페이지에서 출력 또는 입학관리팀에서 수령, 등록장소: 학교 지정은행(등록금 고지서에 기재)
+추가 유의사항:
+- 최초합격자 및 1차, 2차 충원합격자 발표는 홈페이지를 통해 실시하며, 모든 지원자는 전형일정에 명시된 합격자 발표일에 합격 여부를 홈페이지를 통해 확인해야 합니다. 별도 개별 연락을 실시하지 않으며, 합격 여부 미확인으로 인해 등록하지 못했다 하더라도 등록(입학) 포기자로 간주합니다.
+- 최초 및 충원합격자는 전형일정에 명시된 등록 일정을 참고하여 지정 기일 내에 등록금을 납부해야 하며, 지정 기일 내에 등록금을 납부하지 않는 경우 입학을 포기하는 것으로 간주합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 크게 다릅니다. 원본 텍스트의 일정과 세부 사항이 잘못 기재되어 있으며, 특히 원서 접수 날짜와 합격자 발표 날짜가 전혀 일치하지 않습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 일관성이 없습니다. 원본의 모든 주요 일정이 잘못 기재되어 있어 서로 충돌하는 정보가 포함되어 있습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교 정시 모집에 대한 정보를 제공하고 있지만, 원본 텍스트의 주요 내용과는 관련이 적습니다. 원본의 세부 사항을 반영하지 않기 때문에 관련성이 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성과 관련성 부족으로 인해 전체적인 품질이 저하됩니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 구조적으로 일관성이 있지만, 원본 텍스트와의 불일치로 인해 전체적인 논리적 흐름이 약간 손상되었습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보가 포함되어 있습니다. 따라서 정확성 점수는 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 생성된 응답은 사실성, 일관성, 관련성, 정확성 등 모든 차원에서 매우 낮은 점수를 받습니다. 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 동의대학교 정시 모집에 대한 정보를 제공하지만, 원본의 의미와 맥락을 잘못 전달하고 있습니다. 따라서 의미적으로 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 명확하고 이해하기 쉬운 문장으로 구성되어 있습니다. 그러나 내용의 부정확성으로 인해 전체적인 이해도가 떨어질 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.9017082622846335</v>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정에 대해 설명해주세요.</t>
+        </is>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시모집의 일정은 다음과 같습니다:
+1. **수험생 신청 접수** : 2023년 12월 5일(월)부터 2023년 12월 29일(화)까지 진행됩니다.
+2. **수능성적 확인 및 제출서류 제출** : 수능 성적이 발표된 후에 해당하는 기간 동안 진행됩니다. 
+3. **전형 결과 발표**:
+   - 최초합격자 발표: 2024년 1월 9일(화)부터 시작
+   - 1차 충원 합격자 발표: 2024년 1월 16일(화)
+   - 2차 충원 합격자 발표: 2024년 1월 30일(화)
+   - 3차 충원 합격자 발표: 2024년 2월 7일(화)
+4. **등록 및 등록금 납부** : 최초합격자부터 2차 충원 합격자 발표까지는 홈페이지를 통해 실시하며, 모든 지원자는 전형 일정에 명시된 합격자 발표일에 합격 여부를 반드시 조회해야 합니다. 합격자(최초 및 충원)는 우리대학 입학안내 홈페이지 합격자 조회를 통해 지정된 등록기간에 등록금을 납부하여야 하며, 지정 기일 내에 등록금을 납부하지 않은 경우 우리대학 입학을 포기하는 것으로 간주됩니다.
+5. **등록 포기 및 등록금 환불** : 2024년 2월 14일(수) ~ 2024년 2월 20일(화)까지 가능하며, 등록자가 충원기간 중 타 대학에 충원합격 통보를 받고 등록할 경우에는 타 대학의 합격 통보를 받은 즉시 우리대학에 등록 포기 의사를 전달하여야 합니다.
+이 외에도 지원자 유의사항, 개인정보 제공 동의 등 다양한 사항들이 있습니다. 이들 내용을 반드시 숙지하고 진행해야 하며, 모든 절차가 올바르게 이루어져야 합격 및 입학에 성공할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F177" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 일정은 다음과 같습니다:
+1. 모집인원 확정 공고: 2024년 1월 2일(화)에 입학안내 홈페이지에 공고됩니다.
+2. 원서접수(인터넷): 2024년 1월 3일(수)부터 2024년 1월 6일(토) 18시까지 진행됩니다. 접수는 [입학안내 홈페이지](http://ipsi.deu.ac.kr) 또는 [유웨이 어플라이](http://www.uwayapply.com)에서 가능합니다.
+3. 서류 제출 (제출서류가 있는 경우): 2024년 1월 3일(수)부터 2024년 1월 12일(금) 17시까지 도착해야 합니다. 서류 제출 대상자는 접수 사이트에서 우편발송용 표지를 출력하여 부착 후 제출하거나 우편으로 발송해야 합니다.
+4. 실기고사 일정:
+   - &lt;가&gt;군 실기고사: 레저스포츠학과, 태권도학과는 2024년 1월 16일(화)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+   - &lt;나&gt;군 실기고사: 디자인조형학과(시각디자인, 산업디자인, 공예디자인), 체육학과는 2024년 1월 17일(수)에 실시됩니다. 대기실 및 입실시간 안내는 2024년 1월 12일(금) 14:00 이후 입학안내 홈페이지에서 조회할 수 있습니다.
+5. 합격자 발표 및 등록금 납부:
+   - 최초 합격자 발표: &lt;가&gt;군, &lt;나&gt;군, &lt;다&gt;군 모두 2024년 2월 2일(금) 14:00에 발표됩니다. 발표는 홈페이지에서 개별 조회할 수 있으며, 고지서는 홈페이지에서 출력하거나 입학관리팀에서 수령할 수 있습니다. 등록장소는 학교 지정은행입니다.
+   - 최초 합격자 등록: 2024년 2월 7일(수)부터 2월 13일(화)까지 은행 마감시간 내에 등록해야 합니다.
+   - 충원 합격자 발표 및 등록:
+     - 1차 발표: 2024년 2월 14일(수) 09:00, 등록은 같은 날 09:00~16:00
+     - 2차 발표: 2024년 2월 15일(목) 09:00, 등록은 같은 날 09:00~16:00
+     - 3차 이후 발표: 2024년 2월 15일(목) 19:00부터 2024년 2월 20일(화) 18:00까지 개별 전화 통보, 등록은 개별 전화 통보 시 안내됩니다.
+모든 지원자는 전형일정에 명시된 합격자 발표일에 홈페이지를 통해 합격 여부를 확인해야 하며, 지정 기일 내에 등록금을 납부하지 않으면 입학을 포기하는 것으로 간주됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1  
+   - 설명: 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있지만, 원문에서는 수능 미응시자는 지원이 불가능하다고 명확히 언급하고 있습니다. 따라서 생성된 응답은 원문과 상충되는 잘못된 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1  
+   - 설명: 생성된 응답은 원문과 상충되는 정보를 제공하고 있습니다. 원문에서는 수능 미응시자가 지원할 수 없다고 명시하고 있는데, 생성된 응답은 수능 미응시자가 지원할 수 있는 전형을 나열하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2  
+   - 설명: 생성된 응답은 원문과 관련된 내용을 다루고 있지만, 잘못된 정보를 바탕으로 하고 있어 주제와의 관련성이 낮습니다. 원문에서 수능 미응시자는 지원이 불가능하다는 점을 간과하고 있습니다.
+4. Fluency Score (1-5): 4  
+   - 설명: 생성된 응답은 문법적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칩니다.
+5. Coherence Score (1-5): 3  
+   - 설명: 생성된 응답은 전형을 나열하는 방식으로 구성되어 있지만, 원문과의 불일치로 인해 논리적인 흐름이 약해집니다. 원문과의 연결이 부족하여 일관된 메시지를 전달하지 못하고 있습니다.
+6. Accuracy Score (1-5): 1  
+   - 설명: 생성된 응답은 원문에서 명시된 사실과 정반대의 내용을 포함하고 있습니다. 수능 미응시자는 지원이 불가능하다는 사실을 무시하고 잘못된 정보를 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1  
+   - 설명: 생성된 응답은 사실성, 일관성, 정확성 등 여러 차원에서 매우 낮은 점수를 받습니다. 원문과의 불일치로 인해 전반적인 품질이 저하되었습니다.
+8. Semantic Appropriateness Score (1-5): 1  
+   - 설명: 생성된 응답은 원문의 의미와 맥락에 맞지 않으며, 잘못된 정보를 전달하고 있습니다. 따라서 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3  
+   - 설명: 생성된 응답은 문법적으로는 이해할 수 있지만, 잘못된 정보로 인해 혼란을 초래할 수 있습니다. 원문과의 불일치로 인해 이해하기 어려운 부분이 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>0.6197208711140295</v>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형 중 수능 미응시자도 지원 가능한 전형은 어떤 것이 있나요?</t>
+        </is>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>1. 학생부교과(농어촌학생전형)
+2. 학생부종합(평생학습자전형), 
+3. 학생부종합(성인학습자(정원내)전형),
+4. 학생부종합(성인학습자(정원외)전형),
+5. 학생부종합(재직자전형),
+6. 학생부종합(조기취업형계약학과전형)
+이러한 전형은 수능을 미응시하는 지원자가 지원할 수 있는 전형입니다.</t>
+        </is>
+      </c>
+      <c r="F178" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에서는 수능 성적자료의 온라인 제공에 동의하는 것으로 간주되며, 수능 성적이 요구됩니다. 따라서 수능 미응시자는 지원이 불가능합니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 전년도 전자공학과의 충원 합격이 2차까지 이루어졌다고 잘못 언급하고 있으며, 이는 원문과 상충합니다. 원문에서는 3차까지 이루어졌다고 명시하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원문과 상반된 정보를 제공하고 있어 일관성이 없습니다. 원문과의 정보가 서로 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 전자공학과의 충원 합격에 대한 언급이 있지만, 원문에서 제공하는 정보와는 다르게 2차 충원합격자에 대한 내용으로 변형되어 있어 관련성은 있지만 정확하지 않습니다.
+4. Fluency Score (1-5): 4
+   - 문장은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 내용의 정확성 문제로 인해 전체적인 평가에 영향을 미칠 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 문장 구조상으로는 일관성이 있지만, 원문과의 내용적 일관성이 부족하여 전체적인 일관성은 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 사실과 다르며, 원문에서 제공하는 정보와 크게 다릅니다. 2차 충원합격자라는 정보는 원문에 없는 내용입니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 여러 차원에서 평가했을 때, 생성된 응답은 사실성, 일관성, 정확성 등에서 모두 낮은 점수를 받았습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 의미적으로는 전자공학과의 충원 합격에 대한 언급이 있지만, 잘못된 정보로 인해 적절하지 않습니다.
+9. Understandability Score (1-5): 4
+   - 문장은 이해하기 쉬운 구조를 가지고 있지만, 잘못된 정보로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>0.7796524825865682</v>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 몇차까지 이루어졌습니까?</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>2차 충원합격자가 전자공학과의 충원 합격을 이루었습니다.</t>
+        </is>
+      </c>
+      <c r="F179" t="inlineStr">
+        <is>
+          <t>전년도에 전자공학과의 충원 합격은 3차까지 이루어졌습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 동의대학교 입학관리팀의 전화번호를 잘못 기재하였으며, 원본 텍스트와 일치하지 않는 정보를 포함하고 있습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 상충되는 정보를 제공하고 있어 일관성이 없습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 동의대학교 입학처의 전화번호에 대한 질문을 하고 있지만, 제공된 정보는 원본 텍스트와 관련이 없습니다.
+4. Fluency Score (1-5): 3
+   - 생성된 응답은 문법적으로는 괜찮지만, 내용이 원본과 관련이 없기 때문에 전체적인 흐름이 매끄럽지 않습니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와의 연결이 부족하여 논리적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 전화번호를 잘못 기재하고 있어 정확성이 매우 낮습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 전반적으로 모든 품질 차원에서 매우 낮은 점수를 받으며, 원본 텍스트와의 관계가 전혀 없습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 부합하지 않습니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있으나, 내용이 원본과 관련이 없기 때문에 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 2,
+    "Fluency Score": 3,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>0.6668150309559909</v>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>동의대학교 입학처 전화번호는 무엇입니까?</t>
+        </is>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>东義大學校 入學處 的 電話號碼 是什麼？
+根据提供的信息，東義大學的入學管理組的電話號碼是051-246-3789。所以答案是051-246-3789。</t>
+        </is>
+      </c>
+      <c r="F180" t="inlineStr">
+        <is>
+          <t>동의대학교 입학관리팀 연락처는 051-890-4379~89입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 사실을 잘 반영하고 있지만, "등록 의사가 없게 간주되어 됩니다"라는 문구에서 약간의 어색함이 있어 완전한 정확성을 떨어뜨립니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트와 대체로 일관성을 유지하고 있으나, "등록 포기자로 간주하므로"라는 부분이 원본의 의미를 약간 변형시켜 일관성 점수를 낮추었습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 내용을 잘 다루고 있으며, 질문에 대한 직접적인 답변을 제공합니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 유창하게 작성되었으나, "등록 의사가 없게 간주되어 됩니다"라는 표현이 다소 어색하여 점수를 낮추었습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으나, 일부 문장이 복잡하게 연결되어 있어 약간의 일관성이 떨어질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 일부 표현에서 정확성이 떨어지는 부분이 있어 점수를 낮추었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되었으나, 일부 표현의 어색함과 일관성 문제로 인해 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, 일부 표현에서 의미가 약간 변형되어 있어 점수를 낮추었습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 복잡하여 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>0.8888463177704998</v>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자에 대해 개별 전화 통보를 할 때 전화 통화가 되지 않으면 어떻게 처리되나요?</t>
+        </is>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락 두절(3회 통화)로 인해 충원합격 통보가 어려운 경우 충원합격이 되었으나 등록 의사가 없는 등록 포기자로 간주하므로, 이는 3차 이후 충원합격자에 대한 개별 전화 통보를 할 때 전화 통화가 되지 않으면 해당 학생은 등록 의사가 없게 간주되어 됩니다.</t>
+        </is>
+      </c>
+      <c r="F181" t="inlineStr">
+        <is>
+          <t>3차 이후 충원합격자 발표 과정에서 전화 연락이 두절되어(3회 통화 시도) 충원합격 통보가 어려운 경우, 해당 지원자는 등록 의사가 없는 것으로 간주되어 등록 포기자로 처리됩니다. 따라서 충원합격자 발표 기간(2024년 2월 15일(목)~2024년 2월 20일(화)) 동안 전화 연락을 받을 수 있도록 유의해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주요 서류 목록과 제출 기간, 제출 장소를 잘 반영하고 있습니다. 그러나 "주소변동사항이 포함된 서류를 발급받아 제출해야 합니다"라는 문구는 원본 텍스트에 명시된 내용과는 약간의 차이가 있습니다. 따라서 완벽하게 일치하지는 않지만, 전반적으로 정확한 정보를 제공합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, 서류 제출에 대한 정보가 잘 정리되어 있습니다. 그러나 "서류제출 여부는 홈페이지에서 확인 가능"이라는 부분은 원본 텍스트에 명시되어 있지 않으므로 약간의 불일치가 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 필요한 서류와 제출 방법에 대한 정보를 명확하게 제공합니다. 모든 주요 포인트를 잘 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 읽힙니다. 문장 구조와 표현이 매끄럽고 이해하기 쉽습니다.
+5. Coherence Score (1-5): 5
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 항목이 명확하게 구분되어 있습니다. 정보의 흐름이 자연스럽고 일관성이 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, 일부 세부 사항에서 약간의 차이가 있습니다. 예를 들어, 서류 제출에 대한 특정 조건이 누락되었습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받았습니다. 그러나 일부 세부 사항에서 약간의 차이가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬우며, 정보가 잘 정리되어 있어 독자가 쉽게 따라갈 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>0.9506109766630021</v>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야할 서류를 알려줘</t>
+        </is>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>6년 과정과 12년 과정에 따라 농어촌학생전형을 지원하는 경우에 제출해야 하는 서류는 다음과 같습니다:
+**6년 과정**
+- 지원자 본인의 가족관계증명서 1부
+- 지원자 본인, 부모의 주민등록초본 각 1부(총 3부)
+- 중학교 학교생활기록부 1부 (교육기관, 공공기관, 무인민원발급기, 인터넷 정부24에서 발급 가능)
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+**12년 과정**
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부
+- 중학교 학교생활기록부 1부
+- 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+이외에도 주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서 등이 필요하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다. 또한, 서류제출 여부는 홈페이지에서 확인 가능하며, 반드시 본인의 서류제출 여부를 확인하여야 하고 미제출 또는 미확인으로 인한 불이익은 전적으로 지원자 본인에게 있습니다.
+참고로, 제출기간은 2024년 1월 3일부터 1월 12일까지이며, 제출장소는 부산광역시 부산진구 엄광로 176에 있는 동의대학교 입학관리팀입니다.</t>
+        </is>
+      </c>
+      <c r="F182" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 제출해야 할 서류는 다음과 같습니다
+6년 과정
+지원자 본인의 가족관계증명서 1부
+지원자 본인, 부, 모의 주민등록초본 각 1부 (총 3부)
+중학교 학교생활기록부 1부
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+부모가 사망한 경우: 사망한 부 또는 모의 기본증명서 1부 (기본증명서에 ‘사망’이 명시되어 있지 않은 경우 제적등본 1부 추가 제출)
+부모가 이혼한 경우: 친권이 있는 부 또는 모의 혼인관계증명서(상세) 1부, 본인의 기본증명서(상세) 1부 추가 제출 12년 과정
+지원자 본인의 주민등록초본 1부
+초등학교 학교생활기록부 1부
+중학교 학교생활기록부 1부
+고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+중·고등학교 재학 시 부, 모 모두 농어촌(읍·면)지역에서 거주한 자는 ‘6년과정' 서류 제출 가능
+교육기관(초·중·고교), 공공기관, 무인민원발급기, 인터넷 정부24에서 발급
+추가 정보
+제출기간: 2024. 01. 03.(수) ~ 01. 12.(금) 17:00까지 도착분에 한함
+제출장소: (우: 47340) 부산광역시 부산진구 엄광로 176, 동의대학교 입학관리팀
+주의사항: 제출서류 미제출자는 불합격 처리됩니다. 주민등록초본, 가족관계증명서, 혼인관계증명서, 기본증명서는 주민등록번호 전체가 기재되어 있어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출하여야 합니다. 상기 서류는 2024년 1월 1일 이후에 발급된 서류에 한해 제출해야 합니다. 최종등록자 중 고교 졸업예정자는 졸업 이후 지원자격 증빙서류를 2024. 02. 16.(금)까지 추가 제출하여야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 필요한 서류 목록과 그 목적에 대한 설명이 포함되어 있습니다.
+2. Consistency Score (1-5): 5
+   - 생성된 응답은 원본 텍스트와 일관되며, 서류 목록과 그 설명이 서로 충돌하지 않고 잘 연결되어 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주요 주제와 관련이 있으며, 필요한 서류에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고, 자연스럽게 읽히며, 문장 구조가 잘 구성되어 있습니다.
+5. Coherence Score (1-5): 5
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 서류의 목록과 설명이 명확하게 연결되어 있습니다.
+6. Accuracy Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 모든 사실을 정확하게 반영하고 있으며, 정보의 정확성이 높습니다.
+7. Multidimensional Quality Score (1-5): 5
+   - 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 모든 차원에서 우수한 성과를 보이고 있습니다.
+8. Semantic Appropriateness Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 완전히 부합하며, 적절한 의미를 전달하고 있습니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 매우 명확하고 이해하기 쉬우며, 정보가 잘 전달되고 있습니다.
+{
+    "Factuality Score": 5,
+    "Consistency Score": 5,
+    "Relevance Score": 5,
+    "Fluency Score": 5,
+    "Coherence Score": 5,
+    "Accuracy Score": 5,
+    "Multidimensional Quality Score": 5,
+    "Semantic Appropriateness Score": 5,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>0.9581304658078669</v>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야할 서류는?</t>
+        </is>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>12년 과정의 농어촌학생전형을 지원하는 경우에 제출해야 할 서류는 다음과 같습니다:
+- 지원자 본인의 주민등록초본 1부
+- 초등학교 학교생활기록부 1부 
+- 중학교 학교생활기록부 1부  
+- 고등학교 학교생활기록부 1부(학생부 온라인 제공 비대상교 및 미동의자)
+이 서류들은 지원자의 교육과정을 증명하고, 거주지와 재학지를 농어촌 지역에 해당하는지 확인하기 위한 것이므로 필수적으로 제출해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F183" t="inlineStr">
+        <is>
+          <t>농어촌학생전형으로 지원 시 12년 과정이 제출해야 할 서류는 다음과 같습니다
+1. 지원자 본인의 주민등록초본 1부
+2. 초등학교 학교생활기록부 1부
+3. 중학교 학교생활기록부 1부
+4. 고등학교 학교생활기록부 1부 (학생부 온라인 제공 비대상교 및 미동의자)
+추가로, 최종등록자라면 다음 서류도 제출해야 합니다
+1. 고교 졸업증명서
+2. 지원자 본인의 주민등록초본 1부 주민등록초본은 고교 졸업 이후 발급된 것이어야 하며, 주소변동사항이 포함된 서류를 발급받아 제출해야 합니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2  
+   - 생성된 응답은 기회균등 전형이 존재하지 않는다는 사실을 명확히 반영하지 않고 있으며, 저소득 기회균등 전형에 대한 불확실한 언급이 포함되어 있습니다. 이는 원문과의 일치성이 떨어집니다.
+2. Consistency Score (1-5): 2  
+   - 생성된 응답은 원문과 일치하지 않는 정보(저소득 기회균등 전형의 가능성)에 대해 언급하고 있어 일관성이 부족합니다.
+3. Relevance Score (1-5): 4  
+   - 생성된 응답은 질문에 대한 관련 정보를 제공하고 있으나, 원문에서 명확히 언급된 기회균등 전형의 부재에 대한 직접적인 답변이 부족합니다.
+4. Fluency Score (1-5): 4  
+   - 문장은 전반적으로 잘 구성되어 있으며, 읽기에도 무리가 없습니다. 다만, 일부 표현이 다소 복잡할 수 있습니다.
+5. Coherence Score (1-5): 3  
+   - 응답의 논리적 흐름은 있지만, 원문과의 연결이 약해 전체적인 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2  
+   - 기회균등 전형이 존재하지 않는다는 원문의 사실을 왜곡하고 있으며, 저소득 기회균등 전형에 대한 불확실한 정보가 포함되어 있습니다.
+7. Multidimensional Quality Score (1-5): 2  
+   - 여러 차원에서 원문과의 일치성이 떨어지며, 전반적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3  
+   - 의미적으로는 적절한 부분이 있으나, 원문과의 일치성이 부족하여 전체적인 맥락에서 벗어난 부분이 있습니다.
+9. Understandability Score (1-5): 4  
+   - 전반적으로 이해하기 쉬운 문장 구조를 가지고 있으나, 내용의 불확실성으로 인해 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>0.6947021536814657</v>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>정시모집에서 저소득 기회균등 전형은 선발하지 않나요?</t>
+        </is>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 제시된 Context 내에는 '정시모집에서 저소득 기회균등 전형은 선발하지 않나요'에 대한 직접적인 답변이 없습니다. 그러나, 지원자 유의사항 중 일부는 학력이 대학 수학능력에 현저히 미달되는 자는 입학을 허가하지 않을 수도 있다는 점을 언급하고 있습니다. 이는 저소득 기회균등 전형과 관련이 있을 수 있지만, 이를 확실하게 판단하기 위해서는 더 많은 정보나 명확한 규정이 필요합니다.
+따라서, 정시모집에서 저소득 기회균등 전형에 대한 선발 여부를 확인하려면 해당 대학의 입학관리위원회가 정하는 바나 공식 웹사이트 등을 통해 자세히 알아보는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F184" t="inlineStr">
+        <is>
+          <t>동의대학교 정시 모집 전형에는 기회균등 전형이라는 전형이 존재하지 않습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 절사되지 않는다고 주장하고 있지만, 이는 원본 텍스트에서 명시된 정보와 상충합니다. 원본 텍스트는 절사 여부에 대한 구체적인 정보가 없다고 명시하고 있으며, 따라서 생성된 응답은 사실과 일치하지 않습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 원본 텍스트에서 제공된 정보와 모순되는 주장을 하고 있습니다. 원본 텍스트는 절사 여부에 대한 정보가 없다고 하였으나, 생성된 응답은 절사하지 않는다고 단정짓고 있습니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하고 있으며, 수능 최저등급과 관련된 내용을 다루고 있습니다. 그러나 원본 텍스트의 핵심 정보와는 다소 차이가 있어 완전한 관련성을 보이지는 않습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되었습니다. 다만, 반복적인 표현이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 문장으로 구성되어 있지만, 정보의 흐름이 다소 일관성이 부족합니다. 특히, 원본 텍스트의 정보와 모순되는 부분이 있어 논리적 일관성이 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 잘못된 정보를 포함하고 있습니다. 원본 텍스트는 절사 여부에 대한 구체적인 정보를 제공하지 않는데, 생성된 응답은 이를 잘못 해석하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 전반적으로 원본 텍스트와의 관계에서 부정확한 정보를 제공하고 있습니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과는 다소 어긋나는 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 문장으로 구성되어 있으나, 정보의 정확성과 일관성이 부족하여 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>0.8069849799911889</v>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>수능 최저등급에서 사탐 2 과목 평균산출이라고 나와있는데 만약 2.5등급이 나오면 절사하나요? 아님 그대로 2.5등급으로 보는건가요?</t>
+        </is>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>2.5 등급을 수능 최저등급에서 사탐(학력성적) 과목 평균산출에 사용할 때, 대부분의 경우 절사하지 않습니다. 즉, 그대로 2.5 등급으로 계산됩니다.
+수능 최저등급은 대개 학력을 절사하는 기준이 아니기 때문에 사탐 과목 평균산출에 사용될 때 절사하지 않습니다. 
+따라서 수능 최저등급에서 사탐 과목 평균산출이라고 나와있는데 만약 2.5 등급이 나오면 절사하나요? 아님 그대로 2.5 등급으로 보는건가요?
+답: 수능 최저등급에서 사탐(학력성적) 과목 평균산출에 사용할 때, 대부분의 경우 절사하지 않습니다. 즉, 그대로 2.5 등급으로 계산됩니다.
+수능 최저등급은 대개 학력을 절사하는 기준이 아니기 때문에 사탐(학력성적) 과목 평균산출에 사용될 때 절사하지 않습니다.</t>
+        </is>
+      </c>
+      <c r="F185" t="inlineStr">
+        <is>
+          <t>제공된 데이터에는 수능 최저등급에 대한 구체적인 절사 여부에 대한 정보가 포함되어 있지 않습니다. 따라서, 수능 최저등급에서 사탐 2 과목 평균산출 시 2.5등급이 나올 경우 절사 여부에 대한 정확한 정보를 확인하려면 입학안내 홈페이지(http://ipsi.deu.ac.kr)에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 정시 충원 합격자 발표가 3차까지 이루어진다는 사실을 정확하게 반영하고 있지만, "최초합격자부터 3차 충원합격자까지 이루어진다"는 표현은 다소 모호하게 들릴 수 있습니다. 그러나 전반적으로 사실에 부합합니다.
+2. Consistency Score (1-5): 4
+   - 생성된 응답은 원본 텍스트와 일관되게 3차까지의 발표가 이루어진다고 언급하고 있습니다. 다만, "최초합격자부터"라는 표현이 원본 텍스트의 내용과 완전히 일치하지는 않지만, 큰 모순은 없습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 정시 충원 합격자 발표에 대한 정보를 직접적으로 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 문장 구조를 가지고 있습니다. 다만, "최초합격자부터"라는 표현이 약간 어색하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 발표 과정에 대한 설명이 일관되게 이어집니다. 그러나 "최초합격자부터"라는 부분이 다소 혼란을 줄 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있지만, "최초합격자부터"라는 표현이 정확한 의미 전달에 있어 약간의 오해를 불러일으킬 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 유창성, 일관성, 정확성 등 여러 차원에서 좋은 점수를 받고 있습니다. 다만, 일부 표현에서 약간의 개선이 필요합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하지만, "최초합격자부터"라는 표현이 다소 혼란을 줄 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 특정 표현이 약간의 혼란을 줄 수 있어 완벽한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>0.8403160841318207</v>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 몇차까지 있나요?</t>
+        </is>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>2024년의 정시 모집에서 충원 합격자의 발표는 최초합격자부터 3차 충원합격자까지 이루어지며, 이 과정을 통해 모든 합격자를 선발합니다. 따라서 정시 충원 합격자 발표에는 최소 3차까지 있습니다.</t>
+        </is>
+      </c>
+      <c r="F186" t="inlineStr">
+        <is>
+          <t>정시 충원 합격자 발표는 3차까지 있으며, 3차 이후에는 개별 전화 통보로 발표됩니다. - 1차 발표: 2024. 02. 14.(수) 09:00 - 2차 발표: 2024. 02. 15.(목) 09:00 - 3차 이후 발표: 2024. 02. 15.(목) 19:00 ~ 2024. 02. 20.(화) 18시까지 3차 이후 발표는 개별 전화 통보로 진행됩니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 e-비즈니스학과의 합격 가능성에 대한 여러 요소를 언급하고 있으며, 원본 텍스트의 정보와 대체로 일치합니다. 그러나 구체적인 점수와 평균에 대한 언급이 부족하여 약간의 정보 누락이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 반복적으로 언급하고 있지만, 정보가 중복되어 나타나고 있어 일관성이 떨어집니다. 또한, 원본 텍스트의 구체적인 수치와 비교하는 내용이 부족합니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 합격 가능성에 대한 질문에 적절하게 답변하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 그러나 중복된 내용이 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 논리적인 흐름이 다소 부족하여 일관된 주제를 유지하지 못하고 있습니다. 중복된 내용이 흐름을 방해합니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 대체로 정확하게 반영하고 있으나, 구체적인 수치와 비교가 부족하여 완전한 정확성을 보장하지는 않습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 차원에서 양호한 성과를 보이고 있으나, 일관성과 흐름에서 약간의 문제가 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 중복된 내용으로 인해 의미 전달이 다소 혼란스러울 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 중복된 내용이 있어 명확성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.7480623848354</v>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>e비즈니스학과 정시 전형 성적 4.6이면 추가 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>4.6이라는 점수를 가지고 e비즈니스학과의 정시 전형에 응시하는 경우, 합격 가능성은 여러 요소에 따라 달라집니다.
+1. **학교의 입학 경쟁률**: 각 대학 및 학과마다 입학 경쟁률이 다르므로, 4.6이라는 점수로 e비즈니스학과를 응시하는 경우, 합격 가능성은 여러 요소에 따라 달라집니다.
+2. **학교의 입학 경쟁률**: 각 대학 및 학과마다 입학 경쟁률이 다르므로, 4.6이라는 점수로 e비즈니스학과를 응시하는 경우, 합격 가능성은 여러 요소에 따라 달라집니다.
+3. **학교의 정시 전형 성적**: 각 대학 및 학과마다 입학 경쟁률이 다르므로, 4.6이라는 점수로 e비즈니스학과의 정시 전형에 응시하는 경우, 합격 가능성은 여러 요소에 따라 달라집니다.
+따라서, 4.6이라는 점수를 가지고 e비즈니스학과의 정시 전형에 응시하는 경우, 합격 가능성은 여러 요소에 따라 달라집니다. 이점들을 고려하여 대학 및 학과의 입학 경쟁률을 확인하고, 해당 점수로 예시를 제공하면 더 명확한 답변이 될 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F187" t="inlineStr">
+        <is>
+          <t>제공된 컨텍스트에 따라 e-비즈니스학과(e-비즈니스학과)의 최초 합격자 및 최종 등록생의 평균 점수는 다음과 같습니다:
+- 최초합격자:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 환산 점수 합: 317.20 (평균)
+  - 영어 등급 3.20 (평균)
+  - 수능 4개 영역 등급 4.17 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 438.60 (평균)
+- 최종 등록 학생:
+  - 국어 + 수학 + 탐구(2개) (가산점 포함) 표준 변환 점수 합: 308.58 (평균)
+  - 영어 등급 3.66 (평균)
+  - 수능 4개 영역 등급 4.53 (평균)
+  - 수능 4개 영역 (가산점 포함) 표준 변환 점수 합: 426.25 (평균)
+수능 4개 영역 등급이 4.6점이라면 최초 합격자(4.17점)와 최종 등록자(4.53점) 모두 평균을 약간 상회하는 수준입니다. 반드시 합격이 보장되는 것은 아니지만 다른 영역(국어, 수학, 탐구, 영어) 성적이 경쟁력이 있다면 충원 합격(추가모집)을 통해 합격할 가능성이 있습니다. 
+보다 정확한 평가를 위해 총 표준 변환 점수 합과 제공된 평균을 비교하는 것이 좋습니다. 총점이 평균에 근접하거나 그 이상이면 충원 합격을 통해 합격할 가능성이 더 높을 수 있습니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 1
+   - 생성된 응답은 e비즈니스학과에 대한 정보가 아닌 경기지도학과에 대한 정보를 제공하고 있으며, 원본 텍스트의 내용과 관련이 없습니다. 따라서 사실성이 매우 낮습니다.
+2. Consistency Score (1-5): 1
+   - 생성된 응답은 원본 텍스트와 전혀 일치하지 않으며, 서로 다른 학과에 대한 정보를 제공하고 있습니다. 이로 인해 일관성이 없습니다.
+3. Relevance Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 없으며, 질문에 대한 적절한 답변을 제공하지 않습니다. 따라서 관련성이 매우 낮습니다.
+4. Fluency Score (1-5): 4
+   - 문법적으로는 비교적 잘 작성되었으나, 내용이 원본 텍스트와 관련이 없기 때문에 전체적인 맥락에서의 유창성은 떨어집니다.
+5. Coherence Score (1-5): 2
+   - 생성된 응답은 내부적으로는 일관된 구조를 가지고 있지만, 원본 텍스트와의 연결이 없기 때문에 전체적인 일관성은 낮습니다.
+6. Accuracy Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 사실과 전혀 일치하지 않으며, 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 1
+   - 모든 품질 차원에서 매우 낮은 점수를 받았으며, 전반적으로 품질이 좋지 않습니다.
+8. Semantic Appropriateness Score (1-5): 1
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 전혀 맞지 않으며, 의미적으로 부적절합니다.
+9. Understandability Score (1-5): 3
+   - 문장은 이해할 수 있지만, 원본 텍스트와의 관련성이 없기 때문에 전체적인 이해도는 떨어집니다.
+{
+    "Factuality Score": 1,
+    "Consistency Score": 1,
+    "Relevance Score": 1,
+    "Fluency Score": 4,
+    "Coherence Score": 2,
+    "Accuracy Score": 1,
+    "Multidimensional Quality Score": 1,
+    "Semantic Appropriateness Score": 1,
+    "Understandability Score": 3
+}</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.5662854697722554</v>
+      </c>
+      <c r="D188" t="inlineStr">
+        <is>
+          <t>동의대학교 e비즈니스학과 정시 등급 5.3이면 최초합 가능성 있을까?</t>
+        </is>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>2024년 나군 실기/실적(경기실적우수자전형) 전형요소 반영비율 표에 따르면, 경기지도학과의 전형요소 반영 비율은 학생부교과가 18%, 출결이 12%, 서류(경기실적)가 70%입니다. 
+그러므로, 동점자 처리기준을 고려하면 등급 5.3의 지원자가 최초합격 가능성은 존재할 수 있습니다. 
+등급 5.3이면 최초합 가능성 있을까?에 대한 답변은 위에서 제공된 정보를 바탕으로 해야 합니다.
+그러므로, 동점자 처리기준을 고려하면 등급 5.3의 지원자가 최초합격 가능성은 존재할 수 있습니다. 
+등급 5.3이면 최초합 가능성 있을까?에 대한 답변은 위에서 제공된 정보를 바탕으로 해야 합니다.
+그러므로, 동점자 처리기준을 고려하면 등급 5.3의 지원자가 최초합격 가능성은 존재할 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F188" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, e비즈니스학과의 영어 등급 평균은 3.66이고, 수능 4개 영역 등급 평균은 4.53입니다. 따라서, 현재 정시 등급이 5.3이라면 e비즈니스학과에 합격하기 어려울 수 있습니다. e비즈니스학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 e비즈니스학과의 예비 합격 가능성에 대한 구체적인 정보를 제공하지 않고, 나군 대학의 학생부종합전형에 대한 일반적인 설명을 하고 있습니다. 이는 원본 텍스트의 핵심 정보를 무시하고 다른 주제로 전환한 것으로, 사실성 점수가 낮습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 내용과 일치하지 않으며, 예비 38번의 합격 가능성에 대한 질문에 대한 직접적인 답변을 제공하지 않습니다. 따라서 일관성 점수가 낮습니다.
+3. Relevance Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 적고, 질문에 대한 직접적인 답변을 제공하지 않기 때문에 관련성 점수가 낮습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 여러 요소를 나열하고 있지만, 원본 텍스트와의 연결이 부족하여 논리적인 흐름이 다소 떨어집니다. 따라서 일관성 점수는 중간 정도입니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실을 반영하지 않으며, 예비 38번의 합격 가능성에 대한 구체적인 정보를 제공하지 않기 때문에 정확성 점수가 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 관련성, 정확성에서 낮은 점수를 받았기 때문에 다차원 품질 점수도 낮습니다.
+8. Semantic Appropriateness Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 부합하지 않으며, 질문에 대한 적절한 답변을 제공하지 않기 때문에 의미 적합성 점수가 낮습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 문법적으로 잘 구성되어 있어 이해하기 쉬운 편이지만, 원본 텍스트와의 관련성이 떨어져 질문의 의도를 명확히 전달하지 못합니다. 따라서 이해 가능성 점수는 높지만, 전체적인 맥락에서는 낮은 점수를 받습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 2,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 2,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.5654568489821279</v>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>e비즈니스학전공 예비38번 이정도면 예비합격 가능할지 궁금합니다.</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>2024년 나군 대학의 학생부종합전형 점수를 정확히 판단하기 위해서는 여러 요소가 고려되어야 합니다.
+1. **학교별 평균점수와 최저합격선**: 이 정보는 각 학과에 따라 다르므로, 이정도면이 예비합격 가능하다고 단정짓기에는 부족합니다.
+2. **전형방식 및 점수구성**: 나군 대학의 전형 방식은 서류평가와 면접평가로 이루어져 있으며, 각 영역별로 등급과 배점이 정해져 있습니다. 이 정보를 바탕으로 합격선을 예측할 수 있습니다.
+3. **동점자 처리기준**: 동점자가 발생했을 때의 처리 방식도 합격 여부에 영향을 미칩니다.
+이정도면이라는 점수만 가지고는 정확한 판단이 어렵습니다. 이정도면의 점수가 나군 대학의 전형방식과 평균점수, 동점자 처리기준 등을 고려하여 예비합격 가능성을 판단하는 데 사용될 수 있습니다.
+그러나 가장 정확한 정보를 얻으시려면 해당 학교의 공식 사이트에서 최신 및 자세한 전형정보를 확인하시는 것이 좋습니다. 또한, 이정도면이 실제로 어떤 점수인지에 대한 정보가 필요합니다. 이점에 대해 명확히 알려주시면 더 정확한 답변을 드릴 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F189" t="inlineStr">
+        <is>
+          <t>e비즈니스학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 31번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 38번이라면 e비즈니스학과에 예비 합격할 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 평균 등급과 관련된 정보를 포함하고 있으며, GPA가 3.44인 경우의 입학 가능성에 대한 논의를 포함하고 있습니다. 그러나 "GPA가 낮다는 것은 반드시 정시로 입학하지 못한다는 의미는 아닙니다."라는 부분은 다소 모호하게 느껴질 수 있으며, GPA가 평균보다 낮은 경우의 입학 가능성에 대한 명확한 정보가 부족합니다.
+2. Consistency Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 내용과 일관되며, GPA와 입학 가능성에 대한 논의가 일관되게 이어집니다. 그러나 "GPA가 낮다고 해서 모든 기회를 포기하는 것은 아닙니다."라는 부분은 원본 텍스트의 맥락과 다소 다르게 해석될 수 있습니다.
+3. Relevance Score (1-5): 5
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, GPA와 간호학과의 입학 가능성에 대한 정보를 잘 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 그러나 일부 문장에서 다소 복잡한 구조가 있어 약간의 매끄러움이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 일부 문장은 더 명확하게 연결될 수 있는 여지가 있습니다.
+6. Accuracy Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 사실을 잘 반영하고 있으며, GPA와 관련된 정보도 정확합니다. 그러나 GPA가 낮다고 해서 반드시 입학이 불가능하다는 점에 대한 설명이 다소 모호하게 느껴질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 전반적으로 높은 점수를 받을 수 있습니다. 그러나 일부 부분에서 명확성이 부족할 수 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 부합하며, 적절한 의미를 전달하고 있습니다. 그러나 일부 표현이 다소 모호하게 느껴질 수 있습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장은 복잡하게 구성되어 있어 약간의 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 4,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>0.7629794133031922</v>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>간호학과 동의대식 정시 성적 3.44인데 마지막으로 문 닫고 들어 올 가능성도 없나요?</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>3.44라는 GPA를 가진 학생이 간호학과에 정시로 입학하는 경우는 상당히 낮을 수 있습니다. 간호학과의 경쟁률은 대학마다 다르지만, 일반적으로 이 분야는 매우 높습니다. 또한 GPA 외에도 여러 요소가 고려되므로, 학교의 평가 기준에 따라 입학 가능성이 달라질 수 있습니다.
+그러나 GPA만으로 판단하는 것은 무리입니다. 다른 요소들, 예를 들어 SAT/ACT 점수, 자서전, 추천서 등이 함께 고려됩니다. 또한, 일부 대학은 간호학과에 대한 전문적인 지식이나 경험을 가진 학생들에게 더 높은 입학 확률을 제공할 수 있습니다.
+따라서 GPA가 낮다는 것은 반드시 정시로 입학하지 못한다는 의미는 아닙니다. 그러나, GPA가 3.44라는 점 때문에 경쟁이 매우 치열한 간호학과에 대한 입학 가능성은 낮을 것으로 예상됩니다. 
+그러나 모든 것이 확실하게 결정되지 않은 상황입니다. 학교의 정시 선발 방식, GPA 외의 다른 요소들, 그리고 그 대학의 전체적인 경쟁률 등 여러 변수가 고려되어야 합니다. 따라서 가장 정확한 답변을 얻으려면 해당 대학의 입학 규정과 전략에 대해 자세히 알아보는 것이 중요합니다.
+또한, GPA가 낮다고 해서 모든 기회를 포기하는 것은 아닙니다. 다른 학과로 전공 변경하거나, 다른 대학이나 다른 프로그램을 찾아볼 수 있습니다. 또한, GPA를 높이는데 노력하면 다음 학년에 다시 지원할 수 있는 기회도 있습니다.
+결국, GPA가 낮다는 점만으로는 정시 입학의 가능성은 없다고 단정짓기는 어렵습니다. 대신, 그 상황을 바꾸기 위한 계획을 세우는 것이 중요합니다.</t>
+        </is>
+      </c>
+      <c r="F190" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.44이라면 간호학과에 합격하기 어려울 수 있습니다. 간호학과의 평균 등급보다 높은 성적을 가지고 있어야 합격 가능성이 높아집니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 2.52의 GPA가 평균보다 낮다는 점을 언급하고 있으며, 합격 가능성이 낮을 수 있다는 점도 반영하고 있습니다. 그러나 합격 기준이 3.0 이상이라는 구체적인 수치는 원본 텍스트에 명시되어 있지 않으므로, 약간의 부정확성이 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있지만, 합격 기준에 대한 구체적인 수치가 추가되어 있어 일관성이 떨어질 수 있습니다. 원본 텍스트는 합격 가능성에 대한 일반적인 언급만 하고 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, GPA와 합격 가능성에 대한 정보를 제공하고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉬운 구조를 가지고 있습니다. 다만, 약간의 어색한 표현이 있을 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 주제에 대한 흐름이 자연스럽습니다. 그러나 원본 텍스트와의 연결이 약간 부족할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 GPA와 합격 가능성에 대한 정보를 제공하지만, 합격 기준에 대한 구체적인 수치가 원본 텍스트에 명시되어 있지 않으므로 완전한 정확성은 아닙니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으며, 특히 관련성과 유창성에서 높은 점수를 받고 있습니다. 그러나 일관성과 정확성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 합격 기준에 대한 구체적인 수치가 추가되어 있어 약간의 차이가 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 명확하고 이해하기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 복잡할 수 있어 완전한 이해를 방해할 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.7927139419819659</v>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적 2.52 추가 합격으로도 합격 안되겠죠?</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>2.52의 GPA를 가지고 간호학과의 정시 합격을 시도하신다면, 합격 기준이 3.0 이상인 경우는 합격이 되지 않을 가능성이 높습니다. 그러나 합격 기준은 대학교와 전공에 따라 다르므로, 특정 학교나 전공의 경우를 정확히 판단하려면 해당 대학의 공식 합격 기준을 확인해야 합니다. 또한, GPA 외에도 면접 성적, 특기 등 다양한 요소가 합격 여부를 결정할 수 있으니 참고하시길 바랍니다.</t>
+        </is>
+      </c>
+      <c r="F191" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 보면, 평균 영어 등급은 2.34이고, 표준 편차는 0.69입니다. 따라서, 2.52 등급은 평균보다 약간 낮은 수준입니다. 추가 합격 여부는 지원자의 전체 성적, 경쟁률, 다른 지원자들의 성적 등에 따라 달라질 수 있습니다. 하지만, 평균보다 약간 낮은 성적이므로 합격 가능성이 낮을 수 있습니다. 정확한 합격 여부는 학교의 입학처에 문의하는 것이 좋습니다. 추가 정보를 원하시면 "https://ipsi.deu.ac.kr/main.do"를 방문해 보세요.</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 설명: 생성된 응답은 3.7이라는 점수가 여러 학과에서의 정시 합격 기준을 충족할 가능성이 높다고 언급하고 있지만, 원본 텍스트에서는 간호학과의 평균 등급이 3.37로, 3.7이 평균보다 낮지 않다고 명시하고 있습니다. 따라서, 이 부분에서 사실과 다르게 해석되고 있습니다.
+2. Consistency Score (1-5): 2
+   - 설명: 생성된 응답은 간호학과의 평균 등급보다 낮은 성적을 가지고 있다고 언급한 원본 텍스트와 모순되는 내용을 포함하고 있습니다. 3.7은 평균보다 높은 점수이므로, 일관성이 부족합니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 정시 전형의 합격 기준에 대한 일반적인 정보를 제공하고 있지만, 간호학과에 대한 구체적인 정보가 부족합니다. 그러나 전반적으로 관련된 주제를 다루고 있습니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 설명: 생성된 응답은 여러 요소를 고려해야 한다고 언급하지만, 원본 텍스트와의 연결이 약해 보입니다. 정보의 흐름이 다소 일관되지 않습니다.
+6. Accuracy Score (1-5): 2
+   - 설명: 생성된 응답은 3.7이라는 점수가 합격 기준을 충족할 가능성이 높다고 주장하지만, 이는 원본 텍스트의 사실과 상충합니다. 따라서 정확성이 낮습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 설명: 여러 차원에서 생성된 응답이 원본 텍스트와의 일관성, 정확성, 사실성에서 부족함을 보이고 있습니다. 전반적으로 낮은 품질을 나타냅니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 설명: 생성된 응답은 의미적으로 적절한 부분도 있지만, 원본 텍스트의 맥락과 다르게 해석된 부분이 있어 완전한 적절성을 보이지 않습니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬운 내용으로 구성되어 있으나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>0.6550666831482906</v>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적이 3.7인데 정시 전형 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>3.7이라는 점수는 대체로 여러 학과에서의 정시 합격 기준을 충족하는 수치일 가능성이 높습니다. 그러나 정확한 답변은 해당 대학 및 학과의 정시 전형 공고에 명시된 합격 기준에 따라 달라질 수 있습니다. 일부 대학에서는 최저 합격 점수가 3.5 이상이지만, 다른 대학들은 더 높은 점수를 요구할 수도 있습니다.
+또한, 정시 전형의 경우 여러 요소가 고려됩니다. 이들에는 성적 외에 자기소개서, 면접 결과 등이 포함될 수 있습니다. 따라서 3.7이라는 점수가 반드시 합격 기준을 충족하는 것은 아닙니다.
+따라서 가장 정확한 답변을 얻으시려면 해당 대학의 공식 웹사이트를 통해 정시 전형의 자세한 정보를 확인하시는 것이 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F192" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 3.7이라면 간호학과의 평균 등급보다 낮은 성적을 가지고 있기 때문에 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 2.58의 정시 성적이 간호학과의 평균 등급보다 높다고 언급하고 있지만, 실제로는 간호학과의 평균 등급이 2.34이므로 이 부분은 사실입니다. 그러나 응답에서 제시된 여러 요소(학교별 기준, 전형 방식, 경쟁률 등)는 합격 가능성을 판단하는 데 중요한 요소이지만, 원문에서 제공된 정보와는 직접적인 관련이 없으므로 일부 사실성이 떨어진다고 평가할 수 있습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원문에서 제공된 정보와 일치하는 부분도 있지만, 추가적인 요소를 고려해야 한다고 언급하면서 원문과의 일관성이 떨어지는 부분이 있습니다. 원문은 2.58의 성적이 합격 가능성이 높다고 명시하고 있지만, 생성된 응답은 그 점수만으로는 판단하기 어렵다고 하여 상충되는 내용을 포함하고 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 간호학과의 정시 전형 합격 가능성에 대한 질문에 대해 여러 요소를 고려해야 한다고 설명하고 있어 관련성이 높습니다. 그러나 원문에서 제공된 구체적인 데이터와 직접적으로 연결되지 않는 부분이 있어 완전한 관련성은 떨어진다고 볼 수 있습니다.
+4. Fluency Score (1-5): 5
+   - 설명: 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있으며, 읽기에도 무리가 없습니다. 따라서 유창성 점수는 높게 평가할 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원문과의 연결성이 약간 떨어져 있어 완전한 일관성은 부족하다고 평가할 수 있습니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 2.58의 성적이 간호학과의 평균 등급보다 높다고 언급하고 있지만, 그 외의 정보는 원문과의 직접적인 연관성이 부족하여 정확성 점수가 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 설명: 생성된 응답은 여러 차원에서 잘 작성되었지만, 사실성과 일관성에서 약간의 부족함이 있어 전체적인 품질 점수는 높지만 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 주제와 관련된 의미를 잘 전달하고 있으나, 원문과의 직접적인 연결이 부족하여 약간의 의미적 부적절함이 있습니다.
+9. Understandability Score (1-5): 5
+   - 설명: 생성된 응답은 명확하고 이해하기 쉬운 방식으로 작성되어 있어 이해 가능성 점수는 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>0.8035355533225212</v>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>간호학과 정시 성적이 2.58인데 정시 전형 합격할 수 있을까요?</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>2.58의 정시 성적을 가지고 간호학과의 정시 전형에 합격하는 가능성을 판단하기 위해서는 여러 요소를 고려해야 합니다.
+1. **학교별 기준**: 각 대학이 설정한 최저합격 점수는 다릅니다. 따라서, 이 점수만으로는 합격 가능성을 판단하기 어렵습니다.
+2. **전형 방식**: 정시 전형은 일반적으로 성적 외의 요소를 고려하는 것이 많습니다. 이를테면, 자기소개서, 면접 결과 등이 있습니다. 이러한 요소들이 좋은 평가를 받았다면 합격 가능성이 높을 수 있습니다.
+3. **경쟁률**: 간호학과는 일반적으로 경쟁률이 매우 높은 전공 중 하나입니다. 따라서, 성적 외의 요소들에 대한 평가도 중요합니다.
+따라서, 2.58이라는 점수만으로는 정시 합격 가능성을 판단하기 어렵습니다. 대학의 공식 정보를 확인하거나, 해당 대학의 전형 방식과 경쟁률을 고려하여 상세한 분석이 필요합니다. 또한, 자기소개서와 면접에서 자신의 능력과 적합성에 대한 명확한 표현을 통해 합격 가능성을 높일 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F193" t="inlineStr">
+        <is>
+          <t>간호학과의 최종등록자 데이터를 기준으로 보면, 간호학과의 영어 등급 평균은 2.34이고, 수능 4개 영역 등급 평균은 3.37입니다. 따라서, 현재 정시 등급이 2.58이라면 간호학과의 평균 등급보다 높은 성적을 가지고 있기 때문에 합격 가능성이 높습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 2
+   - 생성된 응답은 예비 번호 7번이 이미 사용 중이라는 잘못된 정보를 포함하고 있으며, 원본 텍스트의 내용과 일치하지 않습니다. 원본 텍스트는 예비 7번의 합격 가능성이 낮다고 명시하고 있습니다.
+2. Consistency Score (1-5): 2
+   - 생성된 응답은 원본 텍스트와 상충하는 정보를 제공합니다. 예비 번호 7번이 사용 중이라는 주장은 원본의 내용과 모순됩니다.
+3. Relevance Score (1-5): 3
+   - 생성된 응답은 예비 번호에 대한 질문에 답변하고 있지만, 원본 텍스트의 핵심 내용인 예비 7번의 합격 가능성에 대한 정보는 포함되어 있지 않아 다소 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 그러나 일부 표현이 다소 어색할 수 있습니다.
+5. Coherence Score (1-5): 3
+   - 생성된 응답은 일관된 주제를 가지고 있지만, 원본 텍스트와의 연결이 부족하여 전체적인 논리적 흐름이 약간 떨어집니다.
+6. Accuracy Score (1-5): 2
+   - 생성된 응답은 원본 텍스트의 사실과 일치하지 않으며, 예비 번호 7번에 대한 잘못된 정보를 포함하고 있습니다.
+7. Multidimensional Quality Score (1-5): 2
+   - 전반적으로 생성된 응답은 사실성, 일관성, 정확성에서 낮은 점수를 받았으며, 원본 텍스트와의 관계가 약해 다차원적으로 낮은 품질을 보입니다.
+8. Semantic Appropriateness Score (1-5): 3
+   - 생성된 응답은 의미적으로 적절한 부분이 있지만, 원본 텍스트의 맥락과는 다소 동떨어져 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 원본 텍스트와의 관련성이 떨어져 혼란을 줄 수 있습니다.
+{
+    "Factuality Score": 2,
+    "Consistency Score": 2,
+    "Relevance Score": 3,
+    "Fluency Score": 4,
+    "Coherence Score": 3,
+    "Accuracy Score": 2,
+    "Multidimensional Quality Score": 2,
+    "Semantic Appropriateness Score": 3,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>0.7834198815761704</v>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>게임공학과 예비번호 7번인데요 붙을까요?</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>7번의 예비 번호는 이미 사용 중인 것으로 보입니다. 게임공학과에 지원하시는 경우, 다른 번호를 선택해주시면 됩니다. 만약 가능한 번호가 없으시다면, 대학 관리자나 입학처로 문의하여 추가 번호를 할당 받을 수 있습니다.</t>
+        </is>
+      </c>
+      <c r="F194" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 충원합격(후보 순위) 3번까지 충원합격 된 것으로 나온다. 따라서, 현재 예비 7번이라면 게임공학과에 예비 합격할 가능성이 낮다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 정시 성적 4.16에 대한 여러 변수를 언급하고 있지만, 원본 텍스트에서 제공된 정보와는 다소 거리가 있습니다. 원본 텍스트는 합격 가능성에 대한 정보를 제공하고 있으며, 추가 합격에 대한 예측이 어렵다고 명시하고 있습니다. 그러나 생성된 응답은 추합 점수를 계산하는 데 필요한 정보에 대한 설명이 주를 이루고 있어, 원본의 핵심 내용을 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용과 일치하는 부분도 있지만, 원본에서 강조된 합격 가능성에 대한 정보는 간과하고 있습니다. 따라서 일관성 점수는 중간 정도로 평가됩니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 정시 성적과 추합 점수에 대한 논의를 포함하고 있어 관련성이 높습니다. 그러나 원본 텍스트의 핵심인 합격 가능성에 대한 언급이 부족하여 완전한 관련성은 아닙니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 복잡하게 느껴질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 이어집니다. 그러나 원본 텍스트의 핵심 주제를 충분히 반영하지 못한 점에서 약간의 일관성 부족이 있습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 다소 차이가 있으며, 특히 합격 가능성에 대한 언급이 부족합니다. 따라서 정확성 점수는 중간 정도로 평가됩니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 여러 차원에서 평가했을 때, 생성된 응답은 원본 텍스트의 핵심 내용을 충분히 반영하지 못하고 있으며, 일관성과 정확성에서 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 주제와 관련된 내용을 다루고 있으며, 의미적으로 적절합니다. 그러나 원본의 핵심 주제를 충분히 반영하지 못한 점에서 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 설명이 포함되어 있습니다. 다만, 일부 문장이 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>0.7635688542545681</v>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>게임공학과 정시 성적이 4.16정도인데 정시로 넣으면 추합몇정도 될까요?</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 게임공학과의 정시 성적이 4.16이라고 하셨는데, 이 점수를 가지고 추합을 계산하는 데는 여러 변수가 필요합니다. 예를 들어, 해당 학과의 평균 추합 점수와 표준편차 등이 포함됩니다.
+그러나 주어진 데이터에서 특정 학과의 추합 점수를 직접적으로 찾기는 어렵습니다. 추합 점수는 일반적으로 성적 외에 여러 요소를 고려하여 계산되므로, 정확한 추합 점수를 예측하는 것은 불가능합니다.
+그러나 대략적인 추정을 하려면, 주어진 데이터에서 해당 학과의 평균 추합 점수와 표준편차를 찾아야 합니다. 그런 다음 이 값을 사용하여 정규 분포를 기반으로 한 통계적 방법을 적용할 수 있습니다.
+이런 계산은 통계학에 대한 깊은 이해가 필요하며, 일반적으로는 교육 관리자나 해당 대학의 캠퍼스 웹사이트에서 이런 정보를 찾을 수 있습니다. 
+따라서, 정확한 추합 점수를 얻기 위해서는 해당 학과의 평균 추합 점수와 표준편차를 알아야 합니다. 이 정보가 제공되지 않았으므로, 이 질문에 대한 확실한 답변은 불가능합니다.</t>
+        </is>
+      </c>
+      <c r="F195" t="inlineStr">
+        <is>
+          <t>게임공학과의 최종등록자 데이터를 기준으로 보면, 게임공학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.78입니다. 따라서, 현재 정시 등급이 4.16이라면 게임공학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 단, 추가 합격 몇 번을 받을지는 예측하기 어렵습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 GPA 3.75가 경영정보학과의 최초 합격 기준을 충족하는지에 대한 조건을 설명하고 있으며, 수능 점수와 영어 등급을 고려해야 한다고 언급하고 있습니다. 그러나 원본 텍스트에서 제공된 평균 등급 정보와 비교할 때, GPA 3.75가 평균보다 높은 성적이라는 점을 명확히 언급하지 않았습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, GPA 3.75가 평균보다 높은 성적이라는 점을 명확히 언급하지 않아 일관성이 떨어집니다. 또한, 최초 합격 기준에 대한 설명이 원본 텍스트의 내용과 다소 상충하는 부분이 있습니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 경영정보학과의 최초 합격 기준에 대한 질문에 직접적으로 관련된 정보를 제공하고 있으며, 원본 텍스트의 주요 내용과 잘 연결되어 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 서로 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 약간 어색하게 느껴질 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 하여 정확한 내용을 전달하고 있지만, GPA 3.75가 평균보다 높은 성적이라는 점을 명확히 언급하지 않아 정확성이 다소 떨어집니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성 등에서 좋은 점수를 받고 있습니다. 그러나 일부 세부 사항에서 부족함이 있어 완벽하지는 않습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하고 있습니다. 그러나 GPA 3.75의 의미를 명확히 전달하지 못한 부분이 있어 약간의 부족함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 정보를 제공합니다. 그러나 일부 문장이 길어져서 이해하는 데 약간의 어려움이 있을 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>0.7947626683589192</v>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적 3.75 인데 최초합으로 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>3.75의 GPA를 가진 지원자가 경영정보학과의 최초 합격 기준을 충족하는지 여부는 수능 점수, 영어 등급, 수능 4개 영역 등급 등을 고려해야 합니다. 그러나 Context에서 제공된 정보로는 이러한 세부적인 점수가 명시되지 않았습니다.
+최초합격자 표를 참조하면, 경영정보학과의 최초 합격 기준은 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합 평균 및 표준 편차에 따라 결정됩니다. 또한 지원 인원과 경쟁률도 고려되어야 합니다.
+따라서, 3.75 GPA만으로는 최초합격 여부를 판단하기 어렵습니다. 추가적인 정보가 필요합니다: 국어 + 수학 + 탐구(2개)의 표준 변환 점수 합 평균 및 표준 편차, 지원 인원 수, 경쟁률 등이 포함된 데이터입니다.
+또한, Context에서 제공된 정보는 최초합격자에 대한 것이므로, 3.75 GPA가 충분히 최초합격 기준을 만족하는지 여부를 판단하기 위해서는 해당 학과의 최초 합격 점수와 비교해야 합니다.
+이런 이유로, 정확한 답변을 제공하려면 더 많은 정보가 필요합니다. Context에서 제공된 정보만으로는 3.75 GPA가 경영정보학과의 최초 합격 기준을 충족하는지 판단하기 어렵습니다.</t>
+        </is>
+      </c>
+      <c r="F196" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 3.75이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 높아보입니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 경영정보학과의 정시 성적에 대한 정보가 부족하다고 언급하고 있지만, 원본 텍스트에서는 4.2라는 성적이 평균보다 높아 합격 가능성이 높다고 명시하고 있습니다. 따라서, 응답은 일부 사실을 반영하고 있으나, 원본의 핵심 정보를 충분히 반영하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 내용을 일부 반영하고 있으나, 경영정보학과의 평균 성적에 대한 언급이 없고, 경쟁률에 대한 정보가 필요하다고 강조하고 있습니다. 이는 원본의 내용과 일치하지 않으며, 일관성이 떨어집니다.
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 질문에 대한 답변을 제공하려고 하지만, 원본 텍스트의 핵심 정보인 합격 가능성에 대한 내용을 충분히 다루지 않고 있습니다. 그러나, 경영정보학과의 경쟁률과 관련된 정보를 언급하여 어느 정도 관련성을 유지하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 연결된 문장들로 구성되어 있으며, 주제를 잘 전달하고 있습니다. 그러나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 완전한 일관성을 보이지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 사실을 일부 반영하고 있으나, 경영정보학과의 평균 성적에 대한 정보와 합격 가능성에 대한 명확한 언급이 부족하여 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 생성된 응답은 여러 차원에서 중간 정도의 품질을 보이고 있으나, 원본 텍스트의 핵심 정보를 충분히 반영하지 못하고 있어 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 질문의 맥락에 맞는 의미를 전달하고 있으나, 원본 텍스트의 핵심 내용을 충분히 반영하지 못해 의미의 적절성이 다소 떨어집니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬운 구조를 가지고 있으며, 명확한 언어로 작성되어 있습니다. 그러나, 원본의 핵심 정보를 충분히 반영하지 못해 일부 혼란을 초래할 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>0.8754054898176464</v>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>경영정보학과 정시 성적이 4.2입니다. 최초합 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 질문에 대한 답변을 제공하기 위해서는 수능(일반학생전형) 최초합격자의 표를 참조해야 합니다. 그러나, 주어진 Context에는 경영정보학과의 정시 성적 정보나 해당 학과의 경쟁률 등이 포함되어 있지 않습니다.
+수능(일반학생전형) 최초합격자 표에서 경영정보학과의 경쟁률을 확인하면, 그 값이 4.2인 경우에 최초합격 가능 여부를 판단할 수 있습니다. 그러나 주어진 Context에는 이러한 정보가 없습니다.
+따라서, 경영정보학과 정시 성적이 4.2일 때 최초합격 가능한지에 대한 확실한 답변을 제공하기 위해서는 해당 학과의 최초합격자 표에서 확인해야 합니다. 
+참고로, 경쟁률이 낮은 경우 일반적으로 최초합격 가능성이 높지만, 이는 모든 상황에서 적용되는 것은 아니며, 지원자의 성적 외에 여러 요소가 고려됩니다.
+더 자세한 정보를 얻으시려면 "https://ipsi.deu.ac.kr/main.do"로 접속하여 해당 학과의 최초합격자 표를 확인하시는 것을 권장드립니다.</t>
+        </is>
+      </c>
+      <c r="F197" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 4.2이라면 경영정보학과의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 경영정보학과의 평균 등급과 관련된 정보를 포함하고 있으며, 5.33이라는 점수에 대한 합격 가능성을 여러 요소에 따라 설명하고 있습니다. 그러나 원본 텍스트에서 제시된 평균 등급보다 낮은 성적이라는 점을 명확히 강조하지 않았습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일부분 일치하지만, 합격 가능성을 높이기 위한 여러 요소를 나열하면서 원본의 결론과는 다소 상충하는 느낌을 줍니다. 원본 텍스트는 합격 가능성이 낮다고 명시했으나, 생성된 응답은 여러 요소를 고려해야 한다고 하여 모호함을 남깁니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 원본 텍스트의 주제와 관련이 깊으며, 경영정보학과의 합격 가능성에 대한 다양한 요소를 다루고 있습니다. 따라서 매우 관련성이 높습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며 읽기 쉽습니다. 다만, 일부 문장이 길어 가독성이 떨어질 수 있는 부분이 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 나열되어 있습니다. 그러나 원본 텍스트의 결론과의 연결이 다소 약해 보입니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 정보를 바탕으로 작성되었으나, 합격 가능성에 대한 결론이 원본과 다소 다르게 해석될 수 있습니다. 원본의 명확한 결론을 반영하지 못한 점이 아쉽습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 전반적으로 생성된 응답은 여러 품질 차원에서 잘 수행되고 있으나, 원본 텍스트와의 일관성에서 약간의 부족함이 있습니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하지만, 합격 가능성에 대한 해석이 다소 모호하게 표현되어 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉽지만, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.8184821490983611</v>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 5.33으로 일반학생전형 경영정보학과 합격 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>5.33이라는 점수를 가지고 정시 모집의 일반학생전형 경영정보학과에 지원하면, 합격 가능성은 여러 요소에 따라 달라질 수 있습니다.
+1. **전형 방식**: 경영정보학과는 수능 전형, 실기/실적 전형 등 다양한 전형 방식을 사용할 수 있습니다. 각각의 전형 방식에 따른 점수 기준이 다르므로, 이 점을 고려해야 합니다.
+2. **동점자 처리 기준**: 동점자가 발생했을 때의 처리 방법도 합격 가능성을 결정하는 중요한 요소입니다. 예를 들어, 수능 국어 영역의 표준점수 상위자로 선발되는 경우 등이 있습니다.
+3. **최저합격선**: 각 모집단위별로 설정된 최저합격선을 확인해야 합니다. 이 점수보다 높은 점수가 필요하다면 합격 가능성이 높아질 수 있습니다.
+4. **모집인원 및 지원자 수**: 모집인원과 지원자 수에 따라 경쟁률이 달라지므로, 이 정보를 확인해야 합니다.
+5. **동점자 처리 기준 추가 내용**: 동점자가 발생했을 때의 처리 방법 중 수능 영역별 점수 적용 시 미응시한 영역은 '0점'으로 처리하는 것이 있으므로, 이에 따른 영향도 고려해야 합니다.
+6. **최저합격선에서 동점자 발생 시 합격 인원 확정**: 최저합격선에서 동점자가 발생했을 때는 그 인원을 모두 합격 처리하고, 모집인원을 초과하는 인원만큼 차차년도 모집에서 감축하여 모집합니다.
+따라서, 5.33이라는 점수로 경영정보학과에 합격할 수 있는지 여부는 위의 요소들을 모두 고려해야 합니다. 이 정보를 바탕으로 정확한 판단을 내릴 수 있도록 하겠습니다.</t>
+        </is>
+      </c>
+      <c r="F198" t="inlineStr">
+        <is>
+          <t>경영정보학과의 최종등록자 데이터를 기준으로 보면, 경영정보학과의 영어 등급 평균은 3.25이고, 수능 4개 영역 등급 평균은 4.31입니다. 따라서, 현재 정시 등급이 5.33이라면 경영정보학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 3.33에 대한 합격 가능성을 여러 요소를 고려하여 설명하고 있지만, 원본 텍스트에서 제공된 구체적인 평균 성적(영어 4.53, 수능 5.41)과 비교하여 명확한 판단을 내리지 않고 있습니다. 따라서 일부 사실이 누락되었고, 원본의 구체적인 수치를 반영하지 못했습니다.
+2. Consistency Score (1-5): 3
+   - 설명: 생성된 응답은 원본 텍스트의 정보와 일치하는 부분도 있지만, 합격 가능성에 대한 판단이 원본의 명확한 결론과는 다소 상충합니다. 원본에서는 3.33의 성적이 합격 가능성이 높다고 명시했으나, 생성된 응답은 여러 요소를 고려해야 한다고 하여 혼란을 줄 수 있습니다.
+3. Relevance Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 주제와 관련된 정보를 제공하고 있으며, 수능 성적과 합격 가능성에 대한 논의를 포함하고 있습니다. 그러나 원본의 구체적인 수치와 비교하는 부분이 부족하여 약간의 관련성이 떨어집니다.
+4. Fluency Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 문법적으로 올바르고 읽기 쉬운 구조를 가지고 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 설명: 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 요소가 명확하게 연결되어 있습니다. 그러나 원본의 결론과 다소 상충하는 부분이 있어 완전한 일관성은 부족합니다.
+6. Accuracy Score (1-5): 3
+   - 설명: 생성된 응답은 수능 성적 3.33에 대한 일반적인 추측을 제공하지만, 원본 텍스트의 구체적인 수치와 비교하여 정확성이 떨어집니다. 원본의 평균 성적을 반영하지 않고 일반적인 정보만을 제공하고 있습니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 설명: 생성된 응답은 여러 차원에서 평균적인 성과를 보이지만, 원본의 구체적인 사실과 결론을 충분히 반영하지 못하여 전반적인 품질이 떨어집니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 설명: 생성된 응답은 원본 텍스트의 의미와 맥락에 적절하게 부합하며, 수능 성적에 대한 논의가 적절하게 이루어졌습니다. 그러나 원본의 구체적인 수치와 비교하는 부분이 부족합니다.
+9. Understandability Score (1-5): 4
+   - 설명: 생성된 응답은 전반적으로 이해하기 쉬우며, 명확한 설명이 제공됩니다. 그러나 일부 문장이 길어 가독성이 떨어질 수 있습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.7168596321684129</v>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>동의대식 정시 성적 3.33 정도인데 바이오응용공학부 최초합 가능할까요?</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>2024년 동의대학교 정시 모집요강에 따르면, 수능 성적이 3.33이라면 이는 대략적으로 평균 성적에 해당하는 점수일 것입니다. 그러나 정확한 합격 가능성을 판단하기 위해서는 여러 요소를 고려해야 합니다.
+1. **전형 방식**: 동의대학교의 정시 모집은 수능 성적과 학생부 교과성적을 반영하며, 일부 전형에서는 실기/실적도 고려됩니다.
+2. **모집단위 별 경쟁률**: 바이오응용공학부의 경쟁률에 따라 합격 가능성이 달라질 수 있습니다. 이는 모집인원과 지원자 수에 따라 결정되므로, 정확한 정보를 얻기 위해서는 해당 년도의 최종 통계를 확인해야 합니다.
+3. **가산점 및 특별한 점수**: 가산점을 고려하면 합격 가능성이 높아질 수 있습니다. 또한, 특정 전형에서는 실기/실적 성적이 중요한 역할을 할 수 있으므로 이 부분도 고려해야 합니다.
+따라서, 3.33의 수능 성적만으로는 정확한 판단이 어렵습니다. 가장 정확한 정보를 얻으려면 해당 년도의 동의대학교 정시 모집요강에 명시된 점수 기준과 경쟁률을 확인하고, 가능한 한 많은 정보를 수집하여 분석해야 합니다.
+또한, 이는 일반적인 추측이며, 각 학교와 전형마다 점수가 다르므로, 최종 결정은 해당 년도의 정확한 통계를 바탕으로 해야 합니다.</t>
+        </is>
+      </c>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>바이오응용공학부의 최종등록자 데이터를 기준으로 보면, 바이오응용공학부의 영어 등급 평균은 4.53이고, 수능 4개 영역 등급 평균은 5.41입니다. 따라서, 현재 정시 등급이 3.33이라면 바이오응용공학부의 평균 등급보다 높은 성적을 가지고 있어 합격 가능성이 높습니다. 즉, 최초합격 가능성은 있습니다. 자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 3
+   - 생성된 응답은 방사선학과의 수능 성적을 주요 평가 기준으로 언급하고 있지만, 원문에서 제공된 평균 등급(영어 2.8, 수능 4개 영역 3.82)과 현재 정시 등급(4.4)과의 비교를 명확히 반영하지 않고 있습니다. 따라서 일부 사실이 누락되어 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 방사선학과의 평가 기준에 대한 정보를 제공하지만, 원문에서 제시된 평균 등급과 현재 정시 등급의 관계를 명확히 언급하지 않아 일관성이 떨어집니다. 
+3. Relevance Score (1-5): 4
+   - 생성된 응답은 방사선학과 지원 시 고려해야 할 요소에 대해 설명하고 있어 관련성이 높지만, 원문에서 제시된 특정 수치와 비교하는 내용이 부족하여 완전한 관련성을 갖추지 못했습니다.
+4. Fluency Score (1-5): 5
+   - 생성된 응답은 문법적으로 정확하고 자연스럽게 작성되어 있어 읽기 쉽습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있지만, 원문과의 연결이 부족하여 완전한 일관성을 제공하지는 않습니다.
+6. Accuracy Score (1-5): 3
+   - 생성된 응답은 방사선학과의 평가 기준에 대한 정보를 제공하지만, 원문에서 제시된 평균 등급과 현재 정시 등급의 관계를 명확히 반영하지 않아 정확성이 떨어집니다.
+7. Multidimensional Quality Score (1-5): 3
+   - 전반적으로 생성된 응답은 유용한 정보를 제공하지만, 사실성, 일관성, 정확성에서 부족한 점이 있어 중간 점수를 부여합니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 방사선학과 지원 시 고려해야 할 요소에 대해 적절하게 설명하고 있어 의미적으로 적합합니다.
+9. Understandability Score (1-5): 5
+   - 생성된 응답은 명확하고 이해하기 쉬운 언어로 작성되어 있어 이해 가능성이 높습니다.
+{
+    "Factuality Score": 3,
+    "Consistency Score": 3,
+    "Relevance Score": 4,
+    "Fluency Score": 5,
+    "Coherence Score": 4,
+    "Accuracy Score": 3,
+    "Multidimensional Quality Score": 3,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 5
+}</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.7838631605080121</v>
+      </c>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>제가 지금 현재 정시 등급이 4.4정도고, 일반학생전형 생각중인데, 제 성적으로 방사선학과 갈 수 잇을까요?</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>2023년 입학의 경우, 방사선학과에 지원할 때 고려해야 할 요소 중 하나는 수능 점수입니다. 방사선학과는 일반학생전형에서 수능 성적을 주요한 평가 기준으로 사용합니다.
+그러나 정시 등급만으로 판단하기는 어렵습니다. 방사선학과의 경우 수능 국어, 수학, 영어 등 여러 영역의 점수를 고려하며 합계점수를 계산하여 순위를 매깁니다. 또한 수능 영역별 점수에 가산점을 부여하기도 합니다.
+따라서 정확한 판단을 하기 위해서는 해당 대학에서 공개하는 수능성적 반영방법과 동점자 처리 기준, 그리고 최소 합격선 등을 참조해야 합니다. 또한, 수능 성적이 아니라 교과 성적, 면접 결과 등 다른 평가 요소도 고려될 수 있으므로 이에 대한 정보도 참고하는 것이 중요합니다.
+이러한 정보를 얻기 위해서는 해당 대학의 입학공고나 공식 웹사이트를 참조하거나, 학교 관계자에게 직접 문의하는 것이 가장 좋습니다.</t>
+        </is>
+      </c>
+      <c r="F200" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 4.4이라면 방사선학과의 평균 등급보다 낮은 성적을 가지고 있어 합격 가능성이 낮습니다.
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Qwen2-7B-instruct</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>1. Factuality Score (1-5): 4
+   - 생성된 응답은 방사선학과의 평균 점수와 관련된 정보를 제공하고 있으며, 2.66이라는 점수가 평균보다 높다는 점을 언급하고 있습니다. 그러나 "방사선학과의 평균 점수가 2.66보다 높을 경우"라는 부분은 다소 모호하게 표현되어 있어, 정확한 사실을 전달하지 못하고 있습니다.
+2. Consistency Score (1-5): 3
+   - 생성된 응답은 원본 텍스트의 정보와 일치하는 부분이 있지만, "방사선학과의 평균 점수가 2.66보다 높을 경우"라는 문장은 원본의 내용을 완전히 반영하지 않고 있습니다. 이로 인해 일관성이 떨어집니다.
+3. Relevance Score (1-5): 5
+   - 생성된 응답은 방사선학과의 정시 등급에 대한 질문에 직접적으로 관련된 내용을 다루고 있으며, 원본 텍스트의 주요 포인트를 잘 반영하고 있습니다.
+4. Fluency Score (1-5): 4
+   - 생성된 응답은 전반적으로 문법적으로 올바르며, 읽기 쉽게 작성되어 있습니다. 다만, 일부 문장이 다소 길어 가독성이 떨어질 수 있습니다.
+5. Coherence Score (1-5): 4
+   - 생성된 응답은 논리적으로 잘 구성되어 있으며, 각 문장이 자연스럽게 연결되어 있습니다. 그러나 일부 문장에서 정보의 흐름이 약간 어색할 수 있습니다.
+6. Accuracy Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 사실을 대체로 정확하게 반영하고 있지만, 특정 문장에서의 표현이 다소 모호하여 정확성이 떨어질 수 있습니다.
+7. Multidimensional Quality Score (1-5): 4
+   - 생성된 응답은 전반적으로 높은 품질을 유지하고 있으며, 사실성, 일관성, 관련성, 정확성에서 좋은 점수를 받고 있습니다. 그러나 일부 표현에서의 모호함이 아쉬운 점입니다.
+8. Semantic Appropriateness Score (1-5): 4
+   - 생성된 응답은 원본 텍스트의 의미와 맥락에 잘 맞춰져 있으며, 전반적으로 적절한 의미를 전달하고 있습니다. 다만, 일부 표현에서의 모호함이 있습니다.
+9. Understandability Score (1-5): 4
+   - 생성된 응답은 전반적으로 이해하기 쉬우나, 일부 문장이 길어져서 다소 복잡하게 느껴질 수 있습니다.
+{
+    "Factuality Score": 4,
+    "Consistency Score": 3,
+    "Relevance Score": 5,
+    "Fluency Score": 4,
+    "Coherence Score": 4,
+    "Accuracy Score": 4,
+    "Multidimensional Quality Score": 4,
+    "Semantic Appropriateness Score": 4,
+    "Understandability Score": 4
+}</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.8494687560734164</v>
+      </c>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>방사선학과 정시로 2.66은 좀 위험할까요?</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>2.66이라는 점수를 가지고 방사선학과의 정시에 응시하실 경우, 일반적으로는 안전한 범위에 속하는 점수라고 볼 수 있습니다. 그러나 각 대학 및 학과별로 입학 경쟁률이 다르므로, 이 점수만으로 판단하기에는 한계가 있습니다.
+방사선학과의 평균 점수가 2.66보다 높을 경우, 더 낮은 점수로는 입학할 수 없을 수도 있습니다. 반대로 방사선학과의 평균 점수가 낮다면, 2.66이라는 점수로는 상당히 좋은 기회를 얻을 수 있을 것입니다.
+따라서, 해당 대학 및 학과의 최근 입학 경쟁률 정보와 평균 점수 등을 참고하여 최종 판단하는 것이 좋습니다. 또한, 여러 학과에 지원하실 경우, 각 학과의 입학 가능성에 대한 정보를 모두 고려해야 합니다.
+이외에도, 대학별로는 전형 방식에 따라 다르게 점수를 계산하므로, 정시전형에서는 일반적으로 학년별 평균점수와 학년 내 순위가 중요하게 작용합니다. 따라서, 해당 학과의 입학 경쟁률을 확인하고, 자신의 성적과 비교하여 자신이 얼마나 뛰어나게 대비했는지 판단하는 것이 중요합니다.
+마지막으로, 점수가 아니라 본인의 능력과 희망에 맞는 학과를 선택하는 것이 가장 중요하므로, 이 점을 고려해주세요.</t>
+        </is>
+      </c>
+      <c r="F201" t="inlineStr">
+        <is>
+          <t>방사선학과의 최종등록자 데이터를 기준으로 보면, 방사선학과의 영어 등급 평균은 2.8이고, 수능 4개 영역 등급 평균은 3.82입니다. 
+따라서, 현재 정시 등급이 2.66이라면 이는 귀하의 성적이 평균보다 높음을 의미합니다. 따라서, 귀하는 방사선학과에 합격할 가능성이 있다고 볼 수 있습니다. 
+자세한 사항은 "https://ipsi.deu.ac.kr/main.do"에서 확인하시기 바랍니다.</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
